--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1271A498-D488-4B4B-9589-21CDFE963D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307E46F-8FCF-47C7-AB39-58D1B638CC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
   <si>
     <t>data</t>
   </si>
@@ -610,6 +610,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -620,7 +623,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -723,6 +726,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3076</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -872,6 +878,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -882,7 +891,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -982,6 +991,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1127,6 +1139,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1137,7 +1152,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-2</c:v>
@@ -1234,6 +1249,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1383,6 +1401,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1393,7 +1414,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="3">
-                  <c:v>-11</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-6</c:v>
@@ -1487,6 +1508,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1861,6 +1885,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1971,6 +1998,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2120,6 +2150,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2227,6 +2260,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2372,6 +2408,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2476,6 +2515,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2859,6 +2901,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2972,6 +3017,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3121,6 +3169,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3231,6 +3282,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3376,6 +3430,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3483,6 +3540,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3632,6 +3692,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3736,6 +3799,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,6 +4176,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4220,6 +4289,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4369,6 +4441,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4476,6 +4551,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4621,6 +4699,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4725,6 +4806,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-256</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6849,6 +6933,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6959,6 +7046,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7108,6 +7198,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7215,6 +7308,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7360,6 +7456,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7464,6 +7563,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7883,6 +7985,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7996,6 +8101,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9677</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8381,6 +8489,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8491,6 +8602,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>923</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8887,6 +9001,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8997,6 +9114,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.9583875162548763</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.0080820640348152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9146,6 +9266,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9256,6 +9379,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.9929793769197017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.0608476710029375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9687,6 +9813,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9797,6 +9926,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>33.802197802197803</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33.243773896868866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9946,6 +10078,9 @@
                 <c:pt idx="35">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10056,6 +10191,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>25.043956043956044</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>24.625400434018808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10451,6 +10589,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10461,7 +10602,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10</c:v>
@@ -10561,6 +10702,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10710,6 +10854,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10720,7 +10867,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-2</c:v>
@@ -10817,6 +10964,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10962,6 +11112,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10972,7 +11125,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="3">
-                  <c:v>-11</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-6</c:v>
@@ -11066,6 +11219,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11566,6 +11722,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2383</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13465,6 +13624,9 @@
                 <c:pt idx="34">
                   <c:v>2279</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2383</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14905,6 +15067,9 @@
                 <c:pt idx="34">
                   <c:v>10.356037550199744</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.815561798498493</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16382,6 +16547,9 @@
                 <c:pt idx="34">
                   <c:v>377</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>397</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -17534,6 +17702,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18981,6 +19152,9 @@
                 <c:pt idx="34">
                   <c:v>-16.330629332574574</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>-21.889845790012657</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20248,6 +20422,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20258,7 +20435,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -20361,6 +20538,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3076</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20748,6 +20928,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20861,6 +21044,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21010,6 +21196,9 @@
                 <c:pt idx="35">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21120,6 +21309,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21455,6 +21647,9 @@
                 <c:pt idx="35">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21559,6 +21754,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21933,6 +22131,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22046,6 +22247,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22195,6 +22399,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22305,6 +22512,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22450,6 +22660,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22557,6 +22770,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22706,6 +22922,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22810,6 +23029,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23193,6 +23415,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23303,6 +23528,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23452,6 +23680,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23559,6 +23790,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-31</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23704,6 +23938,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23808,6 +24045,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24191,6 +24431,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24301,6 +24544,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24450,6 +24696,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24557,6 +24806,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24702,6 +24954,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24806,6 +25061,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25189,6 +25447,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25302,6 +25563,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25451,6 +25715,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25561,6 +25828,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25706,6 +25976,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25813,6 +26086,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25962,6 +26238,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26066,6 +26345,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26440,6 +26722,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26553,6 +26838,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1243</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26702,6 +26990,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26812,6 +27103,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26957,6 +27251,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27064,6 +27361,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27213,6 +27513,9 @@
                 <c:pt idx="34">
                   <c:v>43919</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27317,6 +27620,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31000,10 +31306,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31092,7 +31398,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="17">
         <v>1</v>
@@ -32388,6 +32694,44 @@
       </c>
       <c r="L37" s="17">
         <v>9100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="18">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1142</v>
+      </c>
+      <c r="D38" s="17">
+        <v>175</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1317</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1066</v>
+      </c>
+      <c r="G38" s="17">
+        <v>2383</v>
+      </c>
+      <c r="H38" s="17">
+        <v>104</v>
+      </c>
+      <c r="I38" s="17">
+        <v>437</v>
+      </c>
+      <c r="J38" s="17">
+        <v>397</v>
+      </c>
+      <c r="K38" s="17">
+        <v>3217</v>
+      </c>
+      <c r="L38" s="17">
+        <v>9677</v>
       </c>
     </row>
   </sheetData>
@@ -32403,8 +32747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K4"/>
+    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37:H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32506,7 +32850,7 @@
         <v>0.56783954524504932</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H37" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H38" si="2">C4-E4</f>
         <v>-1.4014837338411104</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33607,6 +33951,14 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
+      <c r="C38" s="3">
+        <f>Dati!G38</f>
+        <v>2383</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38-C37</f>
+        <v>104</v>
+      </c>
       <c r="E38" s="11">
         <f t="shared" si="5"/>
         <v>2339.1844382015015</v>
@@ -33619,6 +33971,10 @@
         <f t="shared" si="4"/>
         <v>70.540475751701251</v>
       </c>
+      <c r="H38" s="11">
+        <f t="shared" si="2"/>
+        <v>43.815561798498493</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2">
@@ -34228,7 +34584,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="8">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E96" si="9">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>2599.8847350317087</v>
       </c>
       <c r="F67" s="11">
@@ -34252,11 +34608,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2599.9120081637548</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="9">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F96" si="10">(E68-E67)*10</f>
         <v>0.27273132046047976</v>
       </c>
       <c r="G68" s="11">
@@ -34272,19 +34628,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="10">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="11">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2599.9328282986335</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.20820134878704266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="11">E69-E68</f>
+        <f t="shared" ref="G69:G96" si="12">E69-E68</f>
         <v>2.0820134878704266E-2</v>
       </c>
     </row>
@@ -34296,19 +34652,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9487221871082</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9487221871082</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="9"/>
         <v>0.15893888474693085</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.5893888474693085E-2</v>
       </c>
     </row>
@@ -34320,19 +34676,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9608553864482</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9608553864482</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="9"/>
         <v>0.12133199340041756</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2133199340041756E-2</v>
       </c>
     </row>
@@ -34344,19 +34700,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9701176982462</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9701176982462</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="9"/>
         <v>9.2623117980110692E-2</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.2623117980110692E-3</v>
       </c>
     </row>
@@ -34368,19 +34724,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9771884015604</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9771884015604</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="9"/>
         <v>7.0707033141843567E-2</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.0707033141843567E-3</v>
       </c>
     </row>
@@ -34392,19 +34748,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9825860573665</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9825860573665</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="9"/>
         <v>5.3976558060639945E-2</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3976558060639945E-3</v>
       </c>
     </row>
@@ -34416,19 +34772,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9867065322105</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9867065322105</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="9"/>
         <v>4.1204748440577532E-2</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.1204748440577532E-3</v>
       </c>
     </row>
@@ -34440,19 +34796,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9898520270035</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9898520270035</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="9"/>
         <v>3.1454947929887567E-2</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1454947929887567E-3</v>
       </c>
     </row>
@@ -34464,19 +34820,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9922532383512</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9922532383512</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="9"/>
         <v>2.4012113476601371E-2</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4012113476601371E-3</v>
       </c>
     </row>
@@ -34488,19 +34844,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9940862768408</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9940862768408</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="9"/>
         <v>1.8330384896216856E-2</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8330384896216856E-3</v>
       </c>
     </row>
@@ -34512,19 +34868,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9954855825754</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9954855825754</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="9"/>
         <v>1.3993057345942361E-2</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.3993057345942361E-3</v>
       </c>
     </row>
@@ -34536,19 +34892,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9965537848934</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9965537848934</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="9"/>
         <v>1.0682023180379474E-2</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0682023180379474E-3</v>
       </c>
     </row>
@@ -34560,19 +34916,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9973692292292</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9973692292292</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="9"/>
         <v>8.1544433578528697E-3</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>8.1544433578528697E-4</v>
       </c>
     </row>
@@ -34584,19 +34940,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.997991723058</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.997991723058</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="9"/>
         <v>6.2249382881418569E-3</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.2249382881418569E-4</v>
       </c>
     </row>
@@ -34608,19 +34964,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9984669222836</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9984669222836</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="9"/>
         <v>4.7519922554783989E-3</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.7519922554783989E-4</v>
       </c>
     </row>
@@ -34632,19 +34988,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9988296797446</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9988296797446</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="9"/>
         <v>3.627574610618467E-3</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.627574610618467E-4</v>
       </c>
     </row>
@@ -34656,19 +35012,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.99910660142</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.99910660142</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="9"/>
         <v>2.7692167532222811E-3</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.7692167532222811E-4</v>
       </c>
     </row>
@@ -34680,19 +35036,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9993179977882</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9993179977882</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="9"/>
         <v>2.1139636828593211E-3</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.1139636828593211E-4</v>
       </c>
     </row>
@@ -34704,19 +35060,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9994793734645</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9994793734645</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="9"/>
         <v>1.6137567627083627E-3</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.6137567627083627E-4</v>
       </c>
     </row>
@@ -34728,19 +35084,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.99960256436</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.99960256436</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="9"/>
         <v>1.2319089546508621E-3</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.2319089546508621E-4</v>
       </c>
     </row>
@@ -34752,19 +35108,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9996966057706</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9996966057706</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="9"/>
         <v>9.4041410648060264E-4</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.4041410648060264E-5</v>
       </c>
     </row>
@@ -34776,19 +35132,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9997683950605</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9997683950605</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="9"/>
         <v>7.1789289904700126E-4</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.1789289904700126E-5</v>
       </c>
     </row>
@@ -34800,19 +35156,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9998231975346</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9998231975346</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="9"/>
         <v>5.4802474096504739E-4</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.4802474096504739E-5</v>
       </c>
     </row>
@@ -34824,19 +35180,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9998650326211</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9998650326211</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="9"/>
         <v>4.1835086449282244E-4</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.1835086449282244E-5</v>
       </c>
     </row>
@@ -34848,19 +35204,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9998969686694</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9998969686694</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="9"/>
         <v>3.1936048344505252E-4</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.1936048344505252E-5</v>
       </c>
     </row>
@@ -34872,19 +35228,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9999213479941</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9999213479941</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="9"/>
         <v>2.4379324713663664E-4</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4379324713663664E-5</v>
       </c>
     </row>
@@ -34896,19 +35252,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9999399586709</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9999399586709</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="9"/>
         <v>1.861067676145467E-4</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.861067676145467E-5</v>
       </c>
     </row>
@@ -34920,19 +35276,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="9"/>
+        <v>2599.9999541656803</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="8"/>
-        <v>2599.9999541656803</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="9"/>
         <v>1.4207009371602908E-4</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.4207009371602908E-5</v>
       </c>
     </row>
@@ -35269,8 +35625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35407,7 +35763,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E36" si="3">10*(C5-C4)</f>
+        <f t="shared" ref="E5:E37" si="3">10*(C5-C4)</f>
         <v>0</v>
       </c>
       <c r="F5" s="11">
@@ -35423,7 +35779,7 @@
         <v>6.3785317586993906E-2</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I37" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I38" si="5">C5-F5</f>
         <v>-0.26967276365501336</v>
       </c>
       <c r="J5" s="11"/>
@@ -36625,6 +36981,10 @@
         <f t="shared" ref="D37" si="7">C37-C36</f>
         <v>19</v>
       </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>190</v>
+      </c>
       <c r="F37" s="11">
         <f t="shared" ref="F37:F59" si="8">$L$2/(1+$L$5*EXP(-$L$4*B37))</f>
         <v>393.33062933257457</v>
@@ -36650,7 +37010,18 @@
       <c r="B38" s="10">
         <v>36</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3">
+        <f>Dati!J38</f>
+        <v>397</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="9">C38-C37</f>
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="10">10*(C38-C37)</f>
+        <v>200</v>
+      </c>
       <c r="F38" s="11">
         <f t="shared" si="8"/>
         <v>418.88984579001266</v>
@@ -36663,7 +37034,10 @@
         <f t="shared" si="4"/>
         <v>25.559216457438083</v>
       </c>
-      <c r="I38" s="11"/>
+      <c r="I38" s="11">
+        <f t="shared" si="5"/>
+        <v>-21.889845790012657</v>
+      </c>
       <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10">
@@ -37158,7 +37532,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="9">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="11">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>529.63024209242406</v>
       </c>
       <c r="G60" s="11">
@@ -37181,7 +37555,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.71768779143986</v>
       </c>
       <c r="G61" s="11">
@@ -37204,7 +37578,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.78446148264879</v>
       </c>
       <c r="G62" s="11">
@@ -37227,7 +37601,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.83544648096051</v>
       </c>
       <c r="G63" s="11">
@@ -37250,7 +37624,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.87437398866132</v>
       </c>
       <c r="G64" s="11">
@@ -37273,7 +37647,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.90409430000159</v>
       </c>
       <c r="G65" s="11">
@@ -37296,7 +37670,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.92678442032593</v>
       </c>
       <c r="G66" s="11">
@@ -37319,7 +37693,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>529.94410690081224</v>
       </c>
       <c r="G67" s="11">
@@ -37348,8 +37722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC7D5C-7175-4DC6-8E0B-0D02ADE1D616}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37463,10 +37837,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37499,7 +37873,7 @@
       </c>
       <c r="B3" s="3">
         <f>Dati!K3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -37512,7 +37886,7 @@
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C36" si="0">B4-B3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -37529,7 +37903,7 @@
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D36" si="1">C5-C4</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -37550,7 +37924,7 @@
       </c>
       <c r="E6">
         <f t="shared" ref="E6:E36" si="2">D6-D5</f>
-        <v>-11</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -38202,6 +38576,27 @@
       <c r="E37">
         <f t="shared" ref="E37" si="5">D37-D36</f>
         <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!K38</f>
+        <v>3217</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>141</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-113</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-241</v>
       </c>
     </row>
   </sheetData>
@@ -38216,10 +38611,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38957,6 +39352,27 @@
         <v>-18</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!D38</f>
+        <v>175</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -38965,10 +39381,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39707,6 +40123,27 @@
         <v>-59</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!I38</f>
+        <v>437</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>17</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-25</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39719,10 +40156,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40461,6 +40898,27 @@
         <v>16</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!J38</f>
+        <v>397</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>20</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40473,10 +40931,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41215,6 +41673,27 @@
         <v>37</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!E38</f>
+        <v>1317</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>74</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>29</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41227,10 +41706,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41970,6 +42449,27 @@
         <v>174</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!G38</f>
+        <v>2383</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>104</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-89</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41982,10 +42482,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42724,6 +43224,27 @@
         <v>137</v>
       </c>
     </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="3">
+        <f>Dati!F38</f>
+        <v>1066</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <v>-118</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <v>-258</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42736,10 +43257,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44026,6 +44547,42 @@
         <v>25.043956043956044</v>
       </c>
     </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>43920</v>
+      </c>
+      <c r="B38" s="10">
+        <v>36</v>
+      </c>
+      <c r="C38" s="3">
+        <f>Dati!L38</f>
+        <v>9677</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="8">C38-C37</f>
+        <v>577</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="9">D38-D37</f>
+        <v>-346</v>
+      </c>
+      <c r="H38" s="5">
+        <f>C38/Casi_totali!B38</f>
+        <v>3.0080820640348152</v>
+      </c>
+      <c r="I38" s="5">
+        <f>C38/Positivi!B38</f>
+        <v>4.0608476710029375</v>
+      </c>
+      <c r="J38" s="6">
+        <f t="shared" ref="J38" si="10">100/H38</f>
+        <v>33.243773896868866</v>
+      </c>
+      <c r="K38" s="6">
+        <f t="shared" ref="K38" si="11">100/I38</f>
+        <v>24.625400434018808</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0307E46F-8FCF-47C7-AB39-58D1B638CC9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B818AD-1BE2-4474-A634-C71E1F5B3BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Coeff morti</t>
+  </si>
+  <si>
+    <t>nuovi positivi</t>
   </si>
 </sst>
 </file>
@@ -613,6 +616,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -729,6 +735,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,6 +890,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -994,6 +1006,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,6 +1157,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1252,6 +1270,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,6 +1425,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1511,6 +1535,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-241</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,6 +1915,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2001,6 +2031,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2153,6 +2186,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2263,6 +2299,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2411,6 +2450,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2518,6 +2560,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,7 +2813,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$B$1:$B$1</c:f>
+              <c:f>Positivi!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2792,10 +2837,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2903,16 +2948,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$38</c:f>
+              <c:f>Positivi!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3020,6 +3068,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3036,7 +3087,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$C$1:$C$1</c:f>
+              <c:f>Positivi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3060,10 +3111,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3171,16 +3222,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$38</c:f>
+              <c:f>Positivi!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3285,6 +3339,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3301,7 +3358,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$D$1:$D$1</c:f>
+              <c:f>Positivi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3321,10 +3378,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3432,16 +3489,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$38</c:f>
+              <c:f>Positivi!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3543,6 +3603,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3559,7 +3622,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$E$1:$E$1</c:f>
+              <c:f>Positivi!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3583,10 +3646,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -3694,16 +3757,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$38</c:f>
+              <c:f>Positivi!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>-12</c:v>
                 </c:pt>
@@ -3802,6 +3868,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4043,7 +4112,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$C$1:$C$1</c:f>
+              <c:f>Positivi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4067,10 +4136,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4178,16 +4247,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$C$3:$C$38</c:f>
+              <c:f>Positivi!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4292,6 +4364,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,7 +4383,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$D$1:$D$1</c:f>
+              <c:f>Positivi!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4332,10 +4407,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4443,16 +4518,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$D$3:$D$38</c:f>
+              <c:f>Positivi!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4554,6 +4632,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4570,7 +4651,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Positivi!$E$1:$E$1</c:f>
+              <c:f>Positivi!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4590,10 +4671,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$38</c:f>
+              <c:f>Positivi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -4701,16 +4782,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$E$3:$E$38</c:f>
+              <c:f>Positivi!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>-12</c:v>
                 </c:pt>
@@ -4809,6 +4893,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5108,10 +5195,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Positivi!$A$3:$A$37</c:f>
+              <c:f>Positivi!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5216,16 +5303,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Positivi!$B$3:$B$37</c:f>
+              <c:f>Positivi!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5330,6 +5423,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5549,7 +5648,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$B$1:$B$1</c:f>
+              <c:f>Quarantena!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5573,10 +5672,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5681,16 +5780,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$B$3:$B$37</c:f>
+              <c:f>Quarantena!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5795,6 +5900,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5811,7 +5922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$C$1:$C$1</c:f>
+              <c:f>Quarantena!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5835,10 +5946,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5943,16 +6054,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$37</c:f>
+              <c:f>Quarantena!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6054,6 +6171,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6070,7 +6193,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$D$1:$D$1</c:f>
+              <c:f>Quarantena!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6090,10 +6213,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6198,16 +6321,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$37</c:f>
+              <c:f>Quarantena!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6306,6 +6435,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6322,7 +6457,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$E$1:$E$1</c:f>
+              <c:f>Quarantena!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6346,10 +6481,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$37</c:f>
+              <c:f>Quarantena!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6454,16 +6589,22 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$37</c:f>
+              <c:f>Quarantena!$E$3:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="3">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -6559,6 +6700,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-258</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6800,7 +6947,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$C$1:$C$1</c:f>
+              <c:f>Quarantena!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6824,10 +6971,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6935,16 +7082,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$39</c:f>
+              <c:f>Quarantena!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -7049,6 +7199,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>110</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7065,7 +7218,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$D$1:$D$1</c:f>
+              <c:f>Quarantena!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7089,10 +7242,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7200,16 +7353,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$39</c:f>
+              <c:f>Quarantena!$D$3:$D$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
@@ -7311,6 +7467,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7327,7 +7486,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Quarantena!$E$1:$E$1</c:f>
+              <c:f>Quarantena!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7347,10 +7506,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$39</c:f>
+              <c:f>Quarantena!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -7458,16 +7617,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$E$3:$E$39</c:f>
+              <c:f>Quarantena!$E$3:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="3">
                   <c:v>-5</c:v>
                 </c:pt>
@@ -7566,6 +7728,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-258</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7988,6 +8153,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8104,6 +8272,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9677</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8492,6 +8663,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8605,6 +8779,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>577</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9004,6 +9181,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9117,6 +9297,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3.0080820640348152</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0374707259953162</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9269,6 +9452,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9382,6 +9568,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>4.0608476710029375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1371610845295059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9816,6 +10005,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9929,6 +10121,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>33.243773896868866</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32.922127987663842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10081,6 +10276,9 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10194,6 +10392,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>24.625400434018808</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>24.171164225134923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10592,6 +10793,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10705,6 +10909,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10857,6 +11064,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10967,6 +11177,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-113</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11115,6 +11328,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11222,6 +11438,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-241</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11473,7 +11692,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-pos'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-pos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11497,10 +11716,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$38</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11608,16 +11827,34 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$38</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11725,6 +11962,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12923,10 +13163,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$37</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -13031,16 +13271,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$37</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13145,6 +13400,12 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13374,7 +13635,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-pos'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-pos'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13398,10 +13659,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$38</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13509,16 +13770,28 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$38</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13626,6 +13899,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15070,6 +15346,9 @@
                 <c:pt idx="35">
                   <c:v>43.815561798498493</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>111.94207651006036</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15844,10 +16123,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$39</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$41</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -15958,16 +16237,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$D$3:$D$36</c:f>
+              <c:f>'Analisi-pos'!$D$3:$D$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16066,6 +16351,15 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16291,7 +16585,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$C$1:$C$1</c:f>
+              <c:f>'Analisi-dead'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16315,10 +16609,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16432,16 +16726,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$C$3:$C$40</c:f>
+              <c:f>'Analisi-dead'!$C$3:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16549,6 +16849,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17705,6 +18008,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19155,6 +19461,9 @@
                 <c:pt idx="35">
                   <c:v>-21.889845790012657</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>-12.753673665697136</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19815,10 +20124,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$36</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19920,16 +20229,34 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$D$3:$D$36</c:f>
+              <c:f>'Analisi-dead'!$D$3:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -20028,6 +20355,15 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20425,6 +20761,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20541,6 +20880,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>3217</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3416</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20931,6 +21273,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21047,6 +21392,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21199,6 +21547,9 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21312,6 +21663,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21650,6 +22004,9 @@
                 <c:pt idx="36">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21757,6 +22114,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21998,7 +22358,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$B$1:$B$1</c:f>
+              <c:f>Guariti!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22022,10 +22382,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22133,16 +22493,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$B$3:$B$39</c:f>
+              <c:f>Guariti!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22250,6 +22613,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22266,7 +22632,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$C$1:$C$1</c:f>
+              <c:f>Guariti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22290,10 +22656,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22401,16 +22767,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$C$3:$C$39</c:f>
+              <c:f>Guariti!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22515,6 +22884,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22531,7 +22903,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$D$1:$D$1</c:f>
+              <c:f>Guariti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22551,10 +22923,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22662,16 +23034,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$D$3:$D$39</c:f>
+              <c:f>Guariti!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -22773,6 +23148,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22789,7 +23167,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Guariti!$E$1:$E$1</c:f>
+              <c:f>Guariti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22813,10 +23191,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Guariti!$A$3:$A$39</c:f>
+              <c:f>Guariti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -22924,16 +23302,19 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Guariti!$E$3:$E$39</c:f>
+              <c:f>Guariti!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -23032,6 +23413,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23418,6 +23802,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23531,6 +23918,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23683,6 +24073,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23793,6 +24186,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23941,6 +24337,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24048,6 +24447,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24434,6 +24836,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24547,6 +24952,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24699,6 +25107,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24809,6 +25220,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24957,6 +25371,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25064,6 +25481,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25450,6 +25870,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25566,6 +25989,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25718,6 +26144,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25831,6 +26260,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25979,6 +26411,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26089,6 +26524,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26241,6 +26679,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26348,6 +26789,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26725,6 +27169,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26841,6 +27288,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26993,6 +27443,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27106,6 +27559,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27254,6 +27710,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27364,6 +27823,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27516,6 +27978,9 @@
                 <c:pt idx="35">
                   <c:v>43920</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27623,6 +28088,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30293,16 +30761,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>392430</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -31306,10 +31774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31322,13 +31790,14 @@
     <col min="6" max="6" width="20.69921875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="22.8984375" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="11" width="10.69921875" customWidth="1"/>
-    <col min="12" max="12" width="23.69921875" customWidth="1"/>
-    <col min="13" max="13" width="8.796875" customWidth="1"/>
+    <col min="9" max="9" width="18.296875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="12" width="10.69921875" customWidth="1"/>
+    <col min="13" max="13" width="23.69921875" customWidth="1"/>
+    <col min="14" max="14" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -31354,19 +31823,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" s="18">
         <v>43885</v>
       </c>
@@ -31391,20 +31863,21 @@
       <c r="H3" s="17">
         <v>0</v>
       </c>
-      <c r="I3" s="17">
-        <v>0</v>
-      </c>
+      <c r="I3" s="17"/>
       <c r="J3" s="17">
         <v>0</v>
       </c>
       <c r="K3" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="18">
         <v>43886</v>
       </c>
@@ -31429,20 +31902,21 @@
       <c r="H4" s="17">
         <v>1</v>
       </c>
-      <c r="I4" s="17">
-        <v>0</v>
-      </c>
+      <c r="I4" s="17"/>
       <c r="J4" s="17">
         <v>0</v>
       </c>
       <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
         <v>1</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="18">
         <v>43887</v>
       </c>
@@ -31467,20 +31941,21 @@
       <c r="H5" s="17">
         <v>10</v>
       </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
+      <c r="I5" s="17"/>
       <c r="J5" s="17">
         <v>0</v>
       </c>
       <c r="K5" s="17">
+        <v>0</v>
+      </c>
+      <c r="L5" s="17">
         <v>11</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="17">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="18">
         <v>43888</v>
       </c>
@@ -31505,20 +31980,21 @@
       <c r="H6" s="17">
         <v>8</v>
       </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
+      <c r="I6" s="17"/>
       <c r="J6" s="17">
         <v>0</v>
       </c>
       <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
         <v>19</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="18">
         <v>43889</v>
       </c>
@@ -31543,20 +32019,21 @@
       <c r="H7" s="17">
         <v>0</v>
       </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
+      <c r="I7" s="17"/>
       <c r="J7" s="17">
         <v>0</v>
       </c>
       <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
         <v>19</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="18">
         <v>43890</v>
       </c>
@@ -31581,20 +32058,21 @@
       <c r="H8" s="17">
         <v>19</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17">
         <v>4</v>
       </c>
-      <c r="J8" s="17">
+      <c r="K8" s="17">
         <v>0</v>
       </c>
-      <c r="K8" s="17">
+      <c r="L8" s="17">
         <v>42</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="17">
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="18">
         <v>43891</v>
       </c>
@@ -31619,20 +32097,21 @@
       <c r="H9" s="17">
         <v>-17</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
         <v>4</v>
       </c>
-      <c r="J9" s="17">
+      <c r="K9" s="17">
         <v>0</v>
       </c>
-      <c r="K9" s="17">
+      <c r="L9" s="17">
         <v>25</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="18">
         <v>43892</v>
       </c>
@@ -31657,20 +32136,21 @@
       <c r="H10" s="17">
         <v>-3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="17"/>
+      <c r="J10" s="17">
         <v>4</v>
       </c>
-      <c r="J10" s="17">
+      <c r="K10" s="17">
         <v>0</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>22</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="18">
         <v>43893</v>
       </c>
@@ -31695,20 +32175,21 @@
       <c r="H11" s="17">
         <v>1</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="17"/>
+      <c r="J11" s="17">
         <v>4</v>
       </c>
-      <c r="J11" s="17">
+      <c r="K11" s="17">
         <v>1</v>
       </c>
-      <c r="K11" s="17">
+      <c r="L11" s="17">
         <v>24</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="18">
         <v>43894</v>
       </c>
@@ -31733,20 +32214,21 @@
       <c r="H12" s="17">
         <v>2</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="17"/>
+      <c r="J12" s="17">
         <v>4</v>
       </c>
-      <c r="J12" s="17">
+      <c r="K12" s="17">
         <v>1</v>
       </c>
-      <c r="K12" s="17">
+      <c r="L12" s="17">
         <v>26</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="18">
         <v>43895</v>
       </c>
@@ -31771,20 +32253,21 @@
       <c r="H13" s="17">
         <v>0</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17">
         <v>4</v>
       </c>
-      <c r="J13" s="17">
+      <c r="K13" s="17">
         <v>3</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>28</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="18">
         <v>43896</v>
       </c>
@@ -31809,20 +32292,21 @@
       <c r="H14" s="17">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="17"/>
+      <c r="J14" s="17">
         <v>5</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K14" s="17">
         <v>3</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>32</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="17">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="18">
         <v>43897</v>
       </c>
@@ -31847,20 +32331,21 @@
       <c r="H15" s="17">
         <v>18</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="17"/>
+      <c r="J15" s="17">
         <v>5</v>
       </c>
-      <c r="J15" s="17">
+      <c r="K15" s="17">
         <v>4</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>51</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="18">
         <v>43898</v>
       </c>
@@ -31885,20 +32370,21 @@
       <c r="H16" s="17">
         <v>25</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17">
         <v>5</v>
       </c>
-      <c r="J16" s="17">
+      <c r="K16" s="17">
         <v>6</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>78</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>401</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13">
       <c r="A17" s="18">
         <v>43899</v>
       </c>
@@ -31923,20 +32409,21 @@
       <c r="H17" s="17">
         <v>30</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="17"/>
+      <c r="J17" s="17">
         <v>5</v>
       </c>
-      <c r="J17" s="17">
+      <c r="K17" s="17">
         <v>7</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>109</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>611</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13">
       <c r="A18" s="18">
         <v>43900</v>
       </c>
@@ -31961,20 +32448,21 @@
       <c r="H18" s="17">
         <v>31</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="17"/>
+      <c r="J18" s="17">
         <v>5</v>
       </c>
-      <c r="J18" s="17">
+      <c r="K18" s="17">
         <v>8</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>141</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="17">
         <v>694</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13">
       <c r="A19" s="18">
         <v>43901</v>
       </c>
@@ -31999,20 +32487,21 @@
       <c r="H19" s="17">
         <v>53</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="17"/>
+      <c r="J19" s="17">
         <v>5</v>
       </c>
-      <c r="J19" s="17">
+      <c r="K19" s="17">
         <v>8</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>194</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>1025</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:13">
       <c r="A20" s="18">
         <v>43902</v>
       </c>
@@ -32037,20 +32526,21 @@
       <c r="H20" s="17">
         <v>62</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="17"/>
+      <c r="J20" s="17">
         <v>20</v>
       </c>
-      <c r="J20" s="17">
+      <c r="K20" s="17">
         <v>11</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>274</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="17">
         <v>1174</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13">
       <c r="A21" s="18">
         <v>43903</v>
       </c>
@@ -32075,20 +32565,21 @@
       <c r="H21" s="17">
         <v>61</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="17"/>
+      <c r="J21" s="17">
         <v>24</v>
       </c>
-      <c r="J21" s="17">
+      <c r="K21" s="17">
         <v>17</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>345</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>1442</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13">
       <c r="A22" s="18">
         <v>43904</v>
       </c>
@@ -32113,20 +32604,21 @@
       <c r="H22" s="17">
         <v>80</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="17"/>
+      <c r="J22" s="17">
         <v>52</v>
       </c>
-      <c r="J22" s="17">
+      <c r="K22" s="17">
         <v>27</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>463</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>1750</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13">
       <c r="A23" s="18">
         <v>43905</v>
       </c>
@@ -32151,20 +32643,21 @@
       <c r="H23" s="17">
         <v>109</v>
       </c>
-      <c r="I23" s="17">
-        <v>33</v>
-      </c>
+      <c r="I23" s="17"/>
       <c r="J23" s="17">
         <v>33</v>
       </c>
       <c r="K23" s="17">
+        <v>33</v>
+      </c>
+      <c r="L23" s="17">
         <v>559</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>1973</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13">
       <c r="A24" s="18">
         <v>43906</v>
       </c>
@@ -32189,20 +32682,21 @@
       <c r="H24" s="17">
         <v>82</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="17"/>
+      <c r="J24" s="17">
         <v>42</v>
       </c>
-      <c r="J24" s="17">
+      <c r="K24" s="17">
         <v>50</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <v>667</v>
       </c>
-      <c r="L24" s="17">
+      <c r="M24" s="17">
         <v>2189</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13">
       <c r="A25" s="18">
         <v>43907</v>
       </c>
@@ -32227,20 +32721,21 @@
       <c r="H25" s="17">
         <v>86</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
         <v>57</v>
       </c>
-      <c r="J25" s="17">
+      <c r="K25" s="17">
         <v>60</v>
       </c>
-      <c r="K25" s="17">
+      <c r="L25" s="17">
         <v>778</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>2509</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13">
       <c r="A26" s="18">
         <v>43908</v>
       </c>
@@ -32265,20 +32760,21 @@
       <c r="H26" s="17">
         <v>83</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="17"/>
+      <c r="J26" s="17">
         <v>70</v>
       </c>
-      <c r="J26" s="17">
+      <c r="K26" s="17">
         <v>73</v>
       </c>
-      <c r="K26" s="17">
+      <c r="L26" s="17">
         <v>887</v>
       </c>
-      <c r="L26" s="17">
+      <c r="M26" s="17">
         <v>2912</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13">
       <c r="A27" s="18">
         <v>43909</v>
       </c>
@@ -32303,20 +32799,21 @@
       <c r="H27" s="17">
         <v>139</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="17"/>
+      <c r="J27" s="17">
         <v>85</v>
       </c>
-      <c r="J27" s="17">
+      <c r="K27" s="17">
         <v>91</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>1059</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>3348</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13">
       <c r="A28" s="18">
         <v>43910</v>
       </c>
@@ -32341,20 +32838,21 @@
       <c r="H28" s="17">
         <v>118</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="17"/>
+      <c r="J28" s="17">
         <v>101</v>
       </c>
-      <c r="J28" s="17">
+      <c r="K28" s="17">
         <v>119</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>1221</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>3794</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13">
       <c r="A29" s="18">
         <v>43911</v>
       </c>
@@ -32379,20 +32877,21 @@
       <c r="H29" s="17">
         <v>158</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17">
         <v>125</v>
       </c>
-      <c r="J29" s="17">
+      <c r="K29" s="17">
         <v>152</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>1436</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>4304</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13">
       <c r="A30" s="18">
         <v>43912</v>
       </c>
@@ -32417,20 +32916,21 @@
       <c r="H30" s="17">
         <v>192</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="17"/>
+      <c r="J30" s="17">
         <v>143</v>
       </c>
-      <c r="J30" s="17">
+      <c r="K30" s="17">
         <v>171</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="17">
         <v>1665</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>4995</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13">
       <c r="A31" s="18">
         <v>43913</v>
       </c>
@@ -32455,20 +32955,21 @@
       <c r="H31" s="17">
         <v>202</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="17"/>
+      <c r="J31" s="17">
         <v>159</v>
       </c>
-      <c r="J31" s="17">
+      <c r="K31" s="17">
         <v>212</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <v>1924</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>5538</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13">
       <c r="A32" s="18">
         <v>43914</v>
       </c>
@@ -32493,20 +32994,21 @@
       <c r="H32" s="17">
         <v>139</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="17"/>
+      <c r="J32" s="17">
         <v>193</v>
       </c>
-      <c r="J32" s="17">
+      <c r="K32" s="17">
         <v>231</v>
       </c>
-      <c r="K32" s="17">
+      <c r="L32" s="17">
         <v>2116</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>5992</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:13">
       <c r="A33" s="18">
         <v>43915</v>
       </c>
@@ -32531,20 +33033,21 @@
       <c r="H33" s="17">
         <v>134</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="17"/>
+      <c r="J33" s="17">
         <v>225</v>
       </c>
-      <c r="J33" s="17">
+      <c r="K33" s="17">
         <v>254</v>
       </c>
-      <c r="K33" s="17">
+      <c r="L33" s="17">
         <v>2305</v>
       </c>
-      <c r="L33" s="17">
+      <c r="M33" s="17">
         <v>6602</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:13">
       <c r="A34" s="18">
         <v>43916</v>
       </c>
@@ -32569,20 +33072,21 @@
       <c r="H34" s="17">
         <v>201</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="17"/>
+      <c r="J34" s="17">
         <v>260</v>
       </c>
-      <c r="J34" s="17">
+      <c r="K34" s="17">
         <v>280</v>
       </c>
-      <c r="K34" s="17">
+      <c r="L34" s="17">
         <v>2567</v>
       </c>
-      <c r="L34" s="17">
+      <c r="M34" s="17">
         <v>7304</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:13">
       <c r="A35" s="18">
         <v>43917</v>
       </c>
@@ -32607,20 +33111,21 @@
       <c r="H35" s="17">
         <v>33</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="17"/>
+      <c r="J35" s="17">
         <v>305</v>
       </c>
-      <c r="J35" s="17">
+      <c r="K35" s="17">
         <v>331</v>
       </c>
-      <c r="K35" s="17">
+      <c r="L35" s="17">
         <v>2696</v>
       </c>
-      <c r="L35" s="17">
+      <c r="M35" s="17">
         <v>7804</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:13">
       <c r="A36" s="18">
         <v>43918</v>
       </c>
@@ -32645,20 +33150,21 @@
       <c r="H36" s="17">
         <v>26</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="17"/>
+      <c r="J36" s="17">
         <v>378</v>
       </c>
-      <c r="J36" s="17">
+      <c r="K36" s="17">
         <v>358</v>
       </c>
-      <c r="K36" s="17">
+      <c r="L36" s="17">
         <v>2822</v>
       </c>
-      <c r="L36" s="17">
+      <c r="M36" s="17">
         <v>8177</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:13">
       <c r="A37" s="18">
         <v>43919</v>
       </c>
@@ -32683,20 +33189,21 @@
       <c r="H37" s="17">
         <v>193</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="17"/>
+      <c r="J37" s="17">
         <v>420</v>
       </c>
-      <c r="J37" s="17">
+      <c r="K37" s="17">
         <v>377</v>
       </c>
-      <c r="K37" s="17">
+      <c r="L37" s="17">
         <v>3076</v>
       </c>
-      <c r="L37" s="17">
+      <c r="M37" s="17">
         <v>9100</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:13">
       <c r="A38" s="18">
         <v>43920</v>
       </c>
@@ -32721,17 +33228,59 @@
       <c r="H38" s="17">
         <v>104</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="17"/>
+      <c r="J38" s="17">
         <v>437</v>
       </c>
-      <c r="J38" s="17">
+      <c r="K38" s="17">
         <v>397</v>
       </c>
-      <c r="K38" s="17">
+      <c r="L38" s="17">
         <v>3217</v>
       </c>
-      <c r="L38" s="17">
+      <c r="M38" s="17">
         <v>9677</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="18">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1153</v>
+      </c>
+      <c r="D39" s="17">
+        <v>179</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1332</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1176</v>
+      </c>
+      <c r="G39" s="17">
+        <v>2508</v>
+      </c>
+      <c r="H39" s="17">
+        <v>125</v>
+      </c>
+      <c r="I39" s="17">
+        <v>199</v>
+      </c>
+      <c r="J39" s="17">
+        <v>480</v>
+      </c>
+      <c r="K39" s="17">
+        <v>428</v>
+      </c>
+      <c r="L39" s="17">
+        <v>3416</v>
+      </c>
+      <c r="M39" s="17">
+        <v>10376</v>
       </c>
     </row>
   </sheetData>
@@ -32747,8 +33296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H38"/>
+    <sheetView topLeftCell="L7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32850,7 +33399,7 @@
         <v>0.56783954524504932</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H38" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H39" si="2">C4-E4</f>
         <v>-1.4014837338411104</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33983,6 +34532,14 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
+      <c r="C39" s="3">
+        <f>Dati!G39</f>
+        <v>2508</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="9">C39-C38</f>
+        <v>125</v>
+      </c>
       <c r="E39" s="11">
         <f t="shared" si="5"/>
         <v>2396.0579234899396</v>
@@ -33995,6 +34552,10 @@
         <f t="shared" si="4"/>
         <v>56.873485288438133</v>
       </c>
+      <c r="H39" s="11">
+        <f t="shared" si="2"/>
+        <v>111.94207651006036</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2">
@@ -34584,7 +35145,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="9">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E96" si="10">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>2599.8847350317087</v>
       </c>
       <c r="F67" s="11">
@@ -34608,11 +35169,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2599.9120081637548</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="10">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F96" si="11">(E68-E67)*10</f>
         <v>0.27273132046047976</v>
       </c>
       <c r="G68" s="11">
@@ -34628,19 +35189,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="11">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="12">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2599.9328282986335</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.20820134878704266</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="12">E69-E68</f>
+        <f t="shared" ref="G69:G96" si="13">E69-E68</f>
         <v>2.0820134878704266E-2</v>
       </c>
     </row>
@@ -34652,19 +35213,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9487221871082</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9487221871082</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="10"/>
         <v>0.15893888474693085</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5893888474693085E-2</v>
       </c>
     </row>
@@ -34676,19 +35237,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9608553864482</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9608553864482</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="10"/>
         <v>0.12133199340041756</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2133199340041756E-2</v>
       </c>
     </row>
@@ -34700,19 +35261,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9701176982462</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9701176982462</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="10"/>
         <v>9.2623117980110692E-2</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.2623117980110692E-3</v>
       </c>
     </row>
@@ -34724,19 +35285,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9771884015604</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9771884015604</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="10"/>
         <v>7.0707033141843567E-2</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.0707033141843567E-3</v>
       </c>
     </row>
@@ -34748,19 +35309,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9825860573665</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9825860573665</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="10"/>
         <v>5.3976558060639945E-2</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.3976558060639945E-3</v>
       </c>
     </row>
@@ -34772,19 +35333,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9867065322105</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9867065322105</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="10"/>
         <v>4.1204748440577532E-2</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.1204748440577532E-3</v>
       </c>
     </row>
@@ -34796,19 +35357,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9898520270035</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9898520270035</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="10"/>
         <v>3.1454947929887567E-2</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1454947929887567E-3</v>
       </c>
     </row>
@@ -34820,19 +35381,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9922532383512</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9922532383512</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="10"/>
         <v>2.4012113476601371E-2</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4012113476601371E-3</v>
       </c>
     </row>
@@ -34844,19 +35405,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9940862768408</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9940862768408</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="10"/>
         <v>1.8330384896216856E-2</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8330384896216856E-3</v>
       </c>
     </row>
@@ -34868,19 +35429,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9954855825754</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9954855825754</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="10"/>
         <v>1.3993057345942361E-2</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3993057345942361E-3</v>
       </c>
     </row>
@@ -34892,19 +35453,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9965537848934</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9965537848934</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="10"/>
         <v>1.0682023180379474E-2</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0682023180379474E-3</v>
       </c>
     </row>
@@ -34916,19 +35477,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9973692292292</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9973692292292</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="10"/>
         <v>8.1544433578528697E-3</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>8.1544433578528697E-4</v>
       </c>
     </row>
@@ -34940,19 +35501,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.997991723058</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.997991723058</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="10"/>
         <v>6.2249382881418569E-3</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.2249382881418569E-4</v>
       </c>
     </row>
@@ -34964,19 +35525,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9984669222836</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9984669222836</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="10"/>
         <v>4.7519922554783989E-3</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.7519922554783989E-4</v>
       </c>
     </row>
@@ -34988,19 +35549,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9988296797446</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9988296797446</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="10"/>
         <v>3.627574610618467E-3</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.627574610618467E-4</v>
       </c>
     </row>
@@ -35012,19 +35573,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.99910660142</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.99910660142</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="10"/>
         <v>2.7692167532222811E-3</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7692167532222811E-4</v>
       </c>
     </row>
@@ -35036,19 +35597,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9993179977882</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9993179977882</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="10"/>
         <v>2.1139636828593211E-3</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1139636828593211E-4</v>
       </c>
     </row>
@@ -35060,19 +35621,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9994793734645</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9994793734645</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="10"/>
         <v>1.6137567627083627E-3</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6137567627083627E-4</v>
       </c>
     </row>
@@ -35084,19 +35645,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.99960256436</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.99960256436</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="10"/>
         <v>1.2319089546508621E-3</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2319089546508621E-4</v>
       </c>
     </row>
@@ -35108,19 +35669,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9996966057706</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9996966057706</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="10"/>
         <v>9.4041410648060264E-4</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>9.4041410648060264E-5</v>
       </c>
     </row>
@@ -35132,19 +35693,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9997683950605</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9997683950605</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="10"/>
         <v>7.1789289904700126E-4</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>7.1789289904700126E-5</v>
       </c>
     </row>
@@ -35156,19 +35717,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9998231975346</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9998231975346</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="10"/>
         <v>5.4802474096504739E-4</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.4802474096504739E-5</v>
       </c>
     </row>
@@ -35180,19 +35741,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9998650326211</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9998650326211</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="10"/>
         <v>4.1835086449282244E-4</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.1835086449282244E-5</v>
       </c>
     </row>
@@ -35204,19 +35765,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9998969686694</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9998969686694</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="10"/>
         <v>3.1936048344505252E-4</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.1936048344505252E-5</v>
       </c>
     </row>
@@ -35228,19 +35789,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9999213479941</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9999213479941</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="10"/>
         <v>2.4379324713663664E-4</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4379324713663664E-5</v>
       </c>
     </row>
@@ -35252,19 +35813,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9999399586709</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9999399586709</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="10"/>
         <v>1.861067676145467E-4</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.861067676145467E-5</v>
       </c>
     </row>
@@ -35276,19 +35837,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="10"/>
+        <v>2599.9999541656803</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="9"/>
-        <v>2599.9999541656803</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="10"/>
         <v>1.4207009371602908E-4</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.4207009371602908E-5</v>
       </c>
     </row>
@@ -35625,7 +36186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -35685,7 +36246,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>Dati!J3</f>
+        <f>Dati!K3</f>
         <v>0</v>
       </c>
       <c r="F3" s="11">
@@ -35712,7 +36273,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f>Dati!J4</f>
+        <f>Dati!K4</f>
         <v>0</v>
       </c>
       <c r="D4">
@@ -35755,7 +36316,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>Dati!J5</f>
+        <f>Dati!K5</f>
         <v>0</v>
       </c>
       <c r="D5">
@@ -35779,7 +36340,7 @@
         <v>6.3785317586993906E-2</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I38" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I39" si="5">C5-F5</f>
         <v>-0.26967276365501336</v>
       </c>
       <c r="J5" s="11"/>
@@ -35799,7 +36360,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>Dati!J6</f>
+        <f>Dati!K6</f>
         <v>0</v>
       </c>
       <c r="D6">
@@ -35836,7 +36397,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>Dati!J7</f>
+        <f>Dati!K7</f>
         <v>0</v>
       </c>
       <c r="D7">
@@ -35873,7 +36434,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>Dati!J8</f>
+        <f>Dati!K8</f>
         <v>0</v>
       </c>
       <c r="D8">
@@ -35917,7 +36478,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f>Dati!J9</f>
+        <f>Dati!K9</f>
         <v>0</v>
       </c>
       <c r="D9">
@@ -35961,7 +36522,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f>Dati!J10</f>
+        <f>Dati!K10</f>
         <v>0</v>
       </c>
       <c r="D10">
@@ -35998,7 +36559,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f>Dati!J11</f>
+        <f>Dati!K11</f>
         <v>1</v>
       </c>
       <c r="D11">
@@ -36035,7 +36596,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>Dati!J12</f>
+        <f>Dati!K12</f>
         <v>1</v>
       </c>
       <c r="D12">
@@ -36079,7 +36640,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f>Dati!J13</f>
+        <f>Dati!K13</f>
         <v>3</v>
       </c>
       <c r="D13">
@@ -36123,7 +36684,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f>Dati!J14</f>
+        <f>Dati!K14</f>
         <v>3</v>
       </c>
       <c r="D14">
@@ -36160,7 +36721,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>Dati!J15</f>
+        <f>Dati!K15</f>
         <v>4</v>
       </c>
       <c r="D15">
@@ -36197,7 +36758,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f>Dati!J16</f>
+        <f>Dati!K16</f>
         <v>6</v>
       </c>
       <c r="D16">
@@ -36234,7 +36795,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f>Dati!J17</f>
+        <f>Dati!K17</f>
         <v>7</v>
       </c>
       <c r="D17">
@@ -36271,7 +36832,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f>Dati!J18</f>
+        <f>Dati!K18</f>
         <v>8</v>
       </c>
       <c r="D18">
@@ -36308,7 +36869,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f>Dati!J19</f>
+        <f>Dati!K19</f>
         <v>8</v>
       </c>
       <c r="D19">
@@ -36345,7 +36906,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f>Dati!J20</f>
+        <f>Dati!K20</f>
         <v>11</v>
       </c>
       <c r="D20">
@@ -36382,7 +36943,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f>Dati!J21</f>
+        <f>Dati!K21</f>
         <v>17</v>
       </c>
       <c r="D21">
@@ -36419,7 +36980,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>Dati!J22</f>
+        <f>Dati!K22</f>
         <v>27</v>
       </c>
       <c r="D22">
@@ -36456,7 +37017,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f>Dati!J23</f>
+        <f>Dati!K23</f>
         <v>33</v>
       </c>
       <c r="D23">
@@ -36493,7 +37054,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f>Dati!J24</f>
+        <f>Dati!K24</f>
         <v>50</v>
       </c>
       <c r="D24">
@@ -36530,7 +37091,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>Dati!J25</f>
+        <f>Dati!K25</f>
         <v>60</v>
       </c>
       <c r="D25">
@@ -36567,7 +37128,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f>Dati!J26</f>
+        <f>Dati!K26</f>
         <v>73</v>
       </c>
       <c r="D26">
@@ -36604,7 +37165,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>Dati!J27</f>
+        <f>Dati!K27</f>
         <v>91</v>
       </c>
       <c r="D27">
@@ -36641,7 +37202,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f>Dati!J28</f>
+        <f>Dati!K28</f>
         <v>119</v>
       </c>
       <c r="D28">
@@ -36678,7 +37239,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>Dati!J29</f>
+        <f>Dati!K29</f>
         <v>152</v>
       </c>
       <c r="D29">
@@ -36715,7 +37276,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f>Dati!J30</f>
+        <f>Dati!K30</f>
         <v>171</v>
       </c>
       <c r="D30">
@@ -36752,7 +37313,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f>Dati!J31</f>
+        <f>Dati!K31</f>
         <v>212</v>
       </c>
       <c r="D31">
@@ -36789,7 +37350,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f>Dati!J32</f>
+        <f>Dati!K32</f>
         <v>231</v>
       </c>
       <c r="D32">
@@ -36826,7 +37387,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f>Dati!J33</f>
+        <f>Dati!K33</f>
         <v>254</v>
       </c>
       <c r="D33">
@@ -36863,7 +37424,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f>Dati!J34</f>
+        <f>Dati!K34</f>
         <v>280</v>
       </c>
       <c r="D34">
@@ -36900,7 +37461,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f>Dati!J35</f>
+        <f>Dati!K35</f>
         <v>331</v>
       </c>
       <c r="D35">
@@ -36937,7 +37498,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f>Dati!J36</f>
+        <f>Dati!K36</f>
         <v>358</v>
       </c>
       <c r="D36">
@@ -36974,7 +37535,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f>Dati!J37</f>
+        <f>Dati!K37</f>
         <v>377</v>
       </c>
       <c r="D37">
@@ -37011,7 +37572,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f>Dati!J38</f>
+        <f>Dati!K38</f>
         <v>397</v>
       </c>
       <c r="D38">
@@ -37047,7 +37608,18 @@
       <c r="B39" s="10">
         <v>37</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3">
+        <f>Dati!K39</f>
+        <v>428</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="11">C39-C38</f>
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="12">10*(C39-C38)</f>
+        <v>310</v>
+      </c>
       <c r="F39" s="11">
         <f t="shared" si="8"/>
         <v>440.75367366569714</v>
@@ -37060,7 +37632,10 @@
         <f t="shared" si="4"/>
         <v>21.863827875684478</v>
       </c>
-      <c r="I39" s="11"/>
+      <c r="I39" s="11">
+        <f t="shared" si="5"/>
+        <v>-12.753673665697136</v>
+      </c>
       <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10">
@@ -37532,7 +38107,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="11">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="13">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>529.63024209242406</v>
       </c>
       <c r="G60" s="11">
@@ -37555,7 +38130,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.71768779143986</v>
       </c>
       <c r="G61" s="11">
@@ -37578,7 +38153,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.78446148264879</v>
       </c>
       <c r="G62" s="11">
@@ -37601,7 +38176,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.83544648096051</v>
       </c>
       <c r="G63" s="11">
@@ -37624,7 +38199,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.87437398866132</v>
       </c>
       <c r="G64" s="11">
@@ -37647,7 +38222,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.90409430000159</v>
       </c>
       <c r="G65" s="11">
@@ -37670,7 +38245,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.92678442032593</v>
       </c>
       <c r="G66" s="11">
@@ -37693,7 +38268,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>529.94410690081224</v>
       </c>
       <c r="G67" s="11">
@@ -37837,10 +38412,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37872,7 +38447,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!K3</f>
+        <f>Dati!L3</f>
         <v>1</v>
       </c>
     </row>
@@ -37881,7 +38456,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!K4</f>
+        <f>Dati!L4</f>
         <v>1</v>
       </c>
       <c r="C4">
@@ -37894,7 +38469,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!K5</f>
+        <f>Dati!L5</f>
         <v>11</v>
       </c>
       <c r="C5">
@@ -37911,7 +38486,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!K6</f>
+        <f>Dati!L6</f>
         <v>19</v>
       </c>
       <c r="C6">
@@ -37932,7 +38507,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!K7</f>
+        <f>Dati!L7</f>
         <v>19</v>
       </c>
       <c r="C7">
@@ -37953,7 +38528,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!K8</f>
+        <f>Dati!L8</f>
         <v>42</v>
       </c>
       <c r="C8">
@@ -37974,7 +38549,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!K9</f>
+        <f>Dati!L9</f>
         <v>25</v>
       </c>
       <c r="C9">
@@ -37995,7 +38570,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!K10</f>
+        <f>Dati!L10</f>
         <v>22</v>
       </c>
       <c r="C10">
@@ -38016,7 +38591,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!K11</f>
+        <f>Dati!L11</f>
         <v>24</v>
       </c>
       <c r="C11">
@@ -38037,7 +38612,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!K12</f>
+        <f>Dati!L12</f>
         <v>26</v>
       </c>
       <c r="C12">
@@ -38058,7 +38633,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!K13</f>
+        <f>Dati!L13</f>
         <v>28</v>
       </c>
       <c r="C13">
@@ -38079,7 +38654,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!K14</f>
+        <f>Dati!L14</f>
         <v>32</v>
       </c>
       <c r="C14">
@@ -38100,7 +38675,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!K15</f>
+        <f>Dati!L15</f>
         <v>51</v>
       </c>
       <c r="C15">
@@ -38121,7 +38696,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!K16</f>
+        <f>Dati!L16</f>
         <v>78</v>
       </c>
       <c r="C16">
@@ -38142,7 +38717,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!K17</f>
+        <f>Dati!L17</f>
         <v>109</v>
       </c>
       <c r="C17">
@@ -38163,7 +38738,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!K18</f>
+        <f>Dati!L18</f>
         <v>141</v>
       </c>
       <c r="C18">
@@ -38184,7 +38759,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!K19</f>
+        <f>Dati!L19</f>
         <v>194</v>
       </c>
       <c r="C19">
@@ -38205,7 +38780,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!K20</f>
+        <f>Dati!L20</f>
         <v>274</v>
       </c>
       <c r="C20">
@@ -38226,7 +38801,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!K21</f>
+        <f>Dati!L21</f>
         <v>345</v>
       </c>
       <c r="C21">
@@ -38247,7 +38822,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!K22</f>
+        <f>Dati!L22</f>
         <v>463</v>
       </c>
       <c r="C22">
@@ -38268,7 +38843,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!K23</f>
+        <f>Dati!L23</f>
         <v>559</v>
       </c>
       <c r="C23">
@@ -38289,7 +38864,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!K24</f>
+        <f>Dati!L24</f>
         <v>667</v>
       </c>
       <c r="C24">
@@ -38310,7 +38885,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!K25</f>
+        <f>Dati!L25</f>
         <v>778</v>
       </c>
       <c r="C25">
@@ -38331,7 +38906,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!K26</f>
+        <f>Dati!L26</f>
         <v>887</v>
       </c>
       <c r="C26">
@@ -38352,7 +38927,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!K27</f>
+        <f>Dati!L27</f>
         <v>1059</v>
       </c>
       <c r="C27">
@@ -38373,7 +38948,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!K28</f>
+        <f>Dati!L28</f>
         <v>1221</v>
       </c>
       <c r="C28">
@@ -38394,7 +38969,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!K29</f>
+        <f>Dati!L29</f>
         <v>1436</v>
       </c>
       <c r="C29">
@@ -38415,7 +38990,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!K30</f>
+        <f>Dati!L30</f>
         <v>1665</v>
       </c>
       <c r="C30">
@@ -38436,7 +39011,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!K31</f>
+        <f>Dati!L31</f>
         <v>1924</v>
       </c>
       <c r="C31">
@@ -38457,7 +39032,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!K32</f>
+        <f>Dati!L32</f>
         <v>2116</v>
       </c>
       <c r="C32">
@@ -38478,7 +39053,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!K33</f>
+        <f>Dati!L33</f>
         <v>2305</v>
       </c>
       <c r="C33">
@@ -38499,7 +39074,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!K34</f>
+        <f>Dati!L34</f>
         <v>2567</v>
       </c>
       <c r="C34">
@@ -38520,7 +39095,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!K35</f>
+        <f>Dati!L35</f>
         <v>2696</v>
       </c>
       <c r="C35">
@@ -38541,7 +39116,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!K36</f>
+        <f>Dati!L36</f>
         <v>2822</v>
       </c>
       <c r="C36">
@@ -38562,7 +39137,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!K37</f>
+        <f>Dati!L37</f>
         <v>3076</v>
       </c>
       <c r="C37">
@@ -38583,7 +39158,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!K38</f>
+        <f>Dati!L38</f>
         <v>3217</v>
       </c>
       <c r="C38">
@@ -38597,6 +39172,27 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>-241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!L39</f>
+        <v>3416</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>199</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>58</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -38611,10 +39207,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39373,6 +39969,27 @@
         <v>21</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!D39</f>
+        <v>179</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>-5</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>-15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -39381,10 +39998,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39417,7 +40034,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!I3</f>
+        <f>Dati!J3</f>
         <v>0</v>
       </c>
     </row>
@@ -39426,7 +40043,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!I4</f>
+        <f>Dati!J4</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -39439,7 +40056,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!I5</f>
+        <f>Dati!J5</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -39456,7 +40073,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!I6</f>
+        <f>Dati!J6</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -39477,7 +40094,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!I7</f>
+        <f>Dati!J7</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -39498,7 +40115,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!I8</f>
+        <f>Dati!J8</f>
         <v>4</v>
       </c>
       <c r="C8">
@@ -39519,7 +40136,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!I9</f>
+        <f>Dati!J9</f>
         <v>4</v>
       </c>
       <c r="C9">
@@ -39540,7 +40157,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!I10</f>
+        <f>Dati!J10</f>
         <v>4</v>
       </c>
       <c r="C10">
@@ -39561,7 +40178,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!I11</f>
+        <f>Dati!J11</f>
         <v>4</v>
       </c>
       <c r="C11">
@@ -39582,7 +40199,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!I12</f>
+        <f>Dati!J12</f>
         <v>4</v>
       </c>
       <c r="C12">
@@ -39603,7 +40220,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!I13</f>
+        <f>Dati!J13</f>
         <v>4</v>
       </c>
       <c r="C13">
@@ -39624,7 +40241,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!I14</f>
+        <f>Dati!J14</f>
         <v>5</v>
       </c>
       <c r="C14">
@@ -39645,7 +40262,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!I15</f>
+        <f>Dati!J15</f>
         <v>5</v>
       </c>
       <c r="C15">
@@ -39666,7 +40283,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!I16</f>
+        <f>Dati!J16</f>
         <v>5</v>
       </c>
       <c r="C16">
@@ -39687,7 +40304,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!I17</f>
+        <f>Dati!J17</f>
         <v>5</v>
       </c>
       <c r="C17">
@@ -39708,7 +40325,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!I18</f>
+        <f>Dati!J18</f>
         <v>5</v>
       </c>
       <c r="C18">
@@ -39729,7 +40346,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!I19</f>
+        <f>Dati!J19</f>
         <v>5</v>
       </c>
       <c r="C19">
@@ -39750,7 +40367,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!I20</f>
+        <f>Dati!J20</f>
         <v>20</v>
       </c>
       <c r="C20">
@@ -39771,7 +40388,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!I21</f>
+        <f>Dati!J21</f>
         <v>24</v>
       </c>
       <c r="C21">
@@ -39792,7 +40409,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!I22</f>
+        <f>Dati!J22</f>
         <v>52</v>
       </c>
       <c r="C22">
@@ -39813,7 +40430,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!I23</f>
+        <f>Dati!J23</f>
         <v>33</v>
       </c>
       <c r="C23">
@@ -39834,7 +40451,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!I24</f>
+        <f>Dati!J24</f>
         <v>42</v>
       </c>
       <c r="C24">
@@ -39855,7 +40472,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!I25</f>
+        <f>Dati!J25</f>
         <v>57</v>
       </c>
       <c r="C25">
@@ -39876,7 +40493,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!I26</f>
+        <f>Dati!J26</f>
         <v>70</v>
       </c>
       <c r="C26">
@@ -39897,7 +40514,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!I27</f>
+        <f>Dati!J27</f>
         <v>85</v>
       </c>
       <c r="C27">
@@ -39918,7 +40535,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!I28</f>
+        <f>Dati!J28</f>
         <v>101</v>
       </c>
       <c r="C28">
@@ -39939,7 +40556,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!I29</f>
+        <f>Dati!J29</f>
         <v>125</v>
       </c>
       <c r="C29">
@@ -39960,7 +40577,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!I30</f>
+        <f>Dati!J30</f>
         <v>143</v>
       </c>
       <c r="C30">
@@ -39981,7 +40598,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!I31</f>
+        <f>Dati!J31</f>
         <v>159</v>
       </c>
       <c r="C31">
@@ -40002,7 +40619,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!I32</f>
+        <f>Dati!J32</f>
         <v>193</v>
       </c>
       <c r="C32">
@@ -40023,7 +40640,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!I33</f>
+        <f>Dati!J33</f>
         <v>225</v>
       </c>
       <c r="C33">
@@ -40044,7 +40661,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!I34</f>
+        <f>Dati!J34</f>
         <v>260</v>
       </c>
       <c r="C34">
@@ -40065,7 +40682,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!I35</f>
+        <f>Dati!J35</f>
         <v>305</v>
       </c>
       <c r="C35">
@@ -40086,7 +40703,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!I36</f>
+        <f>Dati!J36</f>
         <v>378</v>
       </c>
       <c r="C36">
@@ -40107,7 +40724,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!I37</f>
+        <f>Dati!J37</f>
         <v>420</v>
       </c>
       <c r="C37">
@@ -40128,7 +40745,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!I38</f>
+        <f>Dati!J38</f>
         <v>437</v>
       </c>
       <c r="C38">
@@ -40142,6 +40759,27 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!J39</f>
+        <v>480</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>43</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>26</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -40156,10 +40794,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40192,7 +40830,7 @@
         <v>43885.75</v>
       </c>
       <c r="B3" s="3">
-        <f>Dati!J3</f>
+        <f>Dati!K3</f>
         <v>0</v>
       </c>
     </row>
@@ -40201,7 +40839,7 @@
         <v>43886</v>
       </c>
       <c r="B4" s="3">
-        <f>Dati!J4</f>
+        <f>Dati!K4</f>
         <v>0</v>
       </c>
       <c r="C4">
@@ -40214,7 +40852,7 @@
         <v>43887</v>
       </c>
       <c r="B5" s="3">
-        <f>Dati!J5</f>
+        <f>Dati!K5</f>
         <v>0</v>
       </c>
       <c r="C5">
@@ -40231,7 +40869,7 @@
         <v>43888</v>
       </c>
       <c r="B6" s="3">
-        <f>Dati!J6</f>
+        <f>Dati!K6</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -40252,7 +40890,7 @@
         <v>43889</v>
       </c>
       <c r="B7" s="3">
-        <f>Dati!J7</f>
+        <f>Dati!K7</f>
         <v>0</v>
       </c>
       <c r="C7">
@@ -40273,7 +40911,7 @@
         <v>43890</v>
       </c>
       <c r="B8" s="3">
-        <f>Dati!J8</f>
+        <f>Dati!K8</f>
         <v>0</v>
       </c>
       <c r="C8">
@@ -40294,7 +40932,7 @@
         <v>43891</v>
       </c>
       <c r="B9" s="3">
-        <f>Dati!J9</f>
+        <f>Dati!K9</f>
         <v>0</v>
       </c>
       <c r="C9">
@@ -40315,7 +40953,7 @@
         <v>43892</v>
       </c>
       <c r="B10" s="3">
-        <f>Dati!J10</f>
+        <f>Dati!K10</f>
         <v>0</v>
       </c>
       <c r="C10">
@@ -40336,7 +40974,7 @@
         <v>43893</v>
       </c>
       <c r="B11" s="3">
-        <f>Dati!J11</f>
+        <f>Dati!K11</f>
         <v>1</v>
       </c>
       <c r="C11">
@@ -40357,7 +40995,7 @@
         <v>43894</v>
       </c>
       <c r="B12" s="3">
-        <f>Dati!J12</f>
+        <f>Dati!K12</f>
         <v>1</v>
       </c>
       <c r="C12">
@@ -40378,7 +41016,7 @@
         <v>43895</v>
       </c>
       <c r="B13" s="3">
-        <f>Dati!J13</f>
+        <f>Dati!K13</f>
         <v>3</v>
       </c>
       <c r="C13">
@@ -40399,7 +41037,7 @@
         <v>43896</v>
       </c>
       <c r="B14" s="3">
-        <f>Dati!J14</f>
+        <f>Dati!K14</f>
         <v>3</v>
       </c>
       <c r="C14">
@@ -40420,7 +41058,7 @@
         <v>43897</v>
       </c>
       <c r="B15" s="3">
-        <f>Dati!J15</f>
+        <f>Dati!K15</f>
         <v>4</v>
       </c>
       <c r="C15">
@@ -40441,7 +41079,7 @@
         <v>43898</v>
       </c>
       <c r="B16" s="3">
-        <f>Dati!J16</f>
+        <f>Dati!K16</f>
         <v>6</v>
       </c>
       <c r="C16">
@@ -40462,7 +41100,7 @@
         <v>43899</v>
       </c>
       <c r="B17" s="3">
-        <f>Dati!J17</f>
+        <f>Dati!K17</f>
         <v>7</v>
       </c>
       <c r="C17">
@@ -40483,7 +41121,7 @@
         <v>43900</v>
       </c>
       <c r="B18" s="3">
-        <f>Dati!J18</f>
+        <f>Dati!K18</f>
         <v>8</v>
       </c>
       <c r="C18">
@@ -40504,7 +41142,7 @@
         <v>43901</v>
       </c>
       <c r="B19" s="3">
-        <f>Dati!J19</f>
+        <f>Dati!K19</f>
         <v>8</v>
       </c>
       <c r="C19">
@@ -40525,7 +41163,7 @@
         <v>43902</v>
       </c>
       <c r="B20" s="3">
-        <f>Dati!J20</f>
+        <f>Dati!K20</f>
         <v>11</v>
       </c>
       <c r="C20">
@@ -40546,7 +41184,7 @@
         <v>43903</v>
       </c>
       <c r="B21" s="3">
-        <f>Dati!J21</f>
+        <f>Dati!K21</f>
         <v>17</v>
       </c>
       <c r="C21">
@@ -40567,7 +41205,7 @@
         <v>43904</v>
       </c>
       <c r="B22" s="3">
-        <f>Dati!J22</f>
+        <f>Dati!K22</f>
         <v>27</v>
       </c>
       <c r="C22">
@@ -40588,7 +41226,7 @@
         <v>43905</v>
       </c>
       <c r="B23" s="3">
-        <f>Dati!J23</f>
+        <f>Dati!K23</f>
         <v>33</v>
       </c>
       <c r="C23">
@@ -40609,7 +41247,7 @@
         <v>43906</v>
       </c>
       <c r="B24" s="3">
-        <f>Dati!J24</f>
+        <f>Dati!K24</f>
         <v>50</v>
       </c>
       <c r="C24">
@@ -40630,7 +41268,7 @@
         <v>43907</v>
       </c>
       <c r="B25" s="3">
-        <f>Dati!J25</f>
+        <f>Dati!K25</f>
         <v>60</v>
       </c>
       <c r="C25">
@@ -40651,7 +41289,7 @@
         <v>43908</v>
       </c>
       <c r="B26" s="3">
-        <f>Dati!J26</f>
+        <f>Dati!K26</f>
         <v>73</v>
       </c>
       <c r="C26">
@@ -40672,7 +41310,7 @@
         <v>43909</v>
       </c>
       <c r="B27" s="3">
-        <f>Dati!J27</f>
+        <f>Dati!K27</f>
         <v>91</v>
       </c>
       <c r="C27">
@@ -40693,7 +41331,7 @@
         <v>43910</v>
       </c>
       <c r="B28" s="3">
-        <f>Dati!J28</f>
+        <f>Dati!K28</f>
         <v>119</v>
       </c>
       <c r="C28">
@@ -40714,7 +41352,7 @@
         <v>43911</v>
       </c>
       <c r="B29" s="3">
-        <f>Dati!J29</f>
+        <f>Dati!K29</f>
         <v>152</v>
       </c>
       <c r="C29">
@@ -40735,7 +41373,7 @@
         <v>43912</v>
       </c>
       <c r="B30" s="3">
-        <f>Dati!J30</f>
+        <f>Dati!K30</f>
         <v>171</v>
       </c>
       <c r="C30">
@@ -40756,7 +41394,7 @@
         <v>43913</v>
       </c>
       <c r="B31" s="3">
-        <f>Dati!J31</f>
+        <f>Dati!K31</f>
         <v>212</v>
       </c>
       <c r="C31">
@@ -40777,7 +41415,7 @@
         <v>43914</v>
       </c>
       <c r="B32" s="3">
-        <f>Dati!J32</f>
+        <f>Dati!K32</f>
         <v>231</v>
       </c>
       <c r="C32">
@@ -40798,7 +41436,7 @@
         <v>43915</v>
       </c>
       <c r="B33" s="3">
-        <f>Dati!J33</f>
+        <f>Dati!K33</f>
         <v>254</v>
       </c>
       <c r="C33">
@@ -40819,7 +41457,7 @@
         <v>43916</v>
       </c>
       <c r="B34" s="3">
-        <f>Dati!J34</f>
+        <f>Dati!K34</f>
         <v>280</v>
       </c>
       <c r="C34">
@@ -40840,7 +41478,7 @@
         <v>43917</v>
       </c>
       <c r="B35" s="3">
-        <f>Dati!J35</f>
+        <f>Dati!K35</f>
         <v>331</v>
       </c>
       <c r="C35">
@@ -40861,7 +41499,7 @@
         <v>43918</v>
       </c>
       <c r="B36" s="3">
-        <f>Dati!J36</f>
+        <f>Dati!K36</f>
         <v>358</v>
       </c>
       <c r="C36">
@@ -40882,7 +41520,7 @@
         <v>43919</v>
       </c>
       <c r="B37" s="3">
-        <f>Dati!J37</f>
+        <f>Dati!K37</f>
         <v>377</v>
       </c>
       <c r="C37">
@@ -40903,7 +41541,7 @@
         <v>43920</v>
       </c>
       <c r="B38" s="3">
-        <f>Dati!J38</f>
+        <f>Dati!K38</f>
         <v>397</v>
       </c>
       <c r="C38">
@@ -40917,6 +41555,27 @@
       <c r="E38">
         <f t="shared" ref="E38" si="8">D38-D37</f>
         <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!K39</f>
+        <v>428</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>31</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>11</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -40931,10 +41590,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41694,6 +42353,27 @@
         <v>2</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!E39</f>
+        <v>1332</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>-59</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>-88</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41706,10 +42386,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42470,6 +43150,27 @@
         <v>-256</v>
       </c>
     </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!G39</f>
+        <v>2508</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="9">B39-B38</f>
+        <v>125</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="10">C39-C38</f>
+        <v>21</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="11">D39-D38</f>
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42482,10 +43183,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:E38"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43212,15 +43913,15 @@
         <v>1036</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C37" si="3">B37-B36</f>
+        <f>B37-B36</f>
         <v>148</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37" si="4">C37-C36</f>
+        <f>C37-C36</f>
         <v>140</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37" si="5">D37-D36</f>
+        <f>D37-D36</f>
         <v>137</v>
       </c>
     </row>
@@ -43233,16 +43934,37 @@
         <v>1066</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38" si="6">B38-B37</f>
+        <f t="shared" ref="C38" si="3">B38-B37</f>
         <v>30</v>
       </c>
       <c r="D38">
-        <f t="shared" ref="D38" si="7">C38-C37</f>
+        <f t="shared" ref="D38" si="4">C38-C37</f>
         <v>-118</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38" si="8">D38-D37</f>
+        <f t="shared" ref="E38" si="5">D38-D37</f>
         <v>-258</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="3">
+        <f>Dati!F39</f>
+        <v>1176</v>
+      </c>
+      <c r="C39">
+        <f t="shared" ref="C39" si="6">B39-B38</f>
+        <v>110</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="7">C39-C38</f>
+        <v>80</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="8">D39-D38</f>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -43257,10 +43979,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43312,7 +44034,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3">
-        <f>Dati!L3</f>
+        <f>Dati!M3</f>
         <v>1</v>
       </c>
       <c r="H3" s="5"/>
@@ -43328,7 +44050,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <f>Dati!L4</f>
+        <f>Dati!M4</f>
         <v>39</v>
       </c>
       <c r="D4">
@@ -43360,7 +44082,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="3">
-        <f>Dati!L5</f>
+        <f>Dati!M5</f>
         <v>66</v>
       </c>
       <c r="D5">
@@ -43396,7 +44118,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="3">
-        <f>Dati!L6</f>
+        <f>Dati!M6</f>
         <v>78</v>
       </c>
       <c r="D6">
@@ -43432,7 +44154,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="3">
-        <f>Dati!L7</f>
+        <f>Dati!M7</f>
         <v>112</v>
       </c>
       <c r="D7">
@@ -43468,7 +44190,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="3">
-        <f>Dati!L8</f>
+        <f>Dati!M8</f>
         <v>121</v>
       </c>
       <c r="D8">
@@ -43504,7 +44226,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="3">
-        <f>Dati!L9</f>
+        <f>Dati!M9</f>
         <v>121</v>
       </c>
       <c r="D9">
@@ -43540,7 +44262,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="3">
-        <f>Dati!L10</f>
+        <f>Dati!M10</f>
         <v>121</v>
       </c>
       <c r="D10">
@@ -43576,7 +44298,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="3">
-        <f>Dati!L11</f>
+        <f>Dati!M11</f>
         <v>121</v>
       </c>
       <c r="D11">
@@ -43619,7 +44341,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="3">
-        <f>Dati!L12</f>
+        <f>Dati!M12</f>
         <v>133</v>
       </c>
       <c r="D12">
@@ -43655,7 +44377,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="3">
-        <f>Dati!L13</f>
+        <f>Dati!M13</f>
         <v>146</v>
       </c>
       <c r="D13">
@@ -43691,7 +44413,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <f>Dati!L14</f>
+        <f>Dati!M14</f>
         <v>229</v>
       </c>
       <c r="D14">
@@ -43727,7 +44449,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="3">
-        <f>Dati!L15</f>
+        <f>Dati!M15</f>
         <v>331</v>
       </c>
       <c r="D15">
@@ -43763,7 +44485,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="3">
-        <f>Dati!L16</f>
+        <f>Dati!M16</f>
         <v>401</v>
       </c>
       <c r="D16">
@@ -43799,7 +44521,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="3">
-        <f>Dati!L17</f>
+        <f>Dati!M17</f>
         <v>611</v>
       </c>
       <c r="D17">
@@ -43835,7 +44557,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="3">
-        <f>Dati!L18</f>
+        <f>Dati!M18</f>
         <v>694</v>
       </c>
       <c r="D18">
@@ -43871,7 +44593,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="3">
-        <f>Dati!L19</f>
+        <f>Dati!M19</f>
         <v>1025</v>
       </c>
       <c r="D19">
@@ -43907,7 +44629,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="3">
-        <f>Dati!L20</f>
+        <f>Dati!M20</f>
         <v>1174</v>
       </c>
       <c r="D20">
@@ -43943,7 +44665,7 @@
         <v>19</v>
       </c>
       <c r="C21" s="3">
-        <f>Dati!L21</f>
+        <f>Dati!M21</f>
         <v>1442</v>
       </c>
       <c r="D21">
@@ -43979,7 +44701,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="3">
-        <f>Dati!L22</f>
+        <f>Dati!M22</f>
         <v>1750</v>
       </c>
       <c r="D22">
@@ -44015,7 +44737,7 @@
         <v>21</v>
       </c>
       <c r="C23" s="3">
-        <f>Dati!L23</f>
+        <f>Dati!M23</f>
         <v>1973</v>
       </c>
       <c r="D23">
@@ -44051,7 +44773,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="3">
-        <f>Dati!L24</f>
+        <f>Dati!M24</f>
         <v>2189</v>
       </c>
       <c r="D24">
@@ -44087,7 +44809,7 @@
         <v>23</v>
       </c>
       <c r="C25" s="3">
-        <f>Dati!L25</f>
+        <f>Dati!M25</f>
         <v>2509</v>
       </c>
       <c r="D25">
@@ -44123,7 +44845,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="3">
-        <f>Dati!L26</f>
+        <f>Dati!M26</f>
         <v>2912</v>
       </c>
       <c r="D26">
@@ -44159,7 +44881,7 @@
         <v>25</v>
       </c>
       <c r="C27" s="3">
-        <f>Dati!L27</f>
+        <f>Dati!M27</f>
         <v>3348</v>
       </c>
       <c r="D27">
@@ -44195,7 +44917,7 @@
         <v>26</v>
       </c>
       <c r="C28" s="3">
-        <f>Dati!L28</f>
+        <f>Dati!M28</f>
         <v>3794</v>
       </c>
       <c r="D28">
@@ -44231,7 +44953,7 @@
         <v>27</v>
       </c>
       <c r="C29" s="3">
-        <f>Dati!L29</f>
+        <f>Dati!M29</f>
         <v>4304</v>
       </c>
       <c r="D29">
@@ -44267,7 +44989,7 @@
         <v>28</v>
       </c>
       <c r="C30" s="3">
-        <f>Dati!L30</f>
+        <f>Dati!M30</f>
         <v>4995</v>
       </c>
       <c r="D30">
@@ -44303,7 +45025,7 @@
         <v>29</v>
       </c>
       <c r="C31" s="3">
-        <f>Dati!L31</f>
+        <f>Dati!M31</f>
         <v>5538</v>
       </c>
       <c r="D31">
@@ -44339,7 +45061,7 @@
         <v>30</v>
       </c>
       <c r="C32" s="3">
-        <f>Dati!L32</f>
+        <f>Dati!M32</f>
         <v>5992</v>
       </c>
       <c r="D32">
@@ -44375,7 +45097,7 @@
         <v>31</v>
       </c>
       <c r="C33" s="3">
-        <f>Dati!L33</f>
+        <f>Dati!M33</f>
         <v>6602</v>
       </c>
       <c r="D33">
@@ -44411,7 +45133,7 @@
         <v>32</v>
       </c>
       <c r="C34" s="3">
-        <f>Dati!L34</f>
+        <f>Dati!M34</f>
         <v>7304</v>
       </c>
       <c r="D34">
@@ -44447,7 +45169,7 @@
         <v>33</v>
       </c>
       <c r="C35" s="3">
-        <f>Dati!L35</f>
+        <f>Dati!M35</f>
         <v>7804</v>
       </c>
       <c r="D35">
@@ -44483,7 +45205,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="3">
-        <f>Dati!L36</f>
+        <f>Dati!M36</f>
         <v>8177</v>
       </c>
       <c r="D36">
@@ -44519,7 +45241,7 @@
         <v>35</v>
       </c>
       <c r="C37" s="3">
-        <f>Dati!L37</f>
+        <f>Dati!M37</f>
         <v>9100</v>
       </c>
       <c r="D37">
@@ -44555,7 +45277,7 @@
         <v>36</v>
       </c>
       <c r="C38" s="3">
-        <f>Dati!L38</f>
+        <f>Dati!M38</f>
         <v>9677</v>
       </c>
       <c r="D38">
@@ -44581,6 +45303,42 @@
       <c r="K38" s="6">
         <f t="shared" ref="K38" si="11">100/I38</f>
         <v>24.625400434018808</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>43921</v>
+      </c>
+      <c r="B39" s="10">
+        <v>37</v>
+      </c>
+      <c r="C39" s="3">
+        <f>Dati!M39</f>
+        <v>10376</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39" si="12">C39-C38</f>
+        <v>699</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39" si="13">D39-D38</f>
+        <v>122</v>
+      </c>
+      <c r="H39" s="5">
+        <f>C39/Casi_totali!B39</f>
+        <v>3.0374707259953162</v>
+      </c>
+      <c r="I39" s="5">
+        <f>C39/Positivi!B39</f>
+        <v>4.1371610845295059</v>
+      </c>
+      <c r="J39" s="6">
+        <f t="shared" ref="J39" si="14">100/H39</f>
+        <v>32.922127987663842</v>
+      </c>
+      <c r="K39" s="6">
+        <f t="shared" ref="K39" si="15">100/I39</f>
+        <v>24.171164225134923</v>
       </c>
     </row>
   </sheetData>

--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B818AD-1BE2-4474-A634-C71E1F5B3BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C67287-FCEB-4FD0-B455-4FF17F926E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -619,6 +619,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -738,6 +741,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -893,6 +899,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1009,6 +1018,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,6 +1172,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1273,6 +1288,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,6 +1446,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1538,6 +1559,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1918,6 +1942,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2034,6 +2061,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,6 +2219,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2302,6 +2335,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2453,6 +2489,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2563,6 +2602,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2952,6 +2994,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3071,6 +3116,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,6 +3274,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3342,6 +3393,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,6 +3547,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3606,6 +3663,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3761,6 +3821,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3871,6 +3934,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4251,6 +4317,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4367,6 +4436,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4522,6 +4594,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4635,6 +4710,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4786,6 +4864,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4896,6 +4977,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5310,6 +5394,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5429,6 +5516,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2645</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5787,6 +5877,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5906,6 +5999,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1176</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6061,6 +6157,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6177,6 +6276,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6328,6 +6430,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6441,6 +6546,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6596,6 +6704,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6706,6 +6817,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7086,6 +7200,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7202,6 +7319,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7357,6 +7477,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7470,6 +7593,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7621,6 +7747,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7731,6 +7860,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8156,6 +8288,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8275,6 +8410,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10376</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11334</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9184,6 +9322,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9300,6 +9441,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3.0374707259953162</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.09672131147541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9455,6 +9599,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9571,6 +9718,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4.1371610845295059</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2850661625708888</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10796,6 +10946,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10912,6 +11065,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11067,6 +11223,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11180,6 +11339,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11331,6 +11493,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11441,6 +11606,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11966,6 +12134,9 @@
                 <c:pt idx="36">
                   <c:v>2508</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2645</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12216,205 +12387,205 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>1.833644188596061</c:v>
+                  <c:v>1.7027130439646405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4014837338411104</c:v>
+                  <c:v>2.2300805773681738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1449579254401043</c:v>
+                  <c:v>2.9206179050889829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1182390186884801</c:v>
+                  <c:v>3.8246907366574119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3920993847356113</c:v>
+                  <c:v>5.0081256636001923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0589208197018714</c:v>
+                  <c:v>6.5568951677420015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.239160174133259</c:v>
+                  <c:v>8.5831787031578202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.089655040585939</c:v>
+                  <c:v>11.233172787849522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.814225383422498</c:v>
+                  <c:v>14.697101369962581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.677090012088751</c:v>
+                  <c:v>19.221955013402173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.01964773642927</c:v>
+                  <c:v>25.127546861134469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.281130289812431</c:v>
+                  <c:v>32.82648299448676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.023446602304304</c:v>
+                  <c:v>42.848548287658716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.960091020780361</c:v>
+                  <c:v>55.869711839393219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.988107808150829</c:v>
+                  <c:v>72.745309729280393</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.2205491566567</c:v>
+                  <c:v>94.545748292044593</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131.01434219244319</c:v>
+                  <c:v>122.59099736478171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>168.98473300573616</c:v>
+                  <c:v>158.47688724665224</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>216.99249061841047</c:v>
+                  <c:v>204.08156721276592</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>277.08449061401689</c:v>
+                  <c:v>261.53462772724805</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>351.36414743392186</c:v>
+                  <c:v>333.12552139007005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>441.76943337262094</c:v>
+                  <c:v>421.12500002289858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>549.74891867796191</c:v>
+                  <c:v>527.49864203549566</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>675.85627813126143</c:v>
+                  <c:v>653.51217135777131</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>819.33121375640894</c:v>
+                  <c:v>799.2691550588238</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>977.78627382387458</c:v>
+                  <c:v>963.27825188923396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1147.1440117838904</c:v>
+                  <c:v>1142.1972628379146</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1321.9315964388388</c:v>
+                  <c:v>1330.9063027749569</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1495.929608568604</c:v>
+                  <c:v>1522.9893042239935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1663.0293198446502</c:v>
+                  <c:v>1711.5599347002089</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1818.0582792657256</c:v>
+                  <c:v>1890.2211609293347</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1957.3488268477511</c:v>
+                  <c:v>2053.8858507168729</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2078.938287638322</c:v>
+                  <c:v>2199.2500539127318</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2182.4307361303991</c:v>
+                  <c:v>2324.8582985552998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2268.6439624498003</c:v>
+                  <c:v>2430.8424270086016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2339.1844382015015</c:v>
+                  <c:v>2518.4868994570184</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2396.0579234899396</c:v>
+                  <c:v>2589.767101663203</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2441.370585299519</c:v>
+                  <c:v>2646.9566337066594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2477.1317669550394</c:v>
+                  <c:v>2692.3431378505884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2505.1442352908293</c:v>
+                  <c:v>2728.0517524875231</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2526.958514717754</c:v>
+                  <c:v>2755.9550293517373</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2543.8685021184901</c:v>
+                  <c:v>2777.6430303644934</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2556.9303481334159</c:v>
+                  <c:v>2794.4303429215697</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2566.9921307177269</c:v>
+                  <c:v>2807.3826414356249</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2574.7265485857847</c:v>
+                  <c:v>2817.3512614988572</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2580.6622870867031</c:v>
+                  <c:v>2825.008880258883</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2585.2119612561069</c:v>
+                  <c:v>2830.8826253680968</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2588.6959010868586</c:v>
+                  <c:v>2835.3829878790311</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2591.3617960304282</c:v>
+                  <c:v>2838.8281147732514</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2593.40058412599</c:v>
+                  <c:v>2841.4636941152994</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2594.9591136964473</c:v>
+                  <c:v>2843.4789374930333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2596.1501245921631</c:v>
+                  <c:v>2845.019257979789</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2597.0600539918887</c:v>
+                  <c:v>2846.1962307222379</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2597.7551048626829</c:v>
+                  <c:v>2847.095363227686</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2598.2859428979491</c:v>
+                  <c:v>2847.7821249940803</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2598.6913198115967</c:v>
+                  <c:v>2848.3066078808056</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2599.0008613819004</c:v>
+                  <c:v>2848.7071174095267</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2599.237208706716</c:v>
+                  <c:v>2849.0129339889581</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2599.4176603422156</c:v>
+                  <c:v>2849.2464322920637</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2599.5554302854243</c:v>
+                  <c:v>2849.4247058710266</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2599.6606108646256</c:v>
+                  <c:v>2849.5608112814753</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2599.740909290897</c:v>
+                  <c:v>2849.6647201126466</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2599.8022108017672</c:v>
+                  <c:v>2849.7440470842912</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2599.8490090639743</c:v>
+                  <c:v>2849.8046066404399</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2599.8847350317087</c:v>
+                  <c:v>2849.8508382962091</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2599.9120081637548</c:v>
+                  <c:v>2849.8861316038269</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2599.9328282986335</c:v>
+                  <c:v>2849.9130743795231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12666,202 +12837,202 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="1">
-                  <c:v>5.6783954524504932</c:v>
+                  <c:v>5.2736753340353326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4347419159899397</c:v>
+                  <c:v>6.9053732772080911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7328109324837584</c:v>
+                  <c:v>9.0407283156842908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.738603660471313</c:v>
+                  <c:v>11.834349269427804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.668214349662598</c:v>
+                  <c:v>15.487695041418093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.802393544313876</c:v>
+                  <c:v>20.262835354158184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.504948664526797</c:v>
+                  <c:v>26.499940846917021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.245703428365587</c:v>
+                  <c:v>34.639285821130592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.62864628666253</c:v>
+                  <c:v>45.248536434395916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.425577243405193</c:v>
+                  <c:v>59.055918477322962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.614825533831606</c:v>
+                  <c:v>76.989361333522908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.42316312491873</c:v>
+                  <c:v>100.22065293171956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.36644418476055</c:v>
+                  <c:v>130.21163551734503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180.28016787370467</c:v>
+                  <c:v>168.75597889887175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.32441348505873</c:v>
+                  <c:v>218.00438562764199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>297.93793035786496</c:v>
+                  <c:v>280.45249072737124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>379.70390813292966</c:v>
+                  <c:v>358.85889881870526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>480.07757612674311</c:v>
+                  <c:v>456.04679966113679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>600.9199999560642</c:v>
+                  <c:v>574.53060514482127</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>742.79656819904972</c:v>
+                  <c:v>715.90893662821998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>904.0528593869908</c:v>
+                  <c:v>879.99478632828527</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1079.7948530534097</c:v>
+                  <c:v>1063.7364201259709</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1261.0735945329952</c:v>
+                  <c:v>1260.1352932227564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1434.7493562514751</c:v>
+                  <c:v>1457.5698370105249</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1584.5506006746564</c:v>
+                  <c:v>1640.0909683041016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1693.5773796001581</c:v>
+                  <c:v>1789.1901094868069</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1747.8758465494843</c:v>
+                  <c:v>1887.0903993704223</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1739.9801212976513</c:v>
+                  <c:v>1920.830014490366</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1670.9971127604626</c:v>
+                  <c:v>1885.7063047621546</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1550.2895942107534</c:v>
+                  <c:v>1786.6122622912576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1392.9054758202551</c:v>
+                  <c:v>1636.6468978753824</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1215.8946079057091</c:v>
+                  <c:v>1453.6420319585886</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1034.9244849207707</c:v>
+                  <c:v>1256.0824464256802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>862.13226319401201</c:v>
+                  <c:v>1059.8412845330176</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>705.40475751701251</c:v>
+                  <c:v>876.44472448416764</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>568.73485288438133</c:v>
+                  <c:v>712.8020220618464</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>453.12661809579367</c:v>
+                  <c:v>571.89532043456438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>357.61181655520431</c:v>
+                  <c:v>453.8650414392896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>280.1246833578989</c:v>
+                  <c:v>357.08614636934726</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>218.14279426924713</c:v>
+                  <c:v>279.03276864214149</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>169.099874007361</c:v>
+                  <c:v>216.88001012756104</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>130.61846014925777</c:v>
+                  <c:v>167.87312557076348</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100.61782584311004</c:v>
+                  <c:v>129.52298514055201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.344178680577897</c:v>
+                  <c:v>99.686200632322652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>59.357385009184327</c:v>
+                  <c:v>76.576187600257981</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45.496741694037155</c:v>
+                  <c:v>58.737451092138144</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.839398307517513</c:v>
+                  <c:v>45.003625109343375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.658949435695831</c:v>
+                  <c:v>34.45126894220266</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.38788095561813</c:v>
+                  <c:v>26.35579342048004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15.585295704572673</c:v>
+                  <c:v>20.152433777338956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.910108957158627</c:v>
+                  <c:v>15.403204867557179</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.0992939972556997</c:v>
+                  <c:v>11.769727424489247</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.9505087079414807</c:v>
+                  <c:v>8.9913250544805123</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.3083803526624251</c:v>
+                  <c:v>6.8676176639428377</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0537691364761486</c:v>
+                  <c:v>5.2448288672530907</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0954157030373608</c:v>
+                  <c:v>4.0050952872115886</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3634732481559695</c:v>
+                  <c:v>3.0581657943139362</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8045163549959398</c:v>
+                  <c:v>2.3349830310553443</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3776994320869562</c:v>
+                  <c:v>1.7827357896294416</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0518057920126012</c:v>
+                  <c:v>1.3610541044863567</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.80298426271383505</c:v>
+                  <c:v>1.0390883117133853</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.61301510870180209</c:v>
+                  <c:v>0.79326971644604782</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.46798262207175867</c:v>
+                  <c:v>0.60559556148746196</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.35725967734379083</c:v>
+                  <c:v>0.46231655769133795</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.27273132046047976</c:v>
+                  <c:v>0.35293307617848768</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.20820134878704266</c:v>
+                  <c:v>0.26942775696170429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13407,6 +13578,9 @@
                 <c:pt idx="36">
                   <c:v>2508</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2645</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -13903,6 +14077,9 @@
                 <c:pt idx="36">
                   <c:v>2508</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2645</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14153,205 +14330,205 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="0">
-                  <c:v>1.833644188596061</c:v>
+                  <c:v>1.7027130439646405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4014837338411104</c:v>
+                  <c:v>2.2300805773681738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.1449579254401043</c:v>
+                  <c:v>2.9206179050889829</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1182390186884801</c:v>
+                  <c:v>3.8246907366574119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3920993847356113</c:v>
+                  <c:v>5.0081256636001923</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.0589208197018714</c:v>
+                  <c:v>6.5568951677420015</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.239160174133259</c:v>
+                  <c:v>8.5831787031578202</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.089655040585939</c:v>
+                  <c:v>11.233172787849522</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.814225383422498</c:v>
+                  <c:v>14.697101369962581</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.677090012088751</c:v>
+                  <c:v>19.221955013402173</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.01964773642927</c:v>
+                  <c:v>25.127546861134469</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.281130289812431</c:v>
+                  <c:v>32.82648299448676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.023446602304304</c:v>
+                  <c:v>42.848548287658716</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59.960091020780361</c:v>
+                  <c:v>55.869711839393219</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>77.988107808150829</c:v>
+                  <c:v>72.745309729280393</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.2205491566567</c:v>
+                  <c:v>94.545748292044593</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>131.01434219244319</c:v>
+                  <c:v>122.59099736478171</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>168.98473300573616</c:v>
+                  <c:v>158.47688724665224</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>216.99249061841047</c:v>
+                  <c:v>204.08156721276592</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>277.08449061401689</c:v>
+                  <c:v>261.53462772724805</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>351.36414743392186</c:v>
+                  <c:v>333.12552139007005</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>441.76943337262094</c:v>
+                  <c:v>421.12500002289858</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>549.74891867796191</c:v>
+                  <c:v>527.49864203549566</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>675.85627813126143</c:v>
+                  <c:v>653.51217135777131</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>819.33121375640894</c:v>
+                  <c:v>799.2691550588238</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>977.78627382387458</c:v>
+                  <c:v>963.27825188923396</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1147.1440117838904</c:v>
+                  <c:v>1142.1972628379146</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1321.9315964388388</c:v>
+                  <c:v>1330.9063027749569</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1495.929608568604</c:v>
+                  <c:v>1522.9893042239935</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1663.0293198446502</c:v>
+                  <c:v>1711.5599347002089</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1818.0582792657256</c:v>
+                  <c:v>1890.2211609293347</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1957.3488268477511</c:v>
+                  <c:v>2053.8858507168729</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2078.938287638322</c:v>
+                  <c:v>2199.2500539127318</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2182.4307361303991</c:v>
+                  <c:v>2324.8582985552998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2268.6439624498003</c:v>
+                  <c:v>2430.8424270086016</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2339.1844382015015</c:v>
+                  <c:v>2518.4868994570184</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2396.0579234899396</c:v>
+                  <c:v>2589.767101663203</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2441.370585299519</c:v>
+                  <c:v>2646.9566337066594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2477.1317669550394</c:v>
+                  <c:v>2692.3431378505884</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2505.1442352908293</c:v>
+                  <c:v>2728.0517524875231</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2526.958514717754</c:v>
+                  <c:v>2755.9550293517373</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2543.8685021184901</c:v>
+                  <c:v>2777.6430303644934</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2556.9303481334159</c:v>
+                  <c:v>2794.4303429215697</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2566.9921307177269</c:v>
+                  <c:v>2807.3826414356249</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2574.7265485857847</c:v>
+                  <c:v>2817.3512614988572</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2580.6622870867031</c:v>
+                  <c:v>2825.008880258883</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2585.2119612561069</c:v>
+                  <c:v>2830.8826253680968</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2588.6959010868586</c:v>
+                  <c:v>2835.3829878790311</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2591.3617960304282</c:v>
+                  <c:v>2838.8281147732514</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2593.40058412599</c:v>
+                  <c:v>2841.4636941152994</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2594.9591136964473</c:v>
+                  <c:v>2843.4789374930333</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2596.1501245921631</c:v>
+                  <c:v>2845.019257979789</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2597.0600539918887</c:v>
+                  <c:v>2846.1962307222379</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2597.7551048626829</c:v>
+                  <c:v>2847.095363227686</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2598.2859428979491</c:v>
+                  <c:v>2847.7821249940803</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2598.6913198115967</c:v>
+                  <c:v>2848.3066078808056</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2599.0008613819004</c:v>
+                  <c:v>2848.7071174095267</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2599.237208706716</c:v>
+                  <c:v>2849.0129339889581</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2599.4176603422156</c:v>
+                  <c:v>2849.2464322920637</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2599.5554302854243</c:v>
+                  <c:v>2849.4247058710266</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2599.6606108646256</c:v>
+                  <c:v>2849.5608112814753</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2599.740909290897</c:v>
+                  <c:v>2849.6647201126466</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2599.8022108017672</c:v>
+                  <c:v>2849.7440470842912</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2599.8490090639743</c:v>
+                  <c:v>2849.8046066404399</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2599.8847350317087</c:v>
+                  <c:v>2849.8508382962091</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2599.9120081637548</c:v>
+                  <c:v>2849.8861316038269</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2599.9328282986335</c:v>
+                  <c:v>2849.9130743795231</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14603,202 +14780,202 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="1">
-                  <c:v>5.6783954524504932</c:v>
+                  <c:v>5.2736753340353326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4347419159899397</c:v>
+                  <c:v>6.9053732772080911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.7328109324837584</c:v>
+                  <c:v>9.0407283156842908</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.738603660471313</c:v>
+                  <c:v>11.834349269427804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.668214349662598</c:v>
+                  <c:v>15.487695041418093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.802393544313876</c:v>
+                  <c:v>20.262835354158184</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.504948664526797</c:v>
+                  <c:v>26.499940846917021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.245703428365587</c:v>
+                  <c:v>34.639285821130592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48.62864628666253</c:v>
+                  <c:v>45.248536434395916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63.425577243405193</c:v>
+                  <c:v>59.055918477322962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>82.614825533831606</c:v>
+                  <c:v>76.989361333522908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>107.42316312491873</c:v>
+                  <c:v>100.22065293171956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139.36644418476055</c:v>
+                  <c:v>130.21163551734503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>180.28016787370467</c:v>
+                  <c:v>168.75597889887175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>232.32441348505873</c:v>
+                  <c:v>218.00438562764199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>297.93793035786496</c:v>
+                  <c:v>280.45249072737124</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>379.70390813292966</c:v>
+                  <c:v>358.85889881870526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>480.07757612674311</c:v>
+                  <c:v>456.04679966113679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>600.9199999560642</c:v>
+                  <c:v>574.53060514482127</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>742.79656819904972</c:v>
+                  <c:v>715.90893662821998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>904.0528593869908</c:v>
+                  <c:v>879.99478632828527</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1079.7948530534097</c:v>
+                  <c:v>1063.7364201259709</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1261.0735945329952</c:v>
+                  <c:v>1260.1352932227564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1434.7493562514751</c:v>
+                  <c:v>1457.5698370105249</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1584.5506006746564</c:v>
+                  <c:v>1640.0909683041016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1693.5773796001581</c:v>
+                  <c:v>1789.1901094868069</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1747.8758465494843</c:v>
+                  <c:v>1887.0903993704223</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1739.9801212976513</c:v>
+                  <c:v>1920.830014490366</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1670.9971127604626</c:v>
+                  <c:v>1885.7063047621546</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1550.2895942107534</c:v>
+                  <c:v>1786.6122622912576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1392.9054758202551</c:v>
+                  <c:v>1636.6468978753824</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1215.8946079057091</c:v>
+                  <c:v>1453.6420319585886</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1034.9244849207707</c:v>
+                  <c:v>1256.0824464256802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>862.13226319401201</c:v>
+                  <c:v>1059.8412845330176</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>705.40475751701251</c:v>
+                  <c:v>876.44472448416764</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>568.73485288438133</c:v>
+                  <c:v>712.8020220618464</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>453.12661809579367</c:v>
+                  <c:v>571.89532043456438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>357.61181655520431</c:v>
+                  <c:v>453.8650414392896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>280.1246833578989</c:v>
+                  <c:v>357.08614636934726</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>218.14279426924713</c:v>
+                  <c:v>279.03276864214149</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>169.099874007361</c:v>
+                  <c:v>216.88001012756104</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>130.61846014925777</c:v>
+                  <c:v>167.87312557076348</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>100.61782584311004</c:v>
+                  <c:v>129.52298514055201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>77.344178680577897</c:v>
+                  <c:v>99.686200632322652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>59.357385009184327</c:v>
+                  <c:v>76.576187600257981</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>45.496741694037155</c:v>
+                  <c:v>58.737451092138144</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>34.839398307517513</c:v>
+                  <c:v>45.003625109343375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>26.658949435695831</c:v>
+                  <c:v>34.45126894220266</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>20.38788095561813</c:v>
+                  <c:v>26.35579342048004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>15.585295704572673</c:v>
+                  <c:v>20.152433777338956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>11.910108957158627</c:v>
+                  <c:v>15.403204867557179</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.0992939972556997</c:v>
+                  <c:v>11.769727424489247</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>6.9505087079414807</c:v>
+                  <c:v>8.9913250544805123</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.3083803526624251</c:v>
+                  <c:v>6.8676176639428377</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>4.0537691364761486</c:v>
+                  <c:v>5.2448288672530907</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0954157030373608</c:v>
+                  <c:v>4.0050952872115886</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.3634732481559695</c:v>
+                  <c:v>3.0581657943139362</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.8045163549959398</c:v>
+                  <c:v>2.3349830310553443</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3776994320869562</c:v>
+                  <c:v>1.7827357896294416</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.0518057920126012</c:v>
+                  <c:v>1.3610541044863567</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.80298426271383505</c:v>
+                  <c:v>1.0390883117133853</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.61301510870180209</c:v>
+                  <c:v>0.79326971644604782</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.46798262207175867</c:v>
+                  <c:v>0.60559556148746196</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.35725967734379083</c:v>
+                  <c:v>0.46231655769133795</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.27273132046047976</c:v>
+                  <c:v>0.35293307617848768</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.20820134878704266</c:v>
+                  <c:v>0.26942775696170429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14886,7 +15063,7 @@
         <c:axId val="448855200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -15239,115 +15416,118 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="147"/>
                 <c:pt idx="0">
-                  <c:v>-0.83364418859606104</c:v>
+                  <c:v>-0.70271304396464052</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.4014837338411104</c:v>
+                  <c:v>-1.2300805773681738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.8550420745598952</c:v>
+                  <c:v>8.0793820949110167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.881760981311519</c:v>
+                  <c:v>15.175309263342587</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.607900615264388</c:v>
+                  <c:v>13.991874336399807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.941079180298129</c:v>
+                  <c:v>31.443104832257998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.760839825866741</c:v>
+                  <c:v>12.41682129684218</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9103449594140613</c:v>
+                  <c:v>6.7668272121504778</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.1857746165775023</c:v>
+                  <c:v>4.3028986300374186</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.32290998791124892</c:v>
+                  <c:v>1.7780449865978269</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.0196477364292704</c:v>
+                  <c:v>-4.1275468611344692</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-11.281130289812431</c:v>
+                  <c:v>-8.82648299448676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-4.0234466023043041</c:v>
+                  <c:v>-0.84854828765871559</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.0399089792196392</c:v>
+                  <c:v>11.130288160606781</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19.011892191849171</c:v>
+                  <c:v>24.254690270719607</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26.779450843343298</c:v>
+                  <c:v>33.454251707955407</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.985657807556805</c:v>
+                  <c:v>58.409002635218286</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.01526699426384</c:v>
+                  <c:v>84.52311275334776</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87.007509381589529</c:v>
+                  <c:v>99.918432787234082</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>106.91550938598311</c:v>
+                  <c:v>122.46537227275195</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141.63585256607814</c:v>
+                  <c:v>159.87447860992995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>133.23056662737906</c:v>
+                  <c:v>153.87499997710142</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>111.25108132203809</c:v>
+                  <c:v>133.50135796450434</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>68.143721868738567</c:v>
+                  <c:v>90.487828642228692</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63.668786243591057</c:v>
+                  <c:v>83.730844941176201</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>23.213726176125419</c:v>
+                  <c:v>37.721748110766043</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>11.855988216109608</c:v>
+                  <c:v>16.80273716208535</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29.068403561161176</c:v>
+                  <c:v>20.093697225043115</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>57.070391431396047</c:v>
+                  <c:v>30.010695776006514</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>28.970680155349783</c:v>
+                  <c:v>-19.559934700208942</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.9417207342744405</c:v>
+                  <c:v>-64.221160929334701</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>69.65117315224893</c:v>
+                  <c:v>-26.885850716872937</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-18.938287638321981</c:v>
+                  <c:v>-139.2500539127318</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-96.430736130399055</c:v>
+                  <c:v>-238.85829855529983</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.356037550199744</c:v>
+                  <c:v>-151.84242700860159</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.815561798498493</c:v>
+                  <c:v>-135.48689945701835</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>111.94207651006036</c:v>
+                  <c:v>-81.767101663202993</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.9566337066594315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15876,202 +16056,202 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="67"/>
                 <c:pt idx="1">
-                  <c:v>0.56783954524504932</c:v>
+                  <c:v>0.52736753340353326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74347419159899397</c:v>
+                  <c:v>0.69053732772080911</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97328109324837575</c:v>
+                  <c:v>0.90407283156842899</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2738603660471313</c:v>
+                  <c:v>1.1834349269427804</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.66682143496626</c:v>
+                  <c:v>1.5487695041418093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1802393544313876</c:v>
+                  <c:v>2.0262835354158186</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8504948664526797</c:v>
+                  <c:v>2.6499940846917021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7245703428365591</c:v>
+                  <c:v>3.4639285821130592</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8628646286662534</c:v>
+                  <c:v>4.5248536434395916</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.3425577243405193</c:v>
+                  <c:v>5.9055918477322962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2614825533831606</c:v>
+                  <c:v>7.6989361333522908</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.742316312491873</c:v>
+                  <c:v>10.022065293171956</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.936644418476057</c:v>
+                  <c:v>13.021163551734503</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.028016787370468</c:v>
+                  <c:v>16.875597889887175</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.232441348505873</c:v>
+                  <c:v>21.800438562764199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29.793793035786493</c:v>
+                  <c:v>28.045249072737121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37.970390813292966</c:v>
+                  <c:v>35.885889881870526</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.007757612674311</c:v>
+                  <c:v>45.604679966113679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>60.091999995606415</c:v>
+                  <c:v>57.453060514482132</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74.279656819904972</c:v>
+                  <c:v>71.590893662821998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90.40528593869908</c:v>
+                  <c:v>87.999478632828527</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>107.97948530534097</c:v>
+                  <c:v>106.37364201259709</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>126.10735945329952</c:v>
+                  <c:v>126.01352932227564</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>143.47493562514751</c:v>
+                  <c:v>145.75698370105249</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>158.45506006746564</c:v>
+                  <c:v>164.00909683041016</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>169.35773796001581</c:v>
+                  <c:v>178.91901094868069</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>174.78758465494843</c:v>
+                  <c:v>188.70903993704223</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>173.99801212976513</c:v>
+                  <c:v>192.0830014490366</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>167.09971127604626</c:v>
+                  <c:v>188.57063047621546</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>155.02895942107534</c:v>
+                  <c:v>178.66122622912576</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>139.29054758202551</c:v>
+                  <c:v>163.66468978753824</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>121.58946079057091</c:v>
+                  <c:v>145.36420319585886</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>103.49244849207707</c:v>
+                  <c:v>125.60824464256802</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>86.213226319401201</c:v>
+                  <c:v>105.98412845330176</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>70.540475751701251</c:v>
+                  <c:v>87.644472448416764</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>56.873485288438133</c:v>
+                  <c:v>71.28020220618464</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>45.312661809579367</c:v>
+                  <c:v>57.189532043456438</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>35.761181655520431</c:v>
+                  <c:v>45.38650414392896</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.01246833578989</c:v>
+                  <c:v>35.708614636934726</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>21.814279426924713</c:v>
+                  <c:v>27.903276864214149</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>16.9099874007361</c:v>
+                  <c:v>21.688001012756104</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>13.061846014925777</c:v>
+                  <c:v>16.787312557076348</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>10.061782584311004</c:v>
+                  <c:v>12.952298514055201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.7344178680577897</c:v>
+                  <c:v>9.9686200632322652</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.9357385009184327</c:v>
+                  <c:v>7.6576187600257981</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.5496741694037155</c:v>
+                  <c:v>5.8737451092138144</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.4839398307517513</c:v>
+                  <c:v>4.5003625109343375</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.6658949435695831</c:v>
+                  <c:v>3.445126894220266</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.038788095561813</c:v>
+                  <c:v>2.635579342048004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5585295704572673</c:v>
+                  <c:v>2.0152433777338956</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1910108957158627</c:v>
+                  <c:v>1.5403204867557179</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.90992939972556997</c:v>
+                  <c:v>1.1769727424489247</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.69505087079414807</c:v>
+                  <c:v>0.89913250544805123</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.53083803526624251</c:v>
+                  <c:v>0.68676176639428377</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.40537691364761486</c:v>
+                  <c:v>0.52448288672530907</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.30954157030373608</c:v>
+                  <c:v>0.40050952872115886</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.23634732481559695</c:v>
+                  <c:v>0.30581657943139362</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.18045163549959398</c:v>
+                  <c:v>0.23349830310553443</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.13776994320869562</c:v>
+                  <c:v>0.17827357896294416</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.10518057920126012</c:v>
+                  <c:v>0.13610541044863567</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.0298426271383505E-2</c:v>
+                  <c:v>0.10390883117133853</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6.1301510870180209E-2</c:v>
+                  <c:v>7.9326971644604782E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.6798262207175867E-2</c:v>
+                  <c:v>6.0559556148746196E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>3.5725967734379083E-2</c:v>
+                  <c:v>4.6231655769133795E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.7273132046047976E-2</c:v>
+                  <c:v>3.5293307617848768E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0820134878704266E-2</c:v>
+                  <c:v>2.6942775696170429E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16360,6 +16540,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16853,6 +17036,9 @@
                 <c:pt idx="36">
                   <c:v>428</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>460</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16868,7 +17054,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$F$1:$F$1</c:f>
+              <c:f>'Analisi-dead'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16888,10 +17074,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -17005,16 +17191,28 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$F$3:$F$40</c:f>
+              <c:f>'Analisi-dead'!$F$3:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0.15718470276646743</c:v>
                 </c:pt>
@@ -17128,6 +17326,18 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>459.04398762130774</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>474.06158560097862</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>486.20400394054809</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>495.90028679500477</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>503.56655686559009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18011,6 +18221,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19464,6 +19677,9 @@
                 <c:pt idx="36">
                   <c:v>-12.753673665697136</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.95601237869226452</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20365,6 +20581,9 @@
                 <c:pt idx="36">
                   <c:v>31</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20764,6 +20983,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20883,6 +21105,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>3416</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21276,6 +21501,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21394,6 +21622,9 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
@@ -21550,6 +21781,9 @@
                 <c:pt idx="37">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21666,6 +21900,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22007,6 +22244,9 @@
                 <c:pt idx="37">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22117,6 +22357,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22497,6 +22740,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22616,6 +22862,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22771,6 +23020,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22887,6 +23139,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23038,6 +23293,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23151,6 +23409,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23306,6 +23567,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23416,6 +23680,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23805,6 +24072,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23921,6 +24191,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24076,6 +24349,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24189,6 +24465,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24340,6 +24619,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24450,6 +24732,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24839,6 +25124,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24955,6 +25243,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25110,6 +25401,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25223,6 +25517,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25374,6 +25671,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25484,6 +25784,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25873,6 +26176,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25992,6 +26298,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>460</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26147,6 +26456,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26263,6 +26575,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26414,6 +26729,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26527,6 +26845,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26682,6 +27003,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26792,6 +27116,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27172,6 +27499,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27291,6 +27621,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27446,6 +27779,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27562,6 +27898,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27713,6 +28052,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27826,6 +28168,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-59</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27981,6 +28326,9 @@
                 <c:pt idx="36">
                   <c:v>43921</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -28091,6 +28439,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>-88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -31774,10 +32125,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B39"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33283,6 +33634,47 @@
         <v>10376</v>
       </c>
     </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="18">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1114</v>
+      </c>
+      <c r="D40" s="17">
+        <v>179</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1293</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1352</v>
+      </c>
+      <c r="G40" s="17">
+        <v>2645</v>
+      </c>
+      <c r="H40" s="17">
+        <v>137</v>
+      </c>
+      <c r="I40" s="17">
+        <v>244</v>
+      </c>
+      <c r="J40" s="17">
+        <v>555</v>
+      </c>
+      <c r="K40" s="17">
+        <v>460</v>
+      </c>
+      <c r="L40" s="17">
+        <v>3660</v>
+      </c>
+      <c r="M40" s="17">
+        <v>11334</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -33296,8 +33688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33341,7 +33733,7 @@
         <v>22</v>
       </c>
       <c r="K2" s="9">
-        <v>2600</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -33357,18 +33749,18 @@
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E34" si="0">$K$2/(1+$K$5*EXP(-$K$4*B3))</f>
-        <v>1.833644188596061</v>
+        <v>1.7027130439646405</v>
       </c>
       <c r="F3" s="11"/>
       <c r="H3" s="11">
         <f>C3-E3</f>
-        <v>-0.83364418859606104</v>
+        <v>-0.70271304396464052</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>23</v>
       </c>
       <c r="K3" s="9">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -33388,19 +33780,19 @@
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>2.4014837338411104</v>
+        <v>2.2300805773681738</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" ref="F4:F35" si="1">(E4-E3)*10</f>
-        <v>5.6783954524504932</v>
+        <v>5.2736753340353326</v>
       </c>
       <c r="G4" s="11">
         <f>E4-E3</f>
-        <v>0.56783954524504932</v>
+        <v>0.52736753340353326</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H39" si="2">C4-E4</f>
-        <v>-1.4014837338411104</v>
+        <f t="shared" ref="H4:H40" si="2">C4-E4</f>
+        <v>-1.2300805773681738</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>24</v>
@@ -33426,26 +33818,26 @@
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>3.1449579254401043</v>
+        <v>2.9206179050889829</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" si="1"/>
-        <v>7.4347419159899397</v>
+        <v>6.9053732772080911</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" ref="G5:G68" si="4">E5-E4</f>
-        <v>0.74347419159899397</v>
+        <v>0.69053732772080911</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="2"/>
-        <v>7.8550420745598952</v>
+        <v>8.0793820949110167</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>25</v>
       </c>
       <c r="K5" s="15">
         <f>(K2-K3)/K3</f>
-        <v>1856.1428571428571</v>
+        <v>2191.3076923076919</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -33465,19 +33857,19 @@
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>4.1182390186884801</v>
+        <v>3.8246907366574119</v>
       </c>
       <c r="F6" s="11">
         <f t="shared" si="1"/>
-        <v>9.7328109324837584</v>
+        <v>9.0407283156842908</v>
       </c>
       <c r="G6" s="11">
         <f t="shared" si="4"/>
-        <v>0.97328109324837575</v>
+        <v>0.90407283156842899</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
-        <v>14.881760981311519</v>
+        <v>15.175309263342587</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -33497,19 +33889,19 @@
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>5.3920993847356113</v>
+        <v>5.0081256636001923</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" si="1"/>
-        <v>12.738603660471313</v>
+        <v>11.834349269427804</v>
       </c>
       <c r="G7" s="11">
         <f t="shared" si="4"/>
-        <v>1.2738603660471313</v>
+        <v>1.1834349269427804</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="2"/>
-        <v>13.607900615264388</v>
+        <v>13.991874336399807</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -33529,26 +33921,26 @@
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>7.0589208197018714</v>
+        <v>6.5568951677420015</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="1"/>
-        <v>16.668214349662598</v>
+        <v>15.487695041418093</v>
       </c>
       <c r="G8" s="11">
         <f t="shared" si="4"/>
-        <v>1.66682143496626</v>
+        <v>1.5487695041418093</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
-        <v>30.941079180298129</v>
+        <v>31.443104832257998</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="11">
         <f>AVERAGE(H3:H36)</f>
-        <v>31.352781281170437</v>
+        <v>22.049915619710404</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -33568,26 +33960,26 @@
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>9.239160174133259</v>
+        <v>8.5831787031578202</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="1"/>
-        <v>21.802393544313876</v>
+        <v>20.262835354158184</v>
       </c>
       <c r="G9" s="11">
         <f t="shared" si="4"/>
-        <v>2.1802393544313876</v>
+        <v>2.0262835354158186</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
-        <v>11.760839825866741</v>
+        <v>12.41682129684218</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>31</v>
       </c>
       <c r="K9" s="6">
         <f>STDEVP(H3:H36)</f>
-        <v>47.139869623541216</v>
+        <v>74.671703794160152</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -33607,19 +33999,19 @@
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>12.089655040585939</v>
+        <v>11.233172787849522</v>
       </c>
       <c r="F10" s="11">
         <f t="shared" si="1"/>
-        <v>28.504948664526797</v>
+        <v>26.499940846917021</v>
       </c>
       <c r="G10" s="11">
         <f t="shared" si="4"/>
-        <v>2.8504948664526797</v>
+        <v>2.6499940846917021</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
-        <v>5.9103449594140613</v>
+        <v>6.7668272121504778</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -33639,19 +34031,19 @@
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
-        <v>15.814225383422498</v>
+        <v>14.697101369962581</v>
       </c>
       <c r="F11" s="11">
         <f t="shared" si="1"/>
-        <v>37.245703428365587</v>
+        <v>34.639285821130592</v>
       </c>
       <c r="G11" s="11">
         <f t="shared" si="4"/>
-        <v>3.7245703428365591</v>
+        <v>3.4639285821130592</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="2"/>
-        <v>3.1857746165775023</v>
+        <v>4.3028986300374186</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -33671,26 +34063,26 @@
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
-        <v>20.677090012088751</v>
+        <v>19.221955013402173</v>
       </c>
       <c r="F12" s="11">
         <f t="shared" si="1"/>
-        <v>48.62864628666253</v>
+        <v>45.248536434395916</v>
       </c>
       <c r="G12" s="11">
         <f t="shared" si="4"/>
-        <v>4.8628646286662534</v>
+        <v>4.5248536434395916</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
-        <v>0.32290998791124892</v>
+        <v>1.7780449865978269</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
       </c>
       <c r="K12" s="14">
         <f>MATCH(MAX(G3:G67),G3:G67,0)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -33710,19 +34102,19 @@
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
-        <v>27.01964773642927</v>
+        <v>25.127546861134469</v>
       </c>
       <c r="F13" s="11">
         <f t="shared" si="1"/>
-        <v>63.425577243405193</v>
+        <v>59.055918477322962</v>
       </c>
       <c r="G13" s="11">
         <f t="shared" si="4"/>
-        <v>6.3425577243405193</v>
+        <v>5.9055918477322962</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
-        <v>-6.0196477364292704</v>
+        <v>-4.1275468611344692</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -33742,19 +34134,19 @@
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
-        <v>35.281130289812431</v>
+        <v>32.82648299448676</v>
       </c>
       <c r="F14" s="11">
         <f t="shared" si="1"/>
-        <v>82.614825533831606</v>
+        <v>76.989361333522908</v>
       </c>
       <c r="G14" s="11">
         <f t="shared" si="4"/>
-        <v>8.2614825533831606</v>
+        <v>7.6989361333522908</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
-        <v>-11.281130289812431</v>
+        <v>-8.82648299448676</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -33774,19 +34166,19 @@
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>46.023446602304304</v>
+        <v>42.848548287658716</v>
       </c>
       <c r="F15" s="11">
         <f t="shared" si="1"/>
-        <v>107.42316312491873</v>
+        <v>100.22065293171956</v>
       </c>
       <c r="G15" s="11">
         <f t="shared" si="4"/>
-        <v>10.742316312491873</v>
+        <v>10.022065293171956</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
-        <v>-4.0234466023043041</v>
+        <v>-0.84854828765871559</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -33806,19 +34198,19 @@
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>59.960091020780361</v>
+        <v>55.869711839393219</v>
       </c>
       <c r="F16" s="11">
         <f t="shared" si="1"/>
-        <v>139.36644418476055</v>
+        <v>130.21163551734503</v>
       </c>
       <c r="G16" s="11">
         <f t="shared" si="4"/>
-        <v>13.936644418476057</v>
+        <v>13.021163551734503</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
-        <v>7.0399089792196392</v>
+        <v>11.130288160606781</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -33838,19 +34230,19 @@
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>77.988107808150829</v>
+        <v>72.745309729280393</v>
       </c>
       <c r="F17" s="11">
         <f t="shared" si="1"/>
-        <v>180.28016787370467</v>
+        <v>168.75597889887175</v>
       </c>
       <c r="G17" s="11">
         <f t="shared" si="4"/>
-        <v>18.028016787370468</v>
+        <v>16.875597889887175</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>19.011892191849171</v>
+        <v>24.254690270719607</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -33870,19 +34262,19 @@
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
-        <v>101.2205491566567</v>
+        <v>94.545748292044593</v>
       </c>
       <c r="F18" s="11">
         <f t="shared" si="1"/>
-        <v>232.32441348505873</v>
+        <v>218.00438562764199</v>
       </c>
       <c r="G18" s="11">
         <f t="shared" si="4"/>
-        <v>23.232441348505873</v>
+        <v>21.800438562764199</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
-        <v>26.779450843343298</v>
+        <v>33.454251707955407</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -33902,19 +34294,19 @@
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>131.01434219244319</v>
+        <v>122.59099736478171</v>
       </c>
       <c r="F19" s="11">
         <f t="shared" si="1"/>
-        <v>297.93793035786496</v>
+        <v>280.45249072737124</v>
       </c>
       <c r="G19" s="11">
         <f t="shared" si="4"/>
-        <v>29.793793035786493</v>
+        <v>28.045249072737121</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="2"/>
-        <v>49.985657807556805</v>
+        <v>58.409002635218286</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -33934,19 +34326,19 @@
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>168.98473300573616</v>
+        <v>158.47688724665224</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="1"/>
-        <v>379.70390813292966</v>
+        <v>358.85889881870526</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="4"/>
-        <v>37.970390813292966</v>
+        <v>35.885889881870526</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="2"/>
-        <v>74.01526699426384</v>
+        <v>84.52311275334776</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -33966,19 +34358,19 @@
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>216.99249061841047</v>
+        <v>204.08156721276592</v>
       </c>
       <c r="F21" s="11">
         <f t="shared" si="1"/>
-        <v>480.07757612674311</v>
+        <v>456.04679966113679</v>
       </c>
       <c r="G21" s="11">
         <f t="shared" si="4"/>
-        <v>48.007757612674311</v>
+        <v>45.604679966113679</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="2"/>
-        <v>87.007509381589529</v>
+        <v>99.918432787234082</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -33998,19 +34390,19 @@
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>277.08449061401689</v>
+        <v>261.53462772724805</v>
       </c>
       <c r="F22" s="11">
         <f t="shared" si="1"/>
-        <v>600.9199999560642</v>
+        <v>574.53060514482127</v>
       </c>
       <c r="G22" s="11">
         <f t="shared" si="4"/>
-        <v>60.091999995606415</v>
+        <v>57.453060514482132</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
-        <v>106.91550938598311</v>
+        <v>122.46537227275195</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -34030,19 +34422,19 @@
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>351.36414743392186</v>
+        <v>333.12552139007005</v>
       </c>
       <c r="F23" s="11">
         <f t="shared" si="1"/>
-        <v>742.79656819904972</v>
+        <v>715.90893662821998</v>
       </c>
       <c r="G23" s="11">
         <f t="shared" si="4"/>
-        <v>74.279656819904972</v>
+        <v>71.590893662821998</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="2"/>
-        <v>141.63585256607814</v>
+        <v>159.87447860992995</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -34062,19 +34454,19 @@
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>441.76943337262094</v>
+        <v>421.12500002289858</v>
       </c>
       <c r="F24" s="11">
         <f t="shared" si="1"/>
-        <v>904.0528593869908</v>
+        <v>879.99478632828527</v>
       </c>
       <c r="G24" s="11">
         <f t="shared" si="4"/>
-        <v>90.40528593869908</v>
+        <v>87.999478632828527</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="2"/>
-        <v>133.23056662737906</v>
+        <v>153.87499997710142</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -34094,19 +34486,19 @@
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
-        <v>549.74891867796191</v>
+        <v>527.49864203549566</v>
       </c>
       <c r="F25" s="11">
         <f t="shared" si="1"/>
-        <v>1079.7948530534097</v>
+        <v>1063.7364201259709</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="4"/>
-        <v>107.97948530534097</v>
+        <v>106.37364201259709</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="2"/>
-        <v>111.25108132203809</v>
+        <v>133.50135796450434</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -34126,19 +34518,19 @@
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
-        <v>675.85627813126143</v>
+        <v>653.51217135777131</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>1261.0735945329952</v>
+        <v>1260.1352932227564</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="4"/>
-        <v>126.10735945329952</v>
+        <v>126.01352932227564</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="2"/>
-        <v>68.143721868738567</v>
+        <v>90.487828642228692</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -34158,19 +34550,19 @@
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
-        <v>819.33121375640894</v>
+        <v>799.2691550588238</v>
       </c>
       <c r="F27" s="11">
         <f t="shared" si="1"/>
-        <v>1434.7493562514751</v>
+        <v>1457.5698370105249</v>
       </c>
       <c r="G27" s="11">
         <f t="shared" si="4"/>
-        <v>143.47493562514751</v>
+        <v>145.75698370105249</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="2"/>
-        <v>63.668786243591057</v>
+        <v>83.730844941176201</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -34190,19 +34582,19 @@
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
-        <v>977.78627382387458</v>
+        <v>963.27825188923396</v>
       </c>
       <c r="F28" s="11">
         <f t="shared" si="1"/>
-        <v>1584.5506006746564</v>
+        <v>1640.0909683041016</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="4"/>
-        <v>158.45506006746564</v>
+        <v>164.00909683041016</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="2"/>
-        <v>23.213726176125419</v>
+        <v>37.721748110766043</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -34222,19 +34614,19 @@
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
-        <v>1147.1440117838904</v>
+        <v>1142.1972628379146</v>
       </c>
       <c r="F29" s="11">
         <f t="shared" si="1"/>
-        <v>1693.5773796001581</v>
+        <v>1789.1901094868069</v>
       </c>
       <c r="G29" s="11">
         <f t="shared" si="4"/>
-        <v>169.35773796001581</v>
+        <v>178.91901094868069</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="2"/>
-        <v>11.855988216109608</v>
+        <v>16.80273716208535</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -34254,19 +34646,19 @@
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>1321.9315964388388</v>
+        <v>1330.9063027749569</v>
       </c>
       <c r="F30" s="11">
         <f t="shared" si="1"/>
-        <v>1747.8758465494843</v>
+        <v>1887.0903993704223</v>
       </c>
       <c r="G30" s="11">
         <f t="shared" si="4"/>
-        <v>174.78758465494843</v>
+        <v>188.70903993704223</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="2"/>
-        <v>29.068403561161176</v>
+        <v>20.093697225043115</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -34286,19 +34678,19 @@
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
-        <v>1495.929608568604</v>
+        <v>1522.9893042239935</v>
       </c>
       <c r="F31" s="11">
         <f t="shared" si="1"/>
-        <v>1739.9801212976513</v>
+        <v>1920.830014490366</v>
       </c>
       <c r="G31" s="11">
         <f t="shared" si="4"/>
-        <v>173.99801212976513</v>
+        <v>192.0830014490366</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="2"/>
-        <v>57.070391431396047</v>
+        <v>30.010695776006514</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -34318,19 +34710,19 @@
       </c>
       <c r="E32" s="11">
         <f t="shared" si="0"/>
-        <v>1663.0293198446502</v>
+        <v>1711.5599347002089</v>
       </c>
       <c r="F32" s="11">
         <f t="shared" si="1"/>
-        <v>1670.9971127604626</v>
+        <v>1885.7063047621546</v>
       </c>
       <c r="G32" s="11">
         <f t="shared" si="4"/>
-        <v>167.09971127604626</v>
+        <v>188.57063047621546</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="2"/>
-        <v>28.970680155349783</v>
+        <v>-19.559934700208942</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -34350,19 +34742,19 @@
       </c>
       <c r="E33" s="11">
         <f t="shared" si="0"/>
-        <v>1818.0582792657256</v>
+        <v>1890.2211609293347</v>
       </c>
       <c r="F33" s="11">
         <f t="shared" si="1"/>
-        <v>1550.2895942107534</v>
+        <v>1786.6122622912576</v>
       </c>
       <c r="G33" s="11">
         <f t="shared" si="4"/>
-        <v>155.02895942107534</v>
+        <v>178.66122622912576</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="2"/>
-        <v>7.9417207342744405</v>
+        <v>-64.221160929334701</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -34382,19 +34774,19 @@
       </c>
       <c r="E34" s="11">
         <f t="shared" si="0"/>
-        <v>1957.3488268477511</v>
+        <v>2053.8858507168729</v>
       </c>
       <c r="F34" s="11">
         <f t="shared" si="1"/>
-        <v>1392.9054758202551</v>
+        <v>1636.6468978753824</v>
       </c>
       <c r="G34" s="11">
         <f t="shared" si="4"/>
-        <v>139.29054758202551</v>
+        <v>163.66468978753824</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="2"/>
-        <v>69.65117315224893</v>
+        <v>-26.885850716872937</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -34414,19 +34806,19 @@
       </c>
       <c r="E35" s="11">
         <f t="shared" ref="E35:E66" si="5">$K$2/(1+$K$5*EXP(-$K$4*B35))</f>
-        <v>2078.938287638322</v>
+        <v>2199.2500539127318</v>
       </c>
       <c r="F35" s="11">
         <f t="shared" si="1"/>
-        <v>1215.8946079057091</v>
+        <v>1453.6420319585886</v>
       </c>
       <c r="G35" s="11">
         <f t="shared" si="4"/>
-        <v>121.58946079057091</v>
+        <v>145.36420319585886</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="2"/>
-        <v>-18.938287638321981</v>
+        <v>-139.2500539127318</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -34446,19 +34838,19 @@
       </c>
       <c r="E36" s="11">
         <f t="shared" si="5"/>
-        <v>2182.4307361303991</v>
+        <v>2324.8582985552998</v>
       </c>
       <c r="F36" s="11">
         <f t="shared" ref="F36:F67" si="6">(E36-E35)*10</f>
-        <v>1034.9244849207707</v>
+        <v>1256.0824464256802</v>
       </c>
       <c r="G36" s="11">
         <f t="shared" si="4"/>
-        <v>103.49244849207707</v>
+        <v>125.60824464256802</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="2"/>
-        <v>-96.430736130399055</v>
+        <v>-238.85829855529983</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -34478,19 +34870,19 @@
       </c>
       <c r="E37" s="11">
         <f t="shared" si="5"/>
-        <v>2268.6439624498003</v>
+        <v>2430.8424270086016</v>
       </c>
       <c r="F37" s="11">
         <f t="shared" si="6"/>
-        <v>862.13226319401201</v>
+        <v>1059.8412845330176</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="4"/>
-        <v>86.213226319401201</v>
+        <v>105.98412845330176</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="2"/>
-        <v>10.356037550199744</v>
+        <v>-151.84242700860159</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -34510,19 +34902,19 @@
       </c>
       <c r="E38" s="11">
         <f t="shared" si="5"/>
-        <v>2339.1844382015015</v>
+        <v>2518.4868994570184</v>
       </c>
       <c r="F38" s="11">
         <f t="shared" si="6"/>
-        <v>705.40475751701251</v>
+        <v>876.44472448416764</v>
       </c>
       <c r="G38" s="11">
         <f t="shared" si="4"/>
-        <v>70.540475751701251</v>
+        <v>87.644472448416764</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="2"/>
-        <v>43.815561798498493</v>
+        <v>-135.48689945701835</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -34542,19 +34934,19 @@
       </c>
       <c r="E39" s="11">
         <f t="shared" si="5"/>
-        <v>2396.0579234899396</v>
+        <v>2589.767101663203</v>
       </c>
       <c r="F39" s="11">
         <f t="shared" si="6"/>
-        <v>568.73485288438133</v>
+        <v>712.8020220618464</v>
       </c>
       <c r="G39" s="11">
         <f t="shared" si="4"/>
-        <v>56.873485288438133</v>
+        <v>71.28020220618464</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="2"/>
-        <v>111.94207651006036</v>
+        <v>-81.767101663202993</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -34564,17 +34956,29 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
+      <c r="C40" s="3">
+        <f>Dati!G40</f>
+        <v>2645</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="10">C40-C39</f>
+        <v>137</v>
+      </c>
       <c r="E40" s="11">
         <f t="shared" si="5"/>
-        <v>2441.370585299519</v>
+        <v>2646.9566337066594</v>
       </c>
       <c r="F40" s="11">
         <f t="shared" si="6"/>
-        <v>453.12661809579367</v>
+        <v>571.89532043456438</v>
       </c>
       <c r="G40" s="11">
         <f t="shared" si="4"/>
-        <v>45.312661809579367</v>
+        <v>57.189532043456438</v>
+      </c>
+      <c r="H40" s="11">
+        <f t="shared" si="2"/>
+        <v>-1.9566337066594315</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -34586,15 +34990,15 @@
       </c>
       <c r="E41" s="11">
         <f t="shared" si="5"/>
-        <v>2477.1317669550394</v>
+        <v>2692.3431378505884</v>
       </c>
       <c r="F41" s="11">
         <f t="shared" si="6"/>
-        <v>357.61181655520431</v>
+        <v>453.8650414392896</v>
       </c>
       <c r="G41" s="11">
         <f t="shared" si="4"/>
-        <v>35.761181655520431</v>
+        <v>45.38650414392896</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -34606,15 +35010,15 @@
       </c>
       <c r="E42" s="11">
         <f t="shared" si="5"/>
-        <v>2505.1442352908293</v>
+        <v>2728.0517524875231</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" si="6"/>
-        <v>280.1246833578989</v>
+        <v>357.08614636934726</v>
       </c>
       <c r="G42" s="11">
         <f t="shared" si="4"/>
-        <v>28.01246833578989</v>
+        <v>35.708614636934726</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -34626,15 +35030,15 @@
       </c>
       <c r="E43" s="11">
         <f t="shared" si="5"/>
-        <v>2526.958514717754</v>
+        <v>2755.9550293517373</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="6"/>
-        <v>218.14279426924713</v>
+        <v>279.03276864214149</v>
       </c>
       <c r="G43" s="11">
         <f t="shared" si="4"/>
-        <v>21.814279426924713</v>
+        <v>27.903276864214149</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -34646,15 +35050,15 @@
       </c>
       <c r="E44" s="11">
         <f t="shared" si="5"/>
-        <v>2543.8685021184901</v>
+        <v>2777.6430303644934</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="6"/>
-        <v>169.099874007361</v>
+        <v>216.88001012756104</v>
       </c>
       <c r="G44" s="11">
         <f t="shared" si="4"/>
-        <v>16.9099874007361</v>
+        <v>21.688001012756104</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -34666,15 +35070,15 @@
       </c>
       <c r="E45" s="11">
         <f t="shared" si="5"/>
-        <v>2556.9303481334159</v>
+        <v>2794.4303429215697</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="6"/>
-        <v>130.61846014925777</v>
+        <v>167.87312557076348</v>
       </c>
       <c r="G45" s="11">
         <f t="shared" si="4"/>
-        <v>13.061846014925777</v>
+        <v>16.787312557076348</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -34686,15 +35090,15 @@
       </c>
       <c r="E46" s="11">
         <f t="shared" si="5"/>
-        <v>2566.9921307177269</v>
+        <v>2807.3826414356249</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="6"/>
-        <v>100.61782584311004</v>
+        <v>129.52298514055201</v>
       </c>
       <c r="G46" s="11">
         <f t="shared" si="4"/>
-        <v>10.061782584311004</v>
+        <v>12.952298514055201</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -34706,15 +35110,15 @@
       </c>
       <c r="E47" s="11">
         <f t="shared" si="5"/>
-        <v>2574.7265485857847</v>
+        <v>2817.3512614988572</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="6"/>
-        <v>77.344178680577897</v>
+        <v>99.686200632322652</v>
       </c>
       <c r="G47" s="11">
         <f t="shared" si="4"/>
-        <v>7.7344178680577897</v>
+        <v>9.9686200632322652</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -34726,15 +35130,15 @@
       </c>
       <c r="E48" s="11">
         <f t="shared" si="5"/>
-        <v>2580.6622870867031</v>
+        <v>2825.008880258883</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="6"/>
-        <v>59.357385009184327</v>
+        <v>76.576187600257981</v>
       </c>
       <c r="G48" s="11">
         <f t="shared" si="4"/>
-        <v>5.9357385009184327</v>
+        <v>7.6576187600257981</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -34746,15 +35150,15 @@
       </c>
       <c r="E49" s="11">
         <f t="shared" si="5"/>
-        <v>2585.2119612561069</v>
+        <v>2830.8826253680968</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="6"/>
-        <v>45.496741694037155</v>
+        <v>58.737451092138144</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="4"/>
-        <v>4.5496741694037155</v>
+        <v>5.8737451092138144</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -34766,15 +35170,15 @@
       </c>
       <c r="E50" s="11">
         <f t="shared" si="5"/>
-        <v>2588.6959010868586</v>
+        <v>2835.3829878790311</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="6"/>
-        <v>34.839398307517513</v>
+        <v>45.003625109343375</v>
       </c>
       <c r="G50" s="11">
         <f t="shared" si="4"/>
-        <v>3.4839398307517513</v>
+        <v>4.5003625109343375</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -34786,15 +35190,15 @@
       </c>
       <c r="E51" s="11">
         <f t="shared" si="5"/>
-        <v>2591.3617960304282</v>
+        <v>2838.8281147732514</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="6"/>
-        <v>26.658949435695831</v>
+        <v>34.45126894220266</v>
       </c>
       <c r="G51" s="11">
         <f t="shared" si="4"/>
-        <v>2.6658949435695831</v>
+        <v>3.445126894220266</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -34806,15 +35210,15 @@
       </c>
       <c r="E52" s="11">
         <f t="shared" si="5"/>
-        <v>2593.40058412599</v>
+        <v>2841.4636941152994</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="6"/>
-        <v>20.38788095561813</v>
+        <v>26.35579342048004</v>
       </c>
       <c r="G52" s="11">
         <f t="shared" si="4"/>
-        <v>2.038788095561813</v>
+        <v>2.635579342048004</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -34826,15 +35230,15 @@
       </c>
       <c r="E53" s="11">
         <f t="shared" si="5"/>
-        <v>2594.9591136964473</v>
+        <v>2843.4789374930333</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="6"/>
-        <v>15.585295704572673</v>
+        <v>20.152433777338956</v>
       </c>
       <c r="G53" s="11">
         <f t="shared" si="4"/>
-        <v>1.5585295704572673</v>
+        <v>2.0152433777338956</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -34846,15 +35250,15 @@
       </c>
       <c r="E54" s="11">
         <f t="shared" si="5"/>
-        <v>2596.1501245921631</v>
+        <v>2845.019257979789</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="6"/>
-        <v>11.910108957158627</v>
+        <v>15.403204867557179</v>
       </c>
       <c r="G54" s="11">
         <f t="shared" si="4"/>
-        <v>1.1910108957158627</v>
+        <v>1.5403204867557179</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -34866,15 +35270,15 @@
       </c>
       <c r="E55" s="11">
         <f t="shared" si="5"/>
-        <v>2597.0600539918887</v>
+        <v>2846.1962307222379</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="6"/>
-        <v>9.0992939972556997</v>
+        <v>11.769727424489247</v>
       </c>
       <c r="G55" s="11">
         <f t="shared" si="4"/>
-        <v>0.90992939972556997</v>
+        <v>1.1769727424489247</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -34886,15 +35290,15 @@
       </c>
       <c r="E56" s="11">
         <f t="shared" si="5"/>
-        <v>2597.7551048626829</v>
+        <v>2847.095363227686</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="6"/>
-        <v>6.9505087079414807</v>
+        <v>8.9913250544805123</v>
       </c>
       <c r="G56" s="11">
         <f t="shared" si="4"/>
-        <v>0.69505087079414807</v>
+        <v>0.89913250544805123</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -34906,15 +35310,15 @@
       </c>
       <c r="E57" s="11">
         <f t="shared" si="5"/>
-        <v>2598.2859428979491</v>
+        <v>2847.7821249940803</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="6"/>
-        <v>5.3083803526624251</v>
+        <v>6.8676176639428377</v>
       </c>
       <c r="G57" s="11">
         <f t="shared" si="4"/>
-        <v>0.53083803526624251</v>
+        <v>0.68676176639428377</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -34930,15 +35334,15 @@
       </c>
       <c r="E58" s="11">
         <f t="shared" si="5"/>
-        <v>2598.6913198115967</v>
+        <v>2848.3066078808056</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="6"/>
-        <v>4.0537691364761486</v>
+        <v>5.2448288672530907</v>
       </c>
       <c r="G58" s="11">
         <f t="shared" si="4"/>
-        <v>0.40537691364761486</v>
+        <v>0.52448288672530907</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -34954,15 +35358,15 @@
       </c>
       <c r="E59" s="11">
         <f t="shared" si="5"/>
-        <v>2599.0008613819004</v>
+        <v>2848.7071174095267</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="6"/>
-        <v>3.0954157030373608</v>
+        <v>4.0050952872115886</v>
       </c>
       <c r="G59" s="11">
         <f t="shared" si="4"/>
-        <v>0.30954157030373608</v>
+        <v>0.40050952872115886</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -34978,15 +35382,15 @@
       </c>
       <c r="E60" s="11">
         <f t="shared" si="5"/>
-        <v>2599.237208706716</v>
+        <v>2849.0129339889581</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="6"/>
-        <v>2.3634732481559695</v>
+        <v>3.0581657943139362</v>
       </c>
       <c r="G60" s="11">
         <f t="shared" si="4"/>
-        <v>0.23634732481559695</v>
+        <v>0.30581657943139362</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -35002,15 +35406,15 @@
       </c>
       <c r="E61" s="11">
         <f t="shared" si="5"/>
-        <v>2599.4176603422156</v>
+        <v>2849.2464322920637</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="6"/>
-        <v>1.8045163549959398</v>
+        <v>2.3349830310553443</v>
       </c>
       <c r="G61" s="11">
         <f t="shared" si="4"/>
-        <v>0.18045163549959398</v>
+        <v>0.23349830310553443</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -35026,15 +35430,15 @@
       </c>
       <c r="E62" s="11">
         <f t="shared" si="5"/>
-        <v>2599.5554302854243</v>
+        <v>2849.4247058710266</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="6"/>
-        <v>1.3776994320869562</v>
+        <v>1.7827357896294416</v>
       </c>
       <c r="G62" s="11">
         <f t="shared" si="4"/>
-        <v>0.13776994320869562</v>
+        <v>0.17827357896294416</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -35050,15 +35454,15 @@
       </c>
       <c r="E63" s="11">
         <f t="shared" si="5"/>
-        <v>2599.6606108646256</v>
+        <v>2849.5608112814753</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="6"/>
-        <v>1.0518057920126012</v>
+        <v>1.3610541044863567</v>
       </c>
       <c r="G63" s="11">
         <f t="shared" si="4"/>
-        <v>0.10518057920126012</v>
+        <v>0.13610541044863567</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -35074,15 +35478,15 @@
       </c>
       <c r="E64" s="11">
         <f t="shared" si="5"/>
-        <v>2599.740909290897</v>
+        <v>2849.6647201126466</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="6"/>
-        <v>0.80298426271383505</v>
+        <v>1.0390883117133853</v>
       </c>
       <c r="G64" s="11">
         <f t="shared" si="4"/>
-        <v>8.0298426271383505E-2</v>
+        <v>0.10390883117133853</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -35098,15 +35502,15 @@
       </c>
       <c r="E65" s="11">
         <f t="shared" si="5"/>
-        <v>2599.8022108017672</v>
+        <v>2849.7440470842912</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="6"/>
-        <v>0.61301510870180209</v>
+        <v>0.79326971644604782</v>
       </c>
       <c r="G65" s="11">
         <f t="shared" si="4"/>
-        <v>6.1301510870180209E-2</v>
+        <v>7.9326971644604782E-2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -35122,15 +35526,15 @@
       </c>
       <c r="E66" s="11">
         <f t="shared" si="5"/>
-        <v>2599.8490090639743</v>
+        <v>2849.8046066404399</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="6"/>
-        <v>0.46798262207175867</v>
+        <v>0.60559556148746196</v>
       </c>
       <c r="G66" s="11">
         <f t="shared" si="4"/>
-        <v>4.6798262207175867E-2</v>
+        <v>6.0559556148746196E-2</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -35145,16 +35549,16 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="10">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
-        <v>2599.8847350317087</v>
+        <f t="shared" ref="E67:E96" si="11">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <v>2849.8508382962091</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="6"/>
-        <v>0.35725967734379083</v>
+        <v>0.46231655769133795</v>
       </c>
       <c r="G67" s="11">
         <f t="shared" si="4"/>
-        <v>3.5725967734379083E-2</v>
+        <v>4.6231655769133795E-2</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -35169,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9120081637548</v>
+        <f t="shared" si="11"/>
+        <v>2849.8861316038269</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="11">(E68-E67)*10</f>
-        <v>0.27273132046047976</v>
+        <f t="shared" ref="F68:F96" si="12">(E68-E67)*10</f>
+        <v>0.35293307617848768</v>
       </c>
       <c r="G68" s="11">
         <f t="shared" si="4"/>
-        <v>2.7273132046047976E-2</v>
+        <v>3.5293307617848768E-2</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -35189,20 +35593,20 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="12">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="13">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9328282986335</v>
+        <f t="shared" si="11"/>
+        <v>2849.9130743795231</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="11"/>
-        <v>0.20820134878704266</v>
+        <f t="shared" si="12"/>
+        <v>0.26942775696170429</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="13">E69-E68</f>
-        <v>2.0820134878704266E-2</v>
+        <f t="shared" ref="G69:G96" si="14">E69-E68</f>
+        <v>2.6942775696170429E-2</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -35213,20 +35617,20 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9336422848933</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9487221871082</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="11"/>
-        <v>0.15893888474693085</v>
+        <v>0.20567905370171502</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="13"/>
-        <v>1.5893888474693085E-2</v>
+        <f t="shared" si="14"/>
+        <v>2.0567905370171502E-2</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -35237,20 +35641,20 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9493436019134</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9608553864482</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="11"/>
-        <v>0.12133199340041756</v>
+        <v>0.15701317020102579</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="13"/>
-        <v>1.2133199340041756E-2</v>
+        <f t="shared" si="14"/>
+        <v>1.5701317020102579E-2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -35261,20 +35665,20 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9613297818069</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9701176982462</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="11"/>
-        <v>9.2623117980110692E-2</v>
+        <v>0.11986179893483495</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="13"/>
-        <v>9.2623117980110692E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.1986179893483495E-2</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -35285,20 +35689,20 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9704798536131</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9771884015604</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="11"/>
-        <v>7.0707033141843567E-2</v>
+        <v>9.1500718062889064E-2</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="13"/>
-        <v>7.0707033141843567E-3</v>
+        <f t="shared" si="14"/>
+        <v>9.1500718062889064E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -35309,20 +35713,20 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9774648703469</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9825860573665</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="11"/>
-        <v>5.3976558060639945E-2</v>
+        <v>6.9850167337790481E-2</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="13"/>
-        <v>5.3976558060639945E-3</v>
+        <f t="shared" si="14"/>
+        <v>6.9850167337790481E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -35333,20 +35737,20 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9827971119348</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9867065322105</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="11"/>
-        <v>4.1204748440577532E-2</v>
+        <v>5.3322415878938045E-2</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="13"/>
-        <v>4.1204748440577532E-3</v>
+        <f t="shared" si="14"/>
+        <v>5.3322415878938045E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -35357,20 +35761,20 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9868676492506</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9898520270035</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="11"/>
-        <v>3.1454947929887567E-2</v>
+        <v>4.0705373157834401E-2</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="13"/>
-        <v>3.1454947929887567E-3</v>
+        <f t="shared" si="14"/>
+        <v>4.0705373157834401E-3</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -35381,20 +35785,20 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9899750217951</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9922532383512</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="11"/>
-        <v>2.4012113476601371E-2</v>
+        <v>3.107372544491227E-2</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="13"/>
-        <v>2.4012113476601371E-3</v>
+        <f t="shared" si="14"/>
+        <v>3.107372544491227E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -35405,20 +35809,20 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9923471308375</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9940862768408</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="11"/>
-        <v>1.8330384896216856E-2</v>
+        <v>2.3721090424260183E-2</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="13"/>
-        <v>1.8330384896216856E-3</v>
+        <f t="shared" si="14"/>
+        <v>2.3721090424260183E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -35429,20 +35833,20 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9941579528972</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9954855825754</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="11"/>
-        <v>1.3993057345942361E-2</v>
+        <v>1.8108220597241598E-2</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="13"/>
-        <v>1.3993057345942361E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.8108220597241598E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -35453,20 +35857,20 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9955402988735</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9965537848934</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="11"/>
-        <v>1.0682023180379474E-2</v>
+        <v>1.3823459762534185E-2</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="13"/>
-        <v>1.0682023180379474E-3</v>
+        <f t="shared" si="14"/>
+        <v>1.3823459762534185E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -35477,20 +35881,20 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9965955543485</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9973692292292</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="11"/>
-        <v>8.1544433578528697E-3</v>
+        <v>1.0552554749665433E-2</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="13"/>
-        <v>8.1544433578528697E-4</v>
+        <f t="shared" si="14"/>
+        <v>1.0552554749665433E-3</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -35501,20 +35905,20 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9974011152658</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.997991723058</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="11"/>
-        <v>6.2249382881418569E-3</v>
+        <v>8.0556091734251822E-3</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="13"/>
-        <v>6.2249382881418569E-4</v>
+        <f t="shared" si="14"/>
+        <v>8.0556091734251822E-4</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -35525,20 +35929,20 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9980160642572</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9984669222836</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="11"/>
-        <v>4.7519922554783989E-3</v>
+        <v>6.1494899136960157E-3</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="13"/>
-        <v>4.7519922554783989E-4</v>
+        <f t="shared" si="14"/>
+        <v>6.1494899136960157E-4</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -35549,20 +35953,20 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9984855038865</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9988296797446</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="11"/>
-        <v>3.627574610618467E-3</v>
+        <v>4.6943962934165029E-3</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="13"/>
-        <v>3.627574610618467E-4</v>
+        <f t="shared" si="14"/>
+        <v>4.6943962934165029E-4</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -35573,20 +35977,20 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9988438645773</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.99910660142</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="11"/>
-        <v>2.7692167532222811E-3</v>
+        <v>3.5836069082506583E-3</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="13"/>
-        <v>2.7692167532222811E-4</v>
+        <f t="shared" si="14"/>
+        <v>3.5836069082506583E-4</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -35597,20 +36001,20 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9991174298411</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9993179977882</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="11"/>
-        <v>2.1139636828593211E-3</v>
+        <v>2.7356526379662682E-3</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="13"/>
-        <v>2.1139636828593211E-4</v>
+        <f t="shared" si="14"/>
+        <v>2.7356526379662682E-4</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -35621,20 +36025,20 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9993262639891</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9994793734645</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="11"/>
-        <v>1.6137567627083627E-3</v>
+        <v>2.0883414799754974E-3</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="13"/>
-        <v>1.6137567627083627E-4</v>
+        <f t="shared" si="14"/>
+        <v>2.0883414799754974E-4</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -35645,20 +36049,20 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9994856837156</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.99960256436</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="11"/>
-        <v>1.2319089546508621E-3</v>
+        <v>1.5941972651489777E-3</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="13"/>
-        <v>1.2319089546508621E-4</v>
+        <f t="shared" si="14"/>
+        <v>1.5941972651489777E-4</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -35669,20 +36073,20 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9996073814782</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9996966057706</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="11"/>
-        <v>9.4041410648060264E-4</v>
+        <v>1.2169776255177567E-3</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="13"/>
-        <v>9.4041410648060264E-5</v>
+        <f t="shared" si="14"/>
+        <v>1.2169776255177567E-4</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -35693,20 +36097,20 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9997002830614</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9997683950605</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="11"/>
-        <v>7.1789289904700126E-4</v>
+        <v>9.2901583229831886E-4</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="13"/>
-        <v>7.1789289904700126E-5</v>
+        <f t="shared" si="14"/>
+        <v>9.2901583229831886E-5</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -35717,20 +36121,20 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9997712022291</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9998231975346</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="11"/>
-        <v>5.4802474096504739E-4</v>
+        <v>7.0919167683314299E-4</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="13"/>
-        <v>5.4802474096504739E-5</v>
+        <f t="shared" si="14"/>
+        <v>7.0919167683314299E-5</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -35741,20 +36145,20 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9998253404706</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9998650326211</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="11"/>
-        <v>4.1835086449282244E-4</v>
+        <v>5.4138241466716863E-4</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="13"/>
-        <v>4.1835086449282244E-5</v>
+        <f t="shared" si="14"/>
+        <v>5.4138241466716863E-5</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -35765,20 +36169,20 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9998666684946</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9998969686694</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="11"/>
-        <v>3.1936048344505252E-4</v>
+        <v>4.1328024053655099E-4</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="13"/>
-        <v>3.1936048344505252E-5</v>
+        <f t="shared" si="14"/>
+        <v>4.1328024053655099E-5</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -35789,20 +36193,20 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9998982174616</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9999213479941</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="11"/>
-        <v>2.4379324713663664E-4</v>
+        <v>3.1548966944683343E-4</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="13"/>
-        <v>2.4379324713663664E-5</v>
+        <f t="shared" si="14"/>
+        <v>3.1548966944683343E-5</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -35813,20 +36217,20 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9999223012969</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9999399586709</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="11"/>
-        <v>1.861067676145467E-4</v>
+        <v>2.408383534202585E-4</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="13"/>
-        <v>1.861067676145467E-5</v>
+        <f t="shared" si="14"/>
+        <v>2.408383534202585E-5</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -35837,20 +36241,20 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="11"/>
+        <v>2849.9999406864026</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="10"/>
-        <v>2599.9999541656803</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="11"/>
-        <v>1.4207009371602908E-4</v>
+        <v>1.8385105704510352E-4</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="13"/>
-        <v>1.4207009371602908E-5</v>
+        <f t="shared" si="14"/>
+        <v>1.8385105704510352E-5</v>
       </c>
     </row>
     <row r="97" spans="2:7">
@@ -36186,8 +36590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36340,7 +36744,7 @@
         <v>6.3785317586993906E-2</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I39" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I40" si="5">C5-F5</f>
         <v>-0.26967276365501336</v>
       </c>
       <c r="J5" s="11"/>
@@ -36673,7 +37077,7 @@
       </c>
       <c r="L13" s="11">
         <f>L12-'Analisi-pos'!K12</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -37645,7 +38049,18 @@
       <c r="B40" s="10">
         <v>38</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3">
+        <f>Dati!K40</f>
+        <v>460</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">10*(C40-C39)</f>
+        <v>320</v>
+      </c>
       <c r="F40" s="11">
         <f t="shared" si="8"/>
         <v>459.04398762130774</v>
@@ -37658,7 +38073,10 @@
         <f t="shared" si="4"/>
         <v>18.2903139556106</v>
       </c>
-      <c r="I40" s="11"/>
+      <c r="I40" s="11">
+        <f t="shared" si="5"/>
+        <v>0.95601237869226452</v>
+      </c>
       <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10">
@@ -38107,7 +38525,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="13">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="15">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>529.63024209242406</v>
       </c>
       <c r="G60" s="11">
@@ -38130,7 +38548,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.71768779143986</v>
       </c>
       <c r="G61" s="11">
@@ -38153,7 +38571,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.78446148264879</v>
       </c>
       <c r="G62" s="11">
@@ -38176,7 +38594,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.83544648096051</v>
       </c>
       <c r="G63" s="11">
@@ -38199,7 +38617,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.87437398866132</v>
       </c>
       <c r="G64" s="11">
@@ -38222,7 +38640,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.90409430000159</v>
       </c>
       <c r="G65" s="11">
@@ -38245,7 +38663,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.92678442032593</v>
       </c>
       <c r="G66" s="11">
@@ -38268,7 +38686,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>529.94410690081224</v>
       </c>
       <c r="G67" s="11">
@@ -38295,33 +38713,36 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC7D5C-7175-4DC6-8E0B-0D02ADE1D616}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C20"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="2" max="2" width="9.8984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="20"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="B6" s="19">
         <v>43918</v>
       </c>
       <c r="C6" s="19">
         <v>43919</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="19">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -38331,8 +38752,11 @@
       <c r="C7" s="9">
         <v>2600</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="9">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -38342,8 +38766,11 @@
       <c r="C8" s="9">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="9">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
@@ -38353,22 +38780,28 @@
       <c r="C9" s="9">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D9" s="9">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="20"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="B17" s="19">
         <v>43918</v>
       </c>
       <c r="C17" s="19">
         <v>43919</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="19">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
         <v>22</v>
       </c>
@@ -38378,8 +38811,11 @@
       <c r="C18" s="9">
         <v>530</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="9">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -38389,8 +38825,11 @@
       <c r="C19" s="9">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
@@ -38398,6 +38837,9 @@
         <v>0.2</v>
       </c>
       <c r="C20" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="D20" s="9">
         <v>0.27</v>
       </c>
     </row>
@@ -38412,10 +38854,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39195,6 +39637,27 @@
         <v>171</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!L40</f>
+        <v>3660</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>244</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>-13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39207,10 +39670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39990,6 +40453,27 @@
         <v>-15</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!D40</f>
+        <v>179</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>-4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -39998,10 +40482,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40782,6 +41266,27 @@
         <v>51</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!J40</f>
+        <v>555</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>75</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40794,10 +41299,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41578,6 +42083,27 @@
         <v>10</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!K40</f>
+        <v>460</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>-10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41590,10 +42116,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42374,6 +42900,27 @@
         <v>-88</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!E40</f>
+        <v>1293</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>-39</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>-54</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42386,10 +42933,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43171,6 +43718,27 @@
         <v>110</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!G40</f>
+        <v>2645</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="12">B40-B39</f>
+        <v>137</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="13">C40-C39</f>
+        <v>12</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="14">D40-D39</f>
+        <v>-9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43183,10 +43751,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:E39"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43967,6 +44535,27 @@
         <v>198</v>
       </c>
     </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="3">
+        <f>Dati!F40</f>
+        <v>1352</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40" si="9">B40-B39</f>
+        <v>176</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="10">C40-C39</f>
+        <v>66</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="11">D40-D39</f>
+        <v>-14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43979,10 +44568,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45341,6 +45930,42 @@
         <v>24.171164225134923</v>
       </c>
     </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="10">
+        <v>38</v>
+      </c>
+      <c r="C40" s="3">
+        <f>Dati!M40</f>
+        <v>11334</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40" si="16">C40-C39</f>
+        <v>958</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40" si="17">D40-D39</f>
+        <v>259</v>
+      </c>
+      <c r="H40" s="5">
+        <f>C40/Casi_totali!B40</f>
+        <v>3.09672131147541</v>
+      </c>
+      <c r="I40" s="5">
+        <f>C40/Positivi!B40</f>
+        <v>4.2850661625708888</v>
+      </c>
+      <c r="J40" s="6">
+        <f t="shared" ref="J40" si="18">100/H40</f>
+        <v>32.292218104817366</v>
+      </c>
+      <c r="K40" s="6">
+        <f t="shared" ref="K40" si="19">100/I40</f>
+        <v>23.336862537497794</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C67287-FCEB-4FD0-B455-4FF17F926E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86965809-D586-47BA-8125-63BF75451EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -504,10 +504,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -621,16 +621,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$B$3:$B$41</c:f>
+              <c:f>Casi_totali!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -744,6 +747,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -784,10 +790,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -901,16 +907,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$41</c:f>
+              <c:f>Casi_totali!$C$3:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1021,6 +1030,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1057,10 +1069,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1174,16 +1186,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$41</c:f>
+              <c:f>Casi_totali!$D$3:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1291,6 +1306,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,10 +1349,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1448,16 +1466,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$E$3:$E$41</c:f>
+              <c:f>Casi_totali!$E$3:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="3">
                   <c:v>-12</c:v>
                 </c:pt>
@@ -1562,6 +1583,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,6 +3021,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3119,6 +3146,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3277,6 +3307,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3396,6 +3429,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3550,6 +3586,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3666,6 +3705,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3824,6 +3866,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3937,6 +3982,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4320,6 +4368,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4439,6 +4490,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4597,6 +4651,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4713,6 +4770,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4867,6 +4927,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4980,6 +5043,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5397,6 +5463,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5519,6 +5588,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5880,6 +5952,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6002,6 +6077,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1352</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6160,6 +6238,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6279,6 +6360,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6433,6 +6517,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6549,6 +6636,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6707,6 +6797,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6820,6 +6913,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7203,6 +7299,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7322,6 +7421,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7480,6 +7582,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7596,6 +7701,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7750,6 +7858,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7863,6 +7974,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8149,7 +8263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$C$1:$C$1</c:f>
+              <c:f>Tamponi!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8173,10 +8287,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$41</c:f>
+              <c:f>Tamponi!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -8290,16 +8404,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$C$3:$C$41</c:f>
+              <c:f>Tamponi!$C$3:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -8413,6 +8530,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>11334</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12069</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9325,6 +9445,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9444,6 +9567,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3.09672131147541</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.1911686938127977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9602,6 +9728,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -9721,6 +9850,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.2850661625708888</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5372180451127821</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10019,7 +10151,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$J$1:$J$1</c:f>
+              <c:f>Tamponi!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10043,10 +10175,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$39</c:f>
+              <c:f>Tamponi!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10157,16 +10289,22 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$39</c:f>
+              <c:f>Tamponi!$J$3:$J$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -10274,6 +10412,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>32.922127987663842</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>32.292218104817366</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.33648189576601</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10290,7 +10434,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tamponi!$K$1:$K$1</c:f>
+              <c:f>Tamponi!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -10314,10 +10458,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$39</c:f>
+              <c:f>Tamponi!$A$2:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10428,16 +10572,22 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$39</c:f>
+              <c:f>Tamponi!$K$2:$K$43</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="2">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -10545,6 +10695,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>24.171164225134923</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>23.336862537497794</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>22.039937028751346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10831,10 +10987,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -10948,16 +11104,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$41</c:f>
+              <c:f>Casi_totali!$C$3:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -11068,6 +11227,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11108,10 +11270,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -11225,16 +11387,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$41</c:f>
+              <c:f>Casi_totali!$D$3:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
@@ -11342,6 +11507,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11378,10 +11546,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -11495,16 +11663,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$E$3:$E$41</c:f>
+              <c:f>Casi_totali!$E$3:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="3">
                   <c:v>-12</c:v>
                 </c:pt>
@@ -11609,6 +11780,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12136,6 +12310,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13581,6 +13758,9 @@
                 <c:pt idx="37">
                   <c:v>2645</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>2660</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -14079,6 +14259,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15300,10 +15483,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$36</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$76</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -15405,16 +15588,136 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$H$3:$H$149</c:f>
+              <c:f>'Analisi-pos'!$H$3:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="147"/>
+                <c:ptCount val="73"/>
                 <c:pt idx="0">
                   <c:v>-0.70271304396464052</c:v>
                 </c:pt>
@@ -15528,6 +15831,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-1.9566337066594315</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-32.343137850588391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16303,10 +16609,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$41</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16423,16 +16729,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$D$3:$D$41</c:f>
+              <c:f>'Analisi-pos'!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16543,6 +16855,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17038,6 +17353,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18224,6 +18542,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19680,6 +20001,9 @@
                 <c:pt idx="37">
                   <c:v>0.95601237869226452</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>13.938414399021383</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20584,6 +20908,9 @@
                 <c:pt idx="37">
                   <c:v>32</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20844,7 +21171,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Casi_totali!$B$1:$B$1</c:f>
+              <c:f>Casi_totali!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -20868,10 +21195,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$41</c:f>
+              <c:f>Casi_totali!$A$3:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -20985,16 +21312,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$B$3:$B$41</c:f>
+              <c:f>Casi_totali!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -21108,6 +21438,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21504,6 +21837,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21626,6 +21962,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21784,6 +22123,9 @@
                 <c:pt idx="38">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21903,6 +22245,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22247,6 +22592,9 @@
                 <c:pt idx="38">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22360,6 +22708,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22743,6 +23094,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22865,6 +23219,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>555</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23023,6 +23380,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23142,6 +23502,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23296,6 +23659,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23412,6 +23778,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23570,6 +23939,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23683,6 +24055,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24985,7 +25360,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$C$1:$C$1</c:f>
+              <c:f>Deceduti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25009,10 +25384,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$41</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25126,16 +25501,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$C$3:$C$41</c:f>
+              <c:f>Deceduti!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -25246,6 +25624,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25262,7 +25643,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$D$1:$D$1</c:f>
+              <c:f>Deceduti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25286,10 +25667,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$41</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25403,16 +25784,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$D$3:$D$41</c:f>
+              <c:f>Deceduti!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -25520,6 +25904,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25536,7 +25923,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$E$1:$E$1</c:f>
+              <c:f>Deceduti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -25556,10 +25943,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$41</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25673,16 +26060,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$E$3:$E$41</c:f>
+              <c:f>Deceduti!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -25787,6 +26177,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26037,7 +26430,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$B$1:$B$1</c:f>
+              <c:f>Deceduti!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26061,10 +26454,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26178,16 +26571,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$B$3:$B$40</c:f>
+              <c:f>Deceduti!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -26301,6 +26697,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>488</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26317,7 +26716,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$C$1:$C$1</c:f>
+              <c:f>Deceduti!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26341,10 +26740,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26458,16 +26857,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$C$3:$C$40</c:f>
+              <c:f>Deceduti!$C$3:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -26578,6 +26980,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26594,7 +26999,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$D$1:$D$1</c:f>
+              <c:f>Deceduti!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26614,10 +27019,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26731,16 +27136,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$D$3:$D$40</c:f>
+              <c:f>Deceduti!$D$3:$D$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -26848,6 +27256,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26864,7 +27275,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Deceduti!$E$1:$E$1</c:f>
+              <c:f>Deceduti!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -26888,10 +27299,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Deceduti!$A$3:$A$40</c:f>
+              <c:f>Deceduti!$A$3:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -27005,16 +27416,19 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Deceduti!$E$3:$E$40</c:f>
+              <c:f>Deceduti!$E$3:$E$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
@@ -27119,6 +27533,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27502,6 +27919,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27624,6 +28044,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1292</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27782,6 +28205,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27901,6 +28327,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28055,6 +28484,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -28171,6 +28603,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>-54</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28329,6 +28764,9 @@
                 <c:pt idx="37">
                   <c:v>43922</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -28442,6 +28880,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32125,10 +32566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="A40" sqref="A40:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33675,6 +34116,47 @@
         <v>11334</v>
       </c>
     </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="18">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1120</v>
+      </c>
+      <c r="D41" s="17">
+        <v>172</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1292</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1368</v>
+      </c>
+      <c r="G41" s="17">
+        <v>2660</v>
+      </c>
+      <c r="H41" s="17">
+        <v>15</v>
+      </c>
+      <c r="I41" s="17">
+        <v>122</v>
+      </c>
+      <c r="J41" s="17">
+        <v>634</v>
+      </c>
+      <c r="K41" s="17">
+        <v>488</v>
+      </c>
+      <c r="L41" s="17">
+        <v>3782</v>
+      </c>
+      <c r="M41" s="17">
+        <v>12069</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -33688,8 +34170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="O11" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -33791,7 +34273,7 @@
         <v>0.52736753340353326</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H40" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H41" si="2">C4-E4</f>
         <v>-1.2300805773681738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -34988,6 +35470,14 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
+      <c r="C41" s="3">
+        <f>Dati!G41</f>
+        <v>2660</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="11">C41-C40</f>
+        <v>15</v>
+      </c>
       <c r="E41" s="11">
         <f t="shared" si="5"/>
         <v>2692.3431378505884</v>
@@ -35000,6 +35490,10 @@
         <f t="shared" si="4"/>
         <v>45.38650414392896</v>
       </c>
+      <c r="H41" s="11">
+        <f t="shared" si="2"/>
+        <v>-32.343137850588391</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2">
@@ -35549,7 +36043,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="11">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E96" si="12">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>2849.8508382962091</v>
       </c>
       <c r="F67" s="11">
@@ -35573,11 +36067,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2849.8861316038269</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="12">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F96" si="13">(E68-E67)*10</f>
         <v>0.35293307617848768</v>
       </c>
       <c r="G68" s="11">
@@ -35593,19 +36087,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="13">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="14">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2849.9130743795231</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.26942775696170429</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="14">E69-E68</f>
+        <f t="shared" ref="G69:G96" si="15">E69-E68</f>
         <v>2.6942775696170429E-2</v>
       </c>
     </row>
@@ -35617,19 +36111,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9336422848933</v>
+      </c>
+      <c r="F70" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9336422848933</v>
-      </c>
-      <c r="F70" s="11">
-        <f t="shared" si="12"/>
         <v>0.20567905370171502</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0567905370171502E-2</v>
       </c>
     </row>
@@ -35641,19 +36135,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9493436019134</v>
+      </c>
+      <c r="F71" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9493436019134</v>
-      </c>
-      <c r="F71" s="11">
-        <f t="shared" si="12"/>
         <v>0.15701317020102579</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5701317020102579E-2</v>
       </c>
     </row>
@@ -35665,19 +36159,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9613297818069</v>
+      </c>
+      <c r="F72" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9613297818069</v>
-      </c>
-      <c r="F72" s="11">
-        <f t="shared" si="12"/>
         <v>0.11986179893483495</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.1986179893483495E-2</v>
       </c>
     </row>
@@ -35689,19 +36183,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9704798536131</v>
+      </c>
+      <c r="F73" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9704798536131</v>
-      </c>
-      <c r="F73" s="11">
-        <f t="shared" si="12"/>
         <v>9.1500718062889064E-2</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.1500718062889064E-3</v>
       </c>
     </row>
@@ -35713,19 +36207,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9774648703469</v>
+      </c>
+      <c r="F74" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9774648703469</v>
-      </c>
-      <c r="F74" s="11">
-        <f t="shared" si="12"/>
         <v>6.9850167337790481E-2</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.9850167337790481E-3</v>
       </c>
     </row>
@@ -35737,19 +36231,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9827971119348</v>
+      </c>
+      <c r="F75" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9827971119348</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="12"/>
         <v>5.3322415878938045E-2</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.3322415878938045E-3</v>
       </c>
     </row>
@@ -35761,19 +36255,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9868676492506</v>
+      </c>
+      <c r="F76" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9868676492506</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="12"/>
         <v>4.0705373157834401E-2</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.0705373157834401E-3</v>
       </c>
     </row>
@@ -35785,19 +36279,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9899750217951</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9899750217951</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="12"/>
         <v>3.107372544491227E-2</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.107372544491227E-3</v>
       </c>
     </row>
@@ -35809,19 +36303,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9923471308375</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9923471308375</v>
-      </c>
-      <c r="F78" s="11">
-        <f t="shared" si="12"/>
         <v>2.3721090424260183E-2</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.3721090424260183E-3</v>
       </c>
     </row>
@@ -35833,19 +36327,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9941579528972</v>
+      </c>
+      <c r="F79" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9941579528972</v>
-      </c>
-      <c r="F79" s="11">
-        <f t="shared" si="12"/>
         <v>1.8108220597241598E-2</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8108220597241598E-3</v>
       </c>
     </row>
@@ -35857,19 +36351,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9955402988735</v>
+      </c>
+      <c r="F80" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9955402988735</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="12"/>
         <v>1.3823459762534185E-2</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.3823459762534185E-3</v>
       </c>
     </row>
@@ -35881,19 +36375,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9965955543485</v>
+      </c>
+      <c r="F81" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9965955543485</v>
-      </c>
-      <c r="F81" s="11">
-        <f t="shared" si="12"/>
         <v>1.0552554749665433E-2</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.0552554749665433E-3</v>
       </c>
     </row>
@@ -35905,19 +36399,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9974011152658</v>
+      </c>
+      <c r="F82" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9974011152658</v>
-      </c>
-      <c r="F82" s="11">
-        <f t="shared" si="12"/>
         <v>8.0556091734251822E-3</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.0556091734251822E-4</v>
       </c>
     </row>
@@ -35929,19 +36423,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9980160642572</v>
+      </c>
+      <c r="F83" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9980160642572</v>
-      </c>
-      <c r="F83" s="11">
-        <f t="shared" si="12"/>
         <v>6.1494899136960157E-3</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>6.1494899136960157E-4</v>
       </c>
     </row>
@@ -35953,19 +36447,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9984855038865</v>
+      </c>
+      <c r="F84" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9984855038865</v>
-      </c>
-      <c r="F84" s="11">
-        <f t="shared" si="12"/>
         <v>4.6943962934165029E-3</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.6943962934165029E-4</v>
       </c>
     </row>
@@ -35977,19 +36471,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9988438645773</v>
+      </c>
+      <c r="F85" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9988438645773</v>
-      </c>
-      <c r="F85" s="11">
-        <f t="shared" si="12"/>
         <v>3.5836069082506583E-3</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.5836069082506583E-4</v>
       </c>
     </row>
@@ -36001,19 +36495,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9991174298411</v>
+      </c>
+      <c r="F86" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9991174298411</v>
-      </c>
-      <c r="F86" s="11">
-        <f t="shared" si="12"/>
         <v>2.7356526379662682E-3</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7356526379662682E-4</v>
       </c>
     </row>
@@ -36025,19 +36519,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9993262639891</v>
+      </c>
+      <c r="F87" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9993262639891</v>
-      </c>
-      <c r="F87" s="11">
-        <f t="shared" si="12"/>
         <v>2.0883414799754974E-3</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.0883414799754974E-4</v>
       </c>
     </row>
@@ -36049,19 +36543,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9994856837156</v>
+      </c>
+      <c r="F88" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9994856837156</v>
-      </c>
-      <c r="F88" s="11">
-        <f t="shared" si="12"/>
         <v>1.5941972651489777E-3</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.5941972651489777E-4</v>
       </c>
     </row>
@@ -36073,19 +36567,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9996073814782</v>
+      </c>
+      <c r="F89" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9996073814782</v>
-      </c>
-      <c r="F89" s="11">
-        <f t="shared" si="12"/>
         <v>1.2169776255177567E-3</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.2169776255177567E-4</v>
       </c>
     </row>
@@ -36097,19 +36591,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9997002830614</v>
+      </c>
+      <c r="F90" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9997002830614</v>
-      </c>
-      <c r="F90" s="11">
-        <f t="shared" si="12"/>
         <v>9.2901583229831886E-4</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.2901583229831886E-5</v>
       </c>
     </row>
@@ -36121,19 +36615,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9997712022291</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9997712022291</v>
-      </c>
-      <c r="F91" s="11">
-        <f t="shared" si="12"/>
         <v>7.0919167683314299E-4</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.0919167683314299E-5</v>
       </c>
     </row>
@@ -36145,19 +36639,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9998253404706</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9998253404706</v>
-      </c>
-      <c r="F92" s="11">
-        <f t="shared" si="12"/>
         <v>5.4138241466716863E-4</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.4138241466716863E-5</v>
       </c>
     </row>
@@ -36169,19 +36663,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9998666684946</v>
+      </c>
+      <c r="F93" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9998666684946</v>
-      </c>
-      <c r="F93" s="11">
-        <f t="shared" si="12"/>
         <v>4.1328024053655099E-4</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.1328024053655099E-5</v>
       </c>
     </row>
@@ -36193,19 +36687,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9998982174616</v>
+      </c>
+      <c r="F94" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9998982174616</v>
-      </c>
-      <c r="F94" s="11">
-        <f t="shared" si="12"/>
         <v>3.1548966944683343E-4</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1548966944683343E-5</v>
       </c>
     </row>
@@ -36217,19 +36711,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9999223012969</v>
+      </c>
+      <c r="F95" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9999223012969</v>
-      </c>
-      <c r="F95" s="11">
-        <f t="shared" si="12"/>
         <v>2.408383534202585E-4</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.408383534202585E-5</v>
       </c>
     </row>
@@ -36241,19 +36735,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
+        <f t="shared" si="12"/>
+        <v>2849.9999406864026</v>
+      </c>
+      <c r="F96" s="11">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="11"/>
-        <v>2849.9999406864026</v>
-      </c>
-      <c r="F96" s="11">
-        <f t="shared" si="12"/>
         <v>1.8385105704510352E-4</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8385105704510352E-5</v>
       </c>
     </row>
@@ -36590,8 +37084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -36744,7 +37238,7 @@
         <v>6.3785317586993906E-2</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I40" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I41" si="5">C5-F5</f>
         <v>-0.26967276365501336</v>
       </c>
       <c r="J5" s="11"/>
@@ -38086,7 +38580,18 @@
       <c r="B41" s="10">
         <v>39</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3">
+        <f>Dati!K41</f>
+        <v>488</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="15">C41-C40</f>
+        <v>28</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="16">10*(C41-C40)</f>
+        <v>280</v>
+      </c>
       <c r="F41" s="11">
         <f t="shared" si="8"/>
         <v>474.06158560097862</v>
@@ -38099,7 +38604,10 @@
         <f t="shared" si="4"/>
         <v>15.017597979670882</v>
       </c>
-      <c r="I41" s="11"/>
+      <c r="I41" s="11">
+        <f t="shared" si="5"/>
+        <v>13.938414399021383</v>
+      </c>
       <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10">
@@ -38525,7 +39033,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="15">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="17">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>529.63024209242406</v>
       </c>
       <c r="G60" s="11">
@@ -38548,7 +39056,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.71768779143986</v>
       </c>
       <c r="G61" s="11">
@@ -38571,7 +39079,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.78446148264879</v>
       </c>
       <c r="G62" s="11">
@@ -38594,7 +39102,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.83544648096051</v>
       </c>
       <c r="G63" s="11">
@@ -38617,7 +39125,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.87437398866132</v>
       </c>
       <c r="G64" s="11">
@@ -38640,7 +39148,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.90409430000159</v>
       </c>
       <c r="G65" s="11">
@@ -38663,7 +39171,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.92678442032593</v>
       </c>
       <c r="G66" s="11">
@@ -38686,7 +39194,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>529.94410690081224</v>
       </c>
       <c r="G67" s="11">
@@ -38854,10 +39362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39658,6 +40166,27 @@
         <v>-13</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!L41</f>
+        <v>3782</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>122</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-122</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39670,10 +40199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40474,6 +41003,27 @@
         <v>1</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!D41</f>
+        <v>172</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>-7</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-7</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -40482,10 +41032,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41287,6 +41837,27 @@
         <v>6</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!J41</f>
+        <v>634</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>79</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41299,10 +41870,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42104,6 +42675,27 @@
         <v>-10</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!K41</f>
+        <v>488</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>28</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-4</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42116,10 +42708,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42921,6 +43513,27 @@
         <v>5</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!E41</f>
+        <v>1292</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>38</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42933,10 +43546,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43739,6 +44352,27 @@
         <v>-9</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!G41</f>
+        <v>2660</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="15">B41-B40</f>
+        <v>15</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="16">C41-C40</f>
+        <v>-122</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="17">D41-D40</f>
+        <v>-134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43751,10 +44385,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A40" sqref="A40:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44556,6 +45190,27 @@
         <v>-14</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="3">
+        <f>Dati!F41</f>
+        <v>1368</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41" si="12">B41-B40</f>
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="13">C41-C40</f>
+        <v>-160</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="14">D41-D40</f>
+        <v>-226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -44568,10 +45223,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45966,6 +46621,42 @@
         <v>23.336862537497794</v>
       </c>
     </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
+        <v>43923</v>
+      </c>
+      <c r="B41" s="10">
+        <v>39</v>
+      </c>
+      <c r="C41" s="3">
+        <f>Dati!M41</f>
+        <v>12069</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ref="D41" si="20">C41-C40</f>
+        <v>735</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41" si="21">D41-D40</f>
+        <v>-223</v>
+      </c>
+      <c r="H41" s="5">
+        <f>C41/Casi_totali!B41</f>
+        <v>3.1911686938127977</v>
+      </c>
+      <c r="I41" s="5">
+        <f>C41/Positivi!B41</f>
+        <v>4.5372180451127821</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" ref="J41" si="22">100/H41</f>
+        <v>31.33648189576601</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" ref="K41" si="23">100/I41</f>
+        <v>22.039937028751346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86965809-D586-47BA-8125-63BF75451EBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B109B4D-599F-4855-BEAE-2DE53EFF7ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -625,6 +625,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -750,6 +756,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3782</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -911,6 +923,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1033,6 +1051,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,6 +1214,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1309,6 +1339,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,6 +1506,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1586,6 +1628,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-167</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3024,6 +3072,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3149,6 +3203,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3310,6 +3370,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3432,6 +3498,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,6 +3661,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3708,6 +3786,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3869,6 +3953,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3985,6 +4075,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4371,6 +4467,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4493,6 +4595,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4654,6 +4762,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4773,6 +4887,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4930,6 +5050,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5046,6 +5172,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-134</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5466,6 +5598,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5591,6 +5726,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5955,6 +6093,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6080,6 +6221,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1368</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1426</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6241,6 +6385,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6363,6 +6510,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6520,6 +6670,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6639,6 +6792,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6800,6 +6956,9 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6916,6 +7075,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-226</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7302,6 +7464,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7424,6 +7592,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7585,6 +7759,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7704,6 +7884,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-160</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7861,6 +8047,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7977,6 +8169,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-226</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8408,6 +8606,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8533,6 +8737,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>12069</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12934</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14087</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8809,10 +9019,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$39</c:f>
+              <c:f>Tamponi!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -8923,16 +9133,28 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$D$3:$D$39</c:f>
+              <c:f>Tamponi!$D$3:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>38</c:v>
                 </c:pt>
@@ -9040,6 +9262,18 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>958</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>865</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10175,10 +10409,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$43</c:f>
+              <c:f>Tamponi!$A$3:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10295,16 +10529,22 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$43</c:f>
+              <c:f>Tamponi!$J$3:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -10418,6 +10658,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>31.33648189576601</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.655636307406837</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>29.836019024632641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10458,10 +10704,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$43</c:f>
+              <c:f>Tamponi!$A$2:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -10578,16 +10824,22 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$43</c:f>
+              <c:f>Tamponi!$K$2:$K$45</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="2">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -10701,6 +10953,12 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>22.039937028751346</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.230864388433584</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20.543763753815576</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11108,6 +11366,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11230,6 +11494,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11391,6 +11661,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11510,6 +11786,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11667,6 +11949,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11783,6 +12071,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-167</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12313,6 +12607,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13511,10 +13811,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$42</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$46</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -13634,16 +13934,28 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13760,6 +14072,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14013,10 +14331,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$42</c:f>
+              <c:f>'Analisi-pos'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14136,16 +14454,25 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$42</c:f>
+              <c:f>'Analisi-pos'!$C$3:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -14262,6 +14589,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15835,6 +16168,12 @@
                 <c:pt idx="38">
                   <c:v>-32.343137850588391</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>17.948247512476883</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>138.04497064826273</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -16609,10 +16948,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$A$3:$A$43</c:f>
+              <c:f>'Analisi-pos'!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16735,16 +17074,31 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-pos'!$D$3:$D$43</c:f>
+              <c:f>'Analisi-pos'!$D$3:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -16858,6 +17212,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17356,6 +17716,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>519</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18545,6 +18908,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20004,6 +20373,12 @@
                 <c:pt idx="38">
                   <c:v>13.938414399021383</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.795996059451909</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.099713204995226</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -20911,6 +21286,9 @@
                 <c:pt idx="38">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -21316,6 +21694,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21441,6 +21825,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>3782</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3965</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21840,6 +22230,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21965,6 +22361,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23097,6 +23499,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23222,6 +23630,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>634</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23383,6 +23797,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23505,6 +23925,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23662,6 +24088,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23781,6 +24213,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23942,6 +24380,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24058,6 +24502,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25505,6 +25955,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25627,6 +26083,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25788,6 +26250,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25907,6 +26375,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26064,6 +26538,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26180,6 +26660,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26575,6 +27061,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26700,6 +27192,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26861,6 +27359,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26983,6 +27487,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27140,6 +27650,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27259,6 +27775,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -27420,6 +27942,12 @@
                 <c:pt idx="38">
                   <c:v>43923</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27536,6 +28064,12 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -32566,10 +33100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B41"/>
+      <selection activeCell="C43" sqref="C43:M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -34157,6 +34691,88 @@
         <v>12069</v>
       </c>
     </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="18">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1147</v>
+      </c>
+      <c r="D42" s="17">
+        <v>173</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1320</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1426</v>
+      </c>
+      <c r="G42" s="17">
+        <v>2746</v>
+      </c>
+      <c r="H42" s="17">
+        <v>86</v>
+      </c>
+      <c r="I42" s="17">
+        <v>183</v>
+      </c>
+      <c r="J42" s="17">
+        <v>700</v>
+      </c>
+      <c r="K42" s="17">
+        <v>519</v>
+      </c>
+      <c r="L42" s="17">
+        <v>3965</v>
+      </c>
+      <c r="M42" s="17">
+        <v>12934</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="18">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="17">
+        <v>1121</v>
+      </c>
+      <c r="D43" s="17">
+        <v>169</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1290</v>
+      </c>
+      <c r="F43" s="17">
+        <v>1604</v>
+      </c>
+      <c r="G43" s="17">
+        <v>2894</v>
+      </c>
+      <c r="H43" s="17">
+        <v>148</v>
+      </c>
+      <c r="I43" s="17">
+        <v>238</v>
+      </c>
+      <c r="J43" s="17">
+        <v>767</v>
+      </c>
+      <c r="K43" s="17">
+        <v>542</v>
+      </c>
+      <c r="L43" s="17">
+        <v>4203</v>
+      </c>
+      <c r="M43" s="17">
+        <v>14087</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -34170,8 +34786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="O11" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -34273,7 +34889,7 @@
         <v>0.52736753340353326</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H41" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H43" si="2">C4-E4</f>
         <v>-1.2300805773681738</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -35502,6 +36118,14 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
+      <c r="C42" s="3">
+        <f>Dati!G42</f>
+        <v>2746</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="12">C42-C41</f>
+        <v>86</v>
+      </c>
       <c r="E42" s="11">
         <f t="shared" si="5"/>
         <v>2728.0517524875231</v>
@@ -35514,6 +36138,10 @@
         <f t="shared" si="4"/>
         <v>35.708614636934726</v>
       </c>
+      <c r="H42" s="11">
+        <f t="shared" si="2"/>
+        <v>17.948247512476883</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2">
@@ -35522,6 +36150,14 @@
       <c r="B43" s="10">
         <v>41</v>
       </c>
+      <c r="C43" s="3">
+        <f>Dati!G43</f>
+        <v>2894</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="13">C43-C42</f>
+        <v>148</v>
+      </c>
       <c r="E43" s="11">
         <f t="shared" si="5"/>
         <v>2755.9550293517373</v>
@@ -35534,6 +36170,10 @@
         <f t="shared" si="4"/>
         <v>27.903276864214149</v>
       </c>
+      <c r="H43" s="11">
+        <f t="shared" si="2"/>
+        <v>138.04497064826273</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2">
@@ -36043,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="12">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E96" si="14">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>2849.8508382962091</v>
       </c>
       <c r="F67" s="11">
@@ -36067,11 +36707,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2849.8861316038269</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="13">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F96" si="15">(E68-E67)*10</f>
         <v>0.35293307617848768</v>
       </c>
       <c r="G68" s="11">
@@ -36087,19 +36727,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="14">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="16">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>2849.9130743795231</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.26942775696170429</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="15">E69-E68</f>
+        <f t="shared" ref="G69:G96" si="17">E69-E68</f>
         <v>2.6942775696170429E-2</v>
       </c>
     </row>
@@ -36111,19 +36751,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9336422848933</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.20567905370171502</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0567905370171502E-2</v>
       </c>
     </row>
@@ -36135,19 +36775,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9493436019134</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.15701317020102579</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5701317020102579E-2</v>
       </c>
     </row>
@@ -36159,19 +36799,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9613297818069</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>0.11986179893483495</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.1986179893483495E-2</v>
       </c>
     </row>
@@ -36183,19 +36823,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9704798536131</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.1500718062889064E-2</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.1500718062889064E-3</v>
       </c>
     </row>
@@ -36207,19 +36847,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9774648703469</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.9850167337790481E-2</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.9850167337790481E-3</v>
       </c>
     </row>
@@ -36231,19 +36871,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9827971119348</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.3322415878938045E-2</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.3322415878938045E-3</v>
       </c>
     </row>
@@ -36255,19 +36895,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9868676492506</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.0705373157834401E-2</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.0705373157834401E-3</v>
       </c>
     </row>
@@ -36279,19 +36919,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9899750217951</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.107372544491227E-2</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.107372544491227E-3</v>
       </c>
     </row>
@@ -36303,19 +36943,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9923471308375</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.3721090424260183E-2</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.3721090424260183E-3</v>
       </c>
     </row>
@@ -36327,19 +36967,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9941579528972</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.8108220597241598E-2</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8108220597241598E-3</v>
       </c>
     </row>
@@ -36351,19 +36991,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9955402988735</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3823459762534185E-2</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.3823459762534185E-3</v>
       </c>
     </row>
@@ -36375,19 +37015,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9965955543485</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.0552554749665433E-2</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.0552554749665433E-3</v>
       </c>
     </row>
@@ -36399,19 +37039,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9974011152658</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8.0556091734251822E-3</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>8.0556091734251822E-4</v>
       </c>
     </row>
@@ -36423,19 +37063,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9980160642572</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.1494899136960157E-3</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>6.1494899136960157E-4</v>
       </c>
     </row>
@@ -36447,19 +37087,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9984855038865</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.6943962934165029E-3</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.6943962934165029E-4</v>
       </c>
     </row>
@@ -36471,19 +37111,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9988438645773</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.5836069082506583E-3</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.5836069082506583E-4</v>
       </c>
     </row>
@@ -36495,19 +37135,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9991174298411</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.7356526379662682E-3</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.7356526379662682E-4</v>
       </c>
     </row>
@@ -36519,19 +37159,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9993262639891</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0883414799754974E-3</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.0883414799754974E-4</v>
       </c>
     </row>
@@ -36543,19 +37183,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9994856837156</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.5941972651489777E-3</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.5941972651489777E-4</v>
       </c>
     </row>
@@ -36567,19 +37207,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9996073814782</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2169776255177567E-3</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.2169776255177567E-4</v>
       </c>
     </row>
@@ -36591,19 +37231,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9997002830614</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>9.2901583229831886E-4</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>9.2901583229831886E-5</v>
       </c>
     </row>
@@ -36615,19 +37255,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9997712022291</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>7.0919167683314299E-4</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>7.0919167683314299E-5</v>
       </c>
     </row>
@@ -36639,19 +37279,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9998253404706</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.4138241466716863E-4</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5.4138241466716863E-5</v>
       </c>
     </row>
@@ -36663,19 +37303,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9998666684946</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.1328024053655099E-4</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4.1328024053655099E-5</v>
       </c>
     </row>
@@ -36687,19 +37327,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9998982174616</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>3.1548966944683343E-4</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>3.1548966944683343E-5</v>
       </c>
     </row>
@@ -36711,19 +37351,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9999223012969</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.408383534202585E-4</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2.408383534202585E-5</v>
       </c>
     </row>
@@ -36735,19 +37375,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="12"/>
         <v>2849.9999406864026</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.8385105704510352E-4</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1.8385105704510352E-5</v>
       </c>
     </row>
@@ -37084,8 +37724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37238,7 +37878,7 @@
         <v>6.3785317586993906E-2</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I41" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I43" si="5">C5-F5</f>
         <v>-0.26967276365501336</v>
       </c>
       <c r="J5" s="11"/>
@@ -38617,7 +39257,18 @@
       <c r="B42" s="10">
         <v>40</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3">
+        <f>Dati!K42</f>
+        <v>519</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="17">C42-C41</f>
+        <v>31</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="18">10*(C42-C41)</f>
+        <v>310</v>
+      </c>
       <c r="F42" s="11">
         <f t="shared" si="8"/>
         <v>486.20400394054809</v>
@@ -38630,7 +39281,10 @@
         <f t="shared" si="4"/>
         <v>12.142418339569474</v>
       </c>
-      <c r="I42" s="11"/>
+      <c r="I42" s="11">
+        <f t="shared" si="5"/>
+        <v>32.795996059451909</v>
+      </c>
       <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10">
@@ -38640,7 +39294,18 @@
       <c r="B43" s="10">
         <v>41</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3">
+        <f>Dati!K43</f>
+        <v>542</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="19">C43-C42</f>
+        <v>23</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="20">10*(C43-C42)</f>
+        <v>230</v>
+      </c>
       <c r="F43" s="11">
         <f t="shared" si="8"/>
         <v>495.90028679500477</v>
@@ -38653,7 +39318,10 @@
         <f t="shared" si="4"/>
         <v>9.6962828544566833</v>
       </c>
-      <c r="I43" s="11"/>
+      <c r="I43" s="11">
+        <f t="shared" si="5"/>
+        <v>46.099713204995226</v>
+      </c>
       <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10">
@@ -39033,7 +39701,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="17">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="21">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>529.63024209242406</v>
       </c>
       <c r="G60" s="11">
@@ -39056,7 +39724,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.71768779143986</v>
       </c>
       <c r="G61" s="11">
@@ -39079,7 +39747,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.78446148264879</v>
       </c>
       <c r="G62" s="11">
@@ -39102,7 +39770,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.83544648096051</v>
       </c>
       <c r="G63" s="11">
@@ -39125,7 +39793,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.87437398866132</v>
       </c>
       <c r="G64" s="11">
@@ -39148,7 +39816,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.90409430000159</v>
       </c>
       <c r="G65" s="11">
@@ -39171,7 +39839,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.92678442032593</v>
       </c>
       <c r="G66" s="11">
@@ -39194,7 +39862,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="21"/>
         <v>529.94410690081224</v>
       </c>
       <c r="G67" s="11">
@@ -39362,10 +40030,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40187,6 +40855,48 @@
         <v>-167</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!L42</f>
+        <v>3965</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>183</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!L43</f>
+        <v>4203</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>238</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40199,10 +40909,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41024,6 +41734,48 @@
         <v>-3</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!D42</f>
+        <v>173</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!D43</f>
+        <v>169</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>-4</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -41032,10 +41784,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E41"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41858,6 +42610,48 @@
         <v>-28</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!J42</f>
+        <v>700</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>66</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>-13</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!J43</f>
+        <v>767</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>67</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41870,10 +42664,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42696,6 +43490,48 @@
         <v>-5</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!K42</f>
+        <v>519</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!K43</f>
+        <v>542</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-8</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42708,10 +43544,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43534,6 +44370,48 @@
         <v>92</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!E42</f>
+        <v>1320</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>29</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!E43</f>
+        <v>1290</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>-30</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>-58</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43546,10 +44424,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44373,6 +45251,48 @@
         <v>-134</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!G42</f>
+        <v>2746</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="18">B42-B41</f>
+        <v>86</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="19">C42-C41</f>
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="20">D42-D41</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!G43</f>
+        <v>2894</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="21">B43-B42</f>
+        <v>148</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="22">C43-C42</f>
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="23">D43-D42</f>
+        <v>-9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -44385,10 +45305,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:E41"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45211,6 +46131,48 @@
         <v>-226</v>
       </c>
     </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="3">
+        <f>Dati!F42</f>
+        <v>1426</v>
+      </c>
+      <c r="C42">
+        <f t="shared" ref="C42" si="15">B42-B41</f>
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="16">C42-C41</f>
+        <v>42</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="17">D42-D41</f>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="3">
+        <f>Dati!F43</f>
+        <v>1604</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43" si="18">B43-B42</f>
+        <v>178</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="19">C43-C42</f>
+        <v>120</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="20">D43-D42</f>
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -45223,10 +46185,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -46657,6 +47619,78 @@
         <v>22.039937028751346</v>
       </c>
     </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
+        <v>43924</v>
+      </c>
+      <c r="B42" s="10">
+        <v>40</v>
+      </c>
+      <c r="C42" s="3">
+        <f>Dati!M42</f>
+        <v>12934</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="24">C42-C41</f>
+        <v>865</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42" si="25">D42-D41</f>
+        <v>130</v>
+      </c>
+      <c r="H42" s="5">
+        <f>C42/Casi_totali!B42</f>
+        <v>3.2620428751576291</v>
+      </c>
+      <c r="I42" s="5">
+        <f>C42/Positivi!B42</f>
+        <v>4.7101238164603059</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" ref="J42" si="26">100/H42</f>
+        <v>30.655636307406837</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" ref="K42" si="27">100/I42</f>
+        <v>21.230864388433584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B43" s="10">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3">
+        <f>Dati!M43</f>
+        <v>14087</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="28">C43-C42</f>
+        <v>1153</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="29">D43-D42</f>
+        <v>288</v>
+      </c>
+      <c r="H43" s="5">
+        <f>C43/Casi_totali!B43</f>
+        <v>3.3516535807756362</v>
+      </c>
+      <c r="I43" s="5">
+        <f>C43/Positivi!B43</f>
+        <v>4.8676572218382859</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" ref="J43" si="30">100/H43</f>
+        <v>29.836019024632641</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" ref="K43" si="31">100/I43</f>
+        <v>20.543763753815576</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4660C11A-590B-4C78-941E-1931F7B96C7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBDB935-A1A9-4461-B838-17B496EFB8CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -504,10 +504,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$45</c:f>
+              <c:f>Casi_totali!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -633,16 +633,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$B$3:$B$45</c:f>
+              <c:f>Casi_totali!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -768,6 +774,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4449</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4549</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,10 +820,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$45</c:f>
+              <c:f>Casi_totali!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -937,16 +949,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$45</c:f>
+              <c:f>Casi_totali!$C$3:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1069,6 +1087,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1105,10 +1129,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$45</c:f>
+              <c:f>Casi_totali!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1234,16 +1258,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$45</c:f>
+              <c:f>Casi_totali!$D$3:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1363,6 +1393,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-146</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,10 +1664,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -1757,16 +1793,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$46</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1889,6 +1931,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,10 +1977,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -2058,16 +2106,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$46</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
@@ -2187,6 +2241,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2591,6 +2651,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2725,6 +2791,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,6 +2967,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3026,6 +3104,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3192,6 +3276,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3320,6 +3410,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-175</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,6 +3811,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3846,6 +3948,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4016,6 +4124,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4144,6 +4258,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-175</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,6 +4693,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4707,6 +4833,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4950,10 +5082,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$45</c:f>
+              <c:f>Quarantena!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5076,16 +5208,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$B$3:$B$45</c:f>
+              <c:f>Quarantena!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5208,6 +5349,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1604</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1814</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5248,10 +5398,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$45</c:f>
+              <c:f>Quarantena!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5374,16 +5524,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$45</c:f>
+              <c:f>Quarantena!$C$3:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5503,6 +5662,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5539,10 +5707,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$45</c:f>
+              <c:f>Quarantena!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -5665,16 +5833,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$45</c:f>
+              <c:f>Quarantena!$D$3:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
@@ -5791,6 +5968,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-186</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6056,10 +6242,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$44</c:f>
+              <c:f>Quarantena!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6182,16 +6368,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$44</c:f>
+              <c:f>Quarantena!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6311,6 +6506,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6351,10 +6555,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$44</c:f>
+              <c:f>Quarantena!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6477,16 +6681,25 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$44</c:f>
+              <c:f>Quarantena!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6603,6 +6816,15 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-186</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6913,10 +7135,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$44</c:f>
+              <c:f>Tamponi!$A$3:$A$51</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -7042,16 +7264,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$C$3:$C$44</c:f>
+              <c:f>Tamponi!$C$3:$C$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7177,6 +7405,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>15047</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15533</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16579</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7583,6 +7817,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7714,6 +7954,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7953,854 +8199,6 @@
                 <a:uFillTx/>
                 <a:latin typeface="Calibri"/>
               </a:rPr>
-              <a:t>tamponi/casi</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tamponi!$H$1:$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tamp/casi tot</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19046" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="4472C4"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tamponi!$A$3:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tamponi!$H$3:$H$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1052631578947372</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8947368421052628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8809523809523809</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.84</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.041666666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.115384615384615</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.2142857142857144</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.15625</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.4901960784313726</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.1410256410256414</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.6055045871559637</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.9219858156028371</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.2835051546391751</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.2846715328467155</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.1797101449275367</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.7796976241900646</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.5295169946332736</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.2818590704647677</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.2249357326478147</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.2829763246899661</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.1614730878186967</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.1072891072891071</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9972144846796658</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8783783783783785</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.831758034026465</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.8642082429501086</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.8453447604207245</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.8946587537091988</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.8975903614457832</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.9583875162548763</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.0080820640348152</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.0374707259953162</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.09672131147541</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.1911686938127977</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BDE4-4DBA-B24F-D6D01D1CEA98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tamponi!$I$1:$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>tamp/positivi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19046" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Tamponi!$A$3:$A$41</c:f>
-              <c:numCache>
-                <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="0">
-                  <c:v>43885</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43886</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>43887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>43888</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43890</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43891</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43892</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43893</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43894</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43895</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43896</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>43897</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>43898</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>43899</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43900</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43902</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43903</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43904</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43905</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43906</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>43907</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>43908</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>43909</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>43910</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>43911</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>43912</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>43913</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>43914</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43915</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43916</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43917</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43918</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>43919</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43920</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43921</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43922</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Tamponi!$I$3:$I$41</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="39"/>
-                <c:pt idx="1">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.1052631578947372</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.8947368421052628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1842105263157894</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.7619047619047619</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.7222222222222223</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.3684210526315788</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.9523809523809526</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5416666666666661</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.8809523809523814</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.9850746268656714</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.2989690721649483</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.421875</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.6629834254143647</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4.8312757201646095</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.7434210526315788</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.557291666666667</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4.0020283975659225</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.8069565217391306</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.7957639939485626</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.913978494623656</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.7916194790486974</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.7902097902097904</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.7135461604831752</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.6972612879348632</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.5660012878300065</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.541371158392435</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.6155531215772179</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.6033547113961522</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.788349514563107</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9199424736337489</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.9929793769197017</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>4.0608476710029375</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1371610845295059</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.2850661625708888</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.5372180451127821</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BDE4-4DBA-B24F-D6D01D1CEA98}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="450676488"/>
-        <c:axId val="450672880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="450672880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="450676488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="450676488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9528" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="d/m;@" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9528" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="BFBFBF"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="450672880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:tabLst/>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln w="9528" cap="flat">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:prstDash val="solid"/>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-        <a:lnSpc>
-          <a:spcPct val="100000"/>
-        </a:lnSpc>
-        <a:spcBef>
-          <a:spcPts val="0"/>
-        </a:spcBef>
-        <a:spcAft>
-          <a:spcPts val="0"/>
-        </a:spcAft>
-        <a:tabLst/>
-        <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFillTx/>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
               <a:t>casi/ tamponi %</a:t>
             </a:r>
           </a:p>
@@ -8849,10 +8247,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$45</c:f>
+              <c:f>Tamponi!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -8978,16 +8376,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$45</c:f>
+              <c:f>Tamponi!$J$3:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -9110,6 +8514,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>29.567355619060276</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29.286036181033928</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>28.692924784365765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9150,10 +8560,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$45</c:f>
+              <c:f>Tamponi!$A$2:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -9279,16 +8689,22 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$45</c:f>
+              <c:f>Tamponi!$K$2:$K$50</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="2">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -9411,6 +8827,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>20.555592476905694</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20.066954226485546</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.373906749502382</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9498,6 +8920,7 @@
         <c:axId val="450671896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="43895"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -9646,6 +9069,1456 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10976545145726382"/>
+          <c:y val="4.3504620834838748E-2"/>
+          <c:w val="0.5695288125220529"/>
+          <c:h val="0.84265805143407402"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analisi-pos'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nuovi_attualmente_positivi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28803" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisi-pos'!$B$3:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisi-pos'!$C$3:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>493</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>661</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>744</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1692</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1826</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2086</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2279</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2383</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2645</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2660</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2894</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3212</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2AB8-45BB-BB60-3FDFD467200A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analisi-pos'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>stima</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19046" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="ED7D31"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisi-pos'!$B$3:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisi-pos'!$E$3:$E$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>7.1814157788863371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5950105261894372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.28622116652091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.309293493384676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.728954097309003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.622384119675075</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.081542550135065</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.215891281217637</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.155577527029603</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.05513052191889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.097727198770727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.500073743966084</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.517933658391307</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>73.452304301633617</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>87.656197672285316</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104.54191074959019</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>124.58856798879177</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>148.34957424947618</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>176.45942098820208</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>209.63903401995006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>248.69853462910277</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>294.53591492398169</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>348.12972935582712</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>410.52353272001426</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>482.7995469227867</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>566.03906006635941</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>661.26754603080519</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>769.38366083636868</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>891.07331385044483</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1026.7129898172477</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1176.2702152706522</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1339.2129395275142</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1514.4426292320459</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1700.2667613728827</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1894.4239407054822</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2094.1685236435974</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2296.4120591293681</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2497.9080764651649</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2695.4576781010669</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2886.1088155453667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3067.323531673223</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3237.0943791574086</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3394.0014621078508</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3537.212100999554</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3666.4333841034718</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3781.8324310322278</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3883.9399981763299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3973.5510208899759</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4051.6321204564069</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4119.2422001896684</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4177.4688300507869</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4227.3805649205524</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4269.9937186654988</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4306.251288572932</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4337.0114791420874</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4363.0433978015035</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4385.0278147786175</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4403.5612727196685</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4419.1622226093023</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4432.2782104199296</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4443.2934271752265</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4452.5361617867866</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4460.2858668853341</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4466.7796719187809</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4472.2182646188949</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4476.7711203506069</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>4480.5810962931973</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2AB8-45BB-BB60-3FDFD467200A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analisi-pos'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10xstima'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19046" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="A5A5A5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Analisi-pos'!$B$3:$B$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Analisi-pos'!$F$3:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="1">
+                  <c:v>14.135947473031001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.912106403314731</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.230723268637654</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.196606039243278</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.934300223660721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.591584304599898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.343487310825715</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.396862458119664</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58.995529948892873</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.425966768518364</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84.02346545195357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100.17859914425223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>119.3437064324231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>142.03893370651699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168.85713077304871</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200.46657239201579</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>237.61006260684411</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>281.09846738725906</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>331.79613031747976</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>390.59500609152707</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>458.37380294878926</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>535.93814431845431</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>623.93803364187136</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>722.76014202772444</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>832.39513143572708</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>952.28485964445781</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1081.1611480556348</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1216.8965301407616</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1356.3967596680288</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1495.572254534045</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1629.4272425686199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1752.2968970453167</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1858.2413214083681</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1941.5717933259953</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1997.4458293811517</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2022.4353548577074</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2014.9601733579675</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1975.4960163590204</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1906.5113744429982</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1812.1471612785626</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1697.7084748418565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1569.0708295044215</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1432.1063889170318</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1292.2128310391781</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1153.9904692875598</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1021.0756714410218</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>896.1102271364598</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>780.81099566431021</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>676.100797332615</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>582.26629861118454</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>499.11734869765496</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>426.1315374494643</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>362.57569907433208</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>307.60190569155384</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>260.31918659416078</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>219.84416977114051</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>185.33457941050983</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>156.00949889633739</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>131.15987810627303</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>110.15216755296933</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>92.427346115600812</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>77.497050985475653</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.938050334467334</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54.385927001139862</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45.528557317120431</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>38.099759425904267</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2AB8-45BB-BB60-3FDFD467200A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="448854216"/>
+        <c:axId val="448853560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="448853560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6345" cap="flat">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6345" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448854216"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="448854216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="6345" cap="flat">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:tabLst/>
+              <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="448853560"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9528">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:tabLst/>
+            <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
+        <a:lnSpc>
+          <a:spcPct val="100000"/>
+        </a:lnSpc>
+        <a:spcBef>
+          <a:spcPts val="0"/>
+        </a:spcBef>
+        <a:spcAft>
+          <a:spcPts val="0"/>
+        </a:spcAft>
+        <a:tabLst/>
+        <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Calibri"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -9697,10 +10570,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$45</c:f>
+              <c:f>Casi_totali!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -9826,16 +10699,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$C$3:$C$45</c:f>
+              <c:f>Casi_totali!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -9958,6 +10837,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9998,10 +10883,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Casi_totali!$A$3:$A$45</c:f>
+              <c:f>Casi_totali!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -10127,16 +11012,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Casi_totali!$D$3:$D$45</c:f>
+              <c:f>Casi_totali!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
@@ -10256,6 +11147,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-146</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10486,1444 +11383,6 @@
   <c:roundedCorners val="0"/>
   <c:style val="2"/>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10976545145726382"/>
-          <c:y val="4.3504620834838748E-2"/>
-          <c:w val="0.5695288125220529"/>
-          <c:h val="0.84265805143407402"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Analisi-pos'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nuovi_attualmente_positivi</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28803" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$44</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Analisi-pos'!$C$3:$C$44</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>493</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>575</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>661</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>744</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>883</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1159</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1351</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1553</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1692</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1826</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2060</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2086</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2279</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2383</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2508</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2645</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2660</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2746</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2894</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3093</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2AB8-45BB-BB60-3FDFD467200A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Analisi-pos'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>stima</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19046" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$69</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="67"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Analisi-pos'!$E$3:$E$69</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="67"/>
-                <c:pt idx="0">
-                  <c:v>7.1814157788863371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5950105261894372</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.28622116652091</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12.309293493384676</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.728954097309003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17.622384119675075</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21.081542550135065</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.215891281217637</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.155577527029603</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36.05513052191889</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.097727198770727</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>51.500073743966084</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>61.517933658391307</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>73.452304301633617</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>87.656197672285316</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>104.54191074959019</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>124.58856798879177</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>148.34957424947618</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>176.45942098820208</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>209.63903401995006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>248.69853462910277</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>294.53591492398169</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>348.12972935582712</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>410.52353272001426</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>482.7995469227867</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>566.03906006635941</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>661.26754603080519</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>769.38366083636868</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>891.07331385044483</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1026.7129898172477</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1176.2702152706522</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1339.2129395275142</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1514.4426292320459</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1700.2667613728827</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1894.4239407054822</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2094.1685236435974</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2296.4120591293681</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2497.9080764651649</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2695.4576781010669</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2886.1088155453667</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3067.323531673223</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3237.0943791574086</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3394.0014621078508</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3537.212100999554</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3666.4333841034718</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3781.8324310322278</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3883.9399981763299</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3973.5510208899759</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4051.6321204564069</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>4119.2422001896684</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4177.4688300507869</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>4227.3805649205524</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>4269.9937186654988</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>4306.251288572932</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4337.0114791420874</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>4363.0433978015035</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>4385.0278147786175</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>4403.5612727196685</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4419.1622226093023</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>4432.2782104199296</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>4443.2934271752265</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>4452.5361617867866</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4460.2858668853341</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4466.7796719187809</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4472.2182646188949</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4476.7711203506069</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4480.5810962931973</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2AB8-45BB-BB60-3FDFD467200A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Analisi-pos'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10xstima'</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19046" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Analisi-pos'!$B$3:$B$69</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="67"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Analisi-pos'!$F$3:$F$69</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="67"/>
-                <c:pt idx="1">
-                  <c:v>14.135947473031001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.912106403314731</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.230723268637654</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.196606039243278</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.934300223660721</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>34.591584304599898</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.343487310825715</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49.396862458119664</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58.995529948892873</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>70.425966768518364</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>84.02346545195357</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.17859914425223</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>119.3437064324231</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>142.03893370651699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>168.85713077304871</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>200.46657239201579</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>237.61006260684411</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>281.09846738725906</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>331.79613031747976</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>390.59500609152707</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>458.37380294878926</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>535.93814431845431</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>623.93803364187136</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>722.76014202772444</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>832.39513143572708</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>952.28485964445781</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1081.1611480556348</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1216.8965301407616</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1356.3967596680288</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1495.572254534045</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1629.4272425686199</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1752.2968970453167</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1858.2413214083681</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1941.5717933259953</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1997.4458293811517</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2022.4353548577074</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2014.9601733579675</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1975.4960163590204</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1906.5113744429982</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1812.1471612785626</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1697.7084748418565</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1569.0708295044215</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1432.1063889170318</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1292.2128310391781</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1153.9904692875598</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1021.0756714410218</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>896.1102271364598</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>780.81099566431021</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>676.100797332615</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>582.26629861118454</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>499.11734869765496</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>426.1315374494643</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>362.57569907433208</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>307.60190569155384</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>260.31918659416078</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>219.84416977114051</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>185.33457941050983</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>156.00949889633739</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>131.15987810627303</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>110.15216755296933</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>92.427346115600812</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>77.497050985475653</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64.938050334467334</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>54.385927001139862</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45.528557317120431</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>38.099759425904267</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2AB8-45BB-BB60-3FDFD467200A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="448854216"/>
-        <c:axId val="448853560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="448853560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6345" cap="flat">
-              <a:solidFill>
-                <a:srgbClr val="B3B3B3"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="6345" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="448854216"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="448854216"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="65"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="6345" cap="flat">
-            <a:solidFill>
-              <a:srgbClr val="B3B3B3"/>
-            </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:tabLst/>
-              <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="448853560"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9528">
-          <a:solidFill>
-            <a:srgbClr val="B3B3B3"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:tabLst/>
-            <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr lIns="0" tIns="0" rIns="0" bIns="0"/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" fontAlgn="auto" hangingPunct="1">
-        <a:lnSpc>
-          <a:spcPct val="100000"/>
-        </a:lnSpc>
-        <a:spcBef>
-          <a:spcPts val="0"/>
-        </a:spcBef>
-        <a:spcAft>
-          <a:spcPts val="0"/>
-        </a:spcAft>
-        <a:tabLst/>
-        <a:defRPr lang="it-IT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <c:style val="2"/>
-  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -12263,6 +11722,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3117</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12464,7 +11929,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -12783,6 +12248,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3093</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13914,7 +13382,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -14364,6 +13832,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-144.09437915740864</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-277.00146210785078</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-325.21210099955397</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14562,7 +14036,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -15412,6 +14886,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15610,7 +15090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -15661,10 +15141,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$42</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -15784,16 +15264,34 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$C$3:$C$42</c:f>
+              <c:f>'Analisi-dead'!$C$3:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -15913,6 +15411,18 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15949,10 +15459,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$44</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16078,16 +15588,28 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$F$3:$F$44</c:f>
+              <c:f>'Analisi-dead'!$F$3:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>1.7950674336843644</c:v>
                 </c:pt>
@@ -16213,6 +15735,18 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>563.35568965270591</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>582.07298518808238</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>598.68749738006511</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>613.30984418457911</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>626.08232706863191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16229,7 +15763,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Analisi-dead'!$G$1:$G$1</c:f>
+              <c:f>'Analisi-dead'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -16266,10 +15800,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$40</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -16383,16 +15917,43 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$G$3:$G$40</c:f>
+              <c:f>'Analisi-dead'!$G$3:$G$49</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>3.5293213516547706</c:v>
                 </c:pt>
@@ -16503,6 +16064,33 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>287.57381758857434</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>270.79260000946988</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>251.46961387171075</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>230.52798087305973</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>208.84095137915665</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>187.17295535376479</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>166.14512191982726</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>146.22346804513995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127.72482884052806</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>110.83446413953425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -16590,7 +16178,7 @@
         <c:axId val="448850608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43930"/>
+          <c:max val="43935"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -16727,7 +16315,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -17111,6 +16699,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18224,7 +17818,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -18578,6 +18172,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-7.3556896527059052</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.927014811917616</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21.312502619934889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18776,7 +18376,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -18891,10 +18491,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$50</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19038,16 +18638,40 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43940</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$H$3:$H$50</c:f>
+              <c:f>'Analisi-dead'!$H$3:$H$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="56"/>
                 <c:pt idx="1">
                   <c:v>0.35293213516547706</c:v>
                 </c:pt>
@@ -19188,6 +18812,30 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>9.5629642866489348</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.2104711461111037</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7.0194613620102473</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9795164285834517</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0779410323187903</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.3010098551409328</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.6348664740843333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.0661331328849428</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5822933122524319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19239,10 +18887,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$42</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19362,16 +19010,31 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$D$3:$D$42</c:f>
+              <c:f>'Analisi-dead'!$D$3:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19488,6 +19151,18 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19903,6 +19578,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20037,6 +19718,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4449</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4549</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4757</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20445,6 +20132,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20579,6 +20272,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20749,6 +20448,12 @@
                 <c:pt idx="42">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20880,6 +20585,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21046,6 +20757,12 @@
                 <c:pt idx="42">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21174,6 +20891,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21569,6 +21292,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21703,6 +21432,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>925</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21873,6 +21608,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22004,6 +21745,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22170,6 +21917,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22298,6 +22051,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22702,6 +22461,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22833,6 +22598,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23003,6 +22774,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23131,6 +22908,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-34</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23535,6 +23318,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23666,6 +23455,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23836,6 +23631,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23964,6 +23765,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24368,6 +24175,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24502,6 +24315,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>620</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24672,6 +24491,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24803,6 +24628,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24969,6 +24800,12 @@
                 <c:pt idx="41">
                   <c:v>43926</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25097,6 +24934,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25362,10 +25205,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25491,16 +25334,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$B$3:$B$46</c:f>
+              <c:f>Ospedalizzati!$B$3:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -25626,6 +25475,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25666,10 +25521,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -25795,16 +25650,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$C$3:$C$46</c:f>
+              <c:f>Ospedalizzati!$C$3:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -25927,6 +25788,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-57</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25963,10 +25830,10 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$A$3:$A$46</c:f>
+              <c:f>Ospedalizzati!$A$3:$A$49</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -26092,16 +25959,22 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Ospedalizzati!$D$3:$D$46</c:f>
+              <c:f>Ospedalizzati!$D$3:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="47"/>
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
@@ -26221,6 +26094,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28989,7 +28868,7 @@
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
     <xdr:pos x="6927658" y="3381478"/>
-    <xdr:ext cx="5759641" cy="3239636"/>
+    <xdr:ext cx="6361622" cy="3239636"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Grafico 2">
@@ -29341,37 +29220,6 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19046</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4572000" cy="2743200"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7147C0-7D6A-4742-885C-4BF4EA33D739}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>293366</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -29395,7 +29243,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -29904,10 +29752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:B44"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31618,6 +31466,88 @@
         <v>15047</v>
       </c>
     </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="18">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1141</v>
+      </c>
+      <c r="D45" s="17">
+        <v>162</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1303</v>
+      </c>
+      <c r="F45" s="17">
+        <v>1814</v>
+      </c>
+      <c r="G45" s="17">
+        <v>3117</v>
+      </c>
+      <c r="H45" s="17">
+        <v>24</v>
+      </c>
+      <c r="I45" s="17">
+        <v>100</v>
+      </c>
+      <c r="J45" s="17">
+        <v>837</v>
+      </c>
+      <c r="K45" s="17">
+        <v>595</v>
+      </c>
+      <c r="L45" s="17">
+        <v>4549</v>
+      </c>
+      <c r="M45" s="17">
+        <v>15533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="18">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1090</v>
+      </c>
+      <c r="D46" s="17">
+        <v>156</v>
+      </c>
+      <c r="E46" s="17">
+        <v>1246</v>
+      </c>
+      <c r="F46" s="17">
+        <v>1966</v>
+      </c>
+      <c r="G46" s="17">
+        <v>3212</v>
+      </c>
+      <c r="H46" s="17">
+        <v>95</v>
+      </c>
+      <c r="I46" s="17">
+        <v>208</v>
+      </c>
+      <c r="J46" s="17">
+        <v>925</v>
+      </c>
+      <c r="K46" s="17">
+        <v>620</v>
+      </c>
+      <c r="L46" s="17">
+        <v>4757</v>
+      </c>
+      <c r="M46" s="17">
+        <v>16579</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -31631,8 +31561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K4"/>
+    <sheetView topLeftCell="E7" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -31734,7 +31664,7 @@
         <v>1.4135947473031001</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H44" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H46" si="2">C4-E4</f>
         <v>-7.5950105261894372</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -33059,6 +32989,14 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
+      <c r="C45" s="3">
+        <f>Dati!G45</f>
+        <v>3117</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="15">C45-C44</f>
+        <v>24</v>
+      </c>
       <c r="E45" s="11">
         <f t="shared" si="5"/>
         <v>3394.0014621078508</v>
@@ -33071,6 +33009,10 @@
         <f t="shared" si="4"/>
         <v>156.90708295044215</v>
       </c>
+      <c r="H45" s="11">
+        <f t="shared" si="2"/>
+        <v>-277.00146210785078</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2">
@@ -33079,6 +33021,14 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
+      <c r="C46" s="3">
+        <f>Dati!G46</f>
+        <v>3212</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="16">C46-C45</f>
+        <v>95</v>
+      </c>
       <c r="E46" s="11">
         <f t="shared" si="5"/>
         <v>3537.212100999554</v>
@@ -33091,6 +33041,10 @@
         <f t="shared" si="4"/>
         <v>143.21063889170318</v>
       </c>
+      <c r="H46" s="11">
+        <f t="shared" si="2"/>
+        <v>-325.21210099955397</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2">
@@ -33540,7 +33494,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="15">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E96" si="17">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>4472.2182646188949</v>
       </c>
       <c r="F67" s="11">
@@ -33564,11 +33518,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4476.7711203506069</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="16">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F96" si="18">(E68-E67)*10</f>
         <v>45.528557317120431</v>
       </c>
       <c r="G68" s="11">
@@ -33584,19 +33538,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="17">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="19">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>4480.5810962931973</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>38.099759425904267</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="18">E69-E68</f>
+        <f t="shared" ref="G69:G96" si="20">E69-E68</f>
         <v>3.8099759425904267</v>
       </c>
     </row>
@@ -33608,19 +33562,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="15"/>
         <v>4483.7684298146005</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>31.873335214031613</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.1873335214031613</v>
       </c>
     </row>
@@ -33632,19 +33586,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="15"/>
         <v>4486.4341923685588</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>26.657625539583023</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.6657625539583023</v>
       </c>
     </row>
@@ -33656,19 +33610,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="15"/>
         <v>4488.6632551828288</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>22.290628142700371</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.2290628142700371</v>
       </c>
     </row>
@@ -33680,19 +33634,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="15"/>
         <v>4490.5268233924444</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>18.635682096155506</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.8635682096155506</v>
       </c>
     </row>
@@ -33704,19 +33658,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="15"/>
         <v>4492.0845928596782</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>15.577694672338112</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.5577694672338112</v>
       </c>
     </row>
@@ -33728,19 +33682,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="15"/>
         <v>4493.386579924374</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13.019870646958225</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3019870646958225</v>
       </c>
     </row>
@@ -33752,19 +33706,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="15"/>
         <v>4494.4746695606636</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>10.880896362896237</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.0880896362896237</v>
       </c>
     </row>
@@ -33776,19 +33730,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="15"/>
         <v>4495.3839224110243</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0925285036064452</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.90925285036064452</v>
       </c>
     </row>
@@ -33800,19 +33754,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="15"/>
         <v>4496.1436762586482</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.5975384762386966</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.75975384762386966</v>
       </c>
     </row>
@@ -33824,19 +33778,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="15"/>
         <v>4496.778472880048</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.3479662139980064</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.63479662139980064</v>
       </c>
     </row>
@@ -33848,19 +33802,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="15"/>
         <v>4497.3088369947009</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.3036411465291167</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.53036411465291167</v>
       </c>
     </row>
@@ -33872,19 +33826,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="15"/>
         <v>4497.7519302404216</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.4309324572077458</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.44309324572077458</v>
       </c>
     </row>
@@ -33896,19 +33850,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="15"/>
         <v>4498.1220997562868</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.7016951586520008</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.37016951586520008</v>
       </c>
     </row>
@@ -33920,19 +33874,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="15"/>
         <v>4498.4313380309841</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.0923827469723619</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.30923827469723619</v>
       </c>
     </row>
@@ -33944,19 +33898,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="15"/>
         <v>4498.689668141782</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.5833011079794233</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.25833011079794233</v>
       </c>
     </row>
@@ -33968,19 +33922,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="15"/>
         <v>4498.9054663304669</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1579818868485745</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.21579818868485745</v>
       </c>
     </row>
@@ -33992,19 +33946,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="15"/>
         <v>4499.0857319983133</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.8026566784647002</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.18026566784647002</v>
       </c>
     </row>
@@ -34016,19 +33970,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="15"/>
         <v>4499.2363136136901</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.5058161537672277</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.15058161537672277</v>
       </c>
     </row>
@@ -34040,19 +33994,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="15"/>
         <v>4499.3620976774719</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2578406378179352</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.12578406378179352</v>
       </c>
     </row>
@@ -34064,19 +34018,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="15"/>
         <v>4499.4671667497742</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0506907230228535</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.10506907230228535</v>
       </c>
     </row>
@@ -34088,19 +34042,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="15"/>
         <v>4499.5549315772778</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.87764827503633569</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>8.7764827503633569E-2</v>
       </c>
     </row>
@@ -34112,19 +34066,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="15"/>
         <v>4499.6282415476044</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.73309970326590701</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>7.3309970326590701E-2</v>
       </c>
     </row>
@@ -34136,19 +34090,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="15"/>
         <v>4499.689477013022</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.61235465417667001</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.1235465417667001E-2</v>
       </c>
     </row>
@@ -34160,19 +34114,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="15"/>
         <v>4499.7406264506681</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.51149437646017759</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.1149437646017759E-2</v>
       </c>
     </row>
@@ -34184,19 +34138,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="15"/>
         <v>4499.7833509435786</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.42724492910565459</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.2724492910565459E-2</v>
       </c>
     </row>
@@ -34208,19 +34162,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="15"/>
         <v>4499.8190380616697</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.35687118091118464</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.5687118091118464E-2</v>
       </c>
     </row>
@@ -34232,19 +34186,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="15"/>
         <v>4499.8488468822134</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.2980882054362155</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.980882054362155E-2</v>
       </c>
     </row>
@@ -34581,8 +34535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -34735,7 +34689,7 @@
         <v>0.42206746949374097</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I44" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I46" si="5">C5-F5</f>
         <v>-2.5700670383435824</v>
       </c>
       <c r="J5" s="11"/>
@@ -36225,7 +36179,18 @@
       <c r="B45" s="10">
         <v>43</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3">
+        <f>Dati!K45</f>
+        <v>595</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="23">C45-C44</f>
+        <v>39</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="24">10*(C45-C44)</f>
+        <v>390</v>
+      </c>
       <c r="F45" s="11">
         <f t="shared" si="8"/>
         <v>582.07298518808238</v>
@@ -36238,7 +36203,10 @@
         <f t="shared" si="4"/>
         <v>18.717295535376479</v>
       </c>
-      <c r="I45" s="11"/>
+      <c r="I45" s="11">
+        <f t="shared" si="5"/>
+        <v>12.927014811917616</v>
+      </c>
       <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10">
@@ -36248,7 +36216,18 @@
       <c r="B46" s="10">
         <v>44</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3">
+        <f>Dati!K46</f>
+        <v>620</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="25">C46-C45</f>
+        <v>25</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="26">10*(C46-C45)</f>
+        <v>250</v>
+      </c>
       <c r="F46" s="11">
         <f t="shared" si="8"/>
         <v>598.68749738006511</v>
@@ -36261,7 +36240,10 @@
         <f t="shared" si="4"/>
         <v>16.614512191982726</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="11">
+        <f t="shared" si="5"/>
+        <v>21.312502619934889</v>
+      </c>
       <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10">
@@ -36572,7 +36554,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="23">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="27">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>690.59702111194656</v>
       </c>
       <c r="G60" s="11">
@@ -36595,7 +36577,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>692.12855400488604</v>
       </c>
       <c r="G61" s="11">
@@ -36618,7 +36600,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>693.41301407964738</v>
       </c>
       <c r="G62" s="11">
@@ -36641,7 +36623,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>694.48954509957593</v>
       </c>
       <c r="G63" s="11">
@@ -36664,7 +36646,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>695.39130477192521</v>
       </c>
       <c r="G64" s="11">
@@ -36687,7 +36669,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>696.14631462386978</v>
       </c>
       <c r="G65" s="11">
@@ -36710,7 +36692,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>696.77820962033013</v>
       </c>
       <c r="G66" s="11">
@@ -36733,7 +36715,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>697.30689261272312</v>
       </c>
       <c r="G67" s="11">
@@ -36762,7 +36744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECC7D5C-7175-4DC6-8E0B-0D02ADE1D616}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -36925,10 +36907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -37813,6 +37795,48 @@
         <v>-47</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!L45</f>
+        <v>4549</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>100</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>-146</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>-154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!L46</f>
+        <v>4757</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>208</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>108</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>254</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -37825,10 +37849,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -38713,6 +38737,48 @@
         <v>5</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!D45</f>
+        <v>162</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>-3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!D46</f>
+        <v>156</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>-6</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-3</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>-4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -38721,10 +38787,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39610,6 +39676,48 @@
         <v>-35</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!J45</f>
+        <v>837</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!J46</f>
+        <v>925</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>51</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39622,10 +39730,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40511,6 +40619,48 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!K45</f>
+        <v>595</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>39</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>25</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!K46</f>
+        <v>620</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>25</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-14</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>-39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -40523,10 +40673,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41412,6 +41562,48 @@
         <v>89</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!E45</f>
+        <v>1303</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="27">B45-B44</f>
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="28">C45-C44</f>
+        <v>11</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="29">D45-D44</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!E46</f>
+        <v>1246</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="30">B46-B45</f>
+        <v>-57</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="31">C46-C45</f>
+        <v>-69</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="32">D46-D45</f>
+        <v>-80</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41424,10 +41616,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42314,6 +42506,48 @@
         <v>-11</v>
       </c>
     </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!G45</f>
+        <v>3117</v>
+      </c>
+      <c r="C45">
+        <f>B45-B44</f>
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <f>C45-C44</f>
+        <v>-175</v>
+      </c>
+      <c r="E45">
+        <f>D45-D44</f>
+        <v>-226</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!G46</f>
+        <v>3212</v>
+      </c>
+      <c r="C46">
+        <f>B46-B45</f>
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <f>C46-C45</f>
+        <v>71</v>
+      </c>
+      <c r="E46">
+        <f>D46-D45</f>
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42326,10 +42560,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43194,6 +43428,69 @@
         <v>78</v>
       </c>
     </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>43926</v>
+      </c>
+      <c r="B44" s="3">
+        <f>Dati!F44</f>
+        <v>1802</v>
+      </c>
+      <c r="C44">
+        <f t="shared" ref="C44" si="21">B44-B43</f>
+        <v>198</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44" si="22">C44-C43</f>
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44" si="23">D44-D43</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="3">
+        <f>Dati!F45</f>
+        <v>1814</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45" si="24">B45-B44</f>
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="25">C45-C44</f>
+        <v>-186</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="26">D45-D44</f>
+        <v>-206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="3">
+        <f>Dati!F46</f>
+        <v>1966</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46" si="27">B46-B45</f>
+        <v>152</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="28">C46-C45</f>
+        <v>140</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="29">D46-D45</f>
+        <v>326</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -43206,10 +43503,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44748,6 +45045,78 @@
         <v>20.555592476905694</v>
       </c>
     </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B45" s="10">
+        <v>43</v>
+      </c>
+      <c r="C45" s="3">
+        <f>Dati!M45</f>
+        <v>15533</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45" si="36">C45-C44</f>
+        <v>486</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45" si="37">D45-D44</f>
+        <v>-474</v>
+      </c>
+      <c r="H45" s="5">
+        <f>C45/Casi_totali!B45</f>
+        <v>3.4145966146405802</v>
+      </c>
+      <c r="I45" s="5">
+        <f>C45/Positivi!B45</f>
+        <v>4.9833172922682065</v>
+      </c>
+      <c r="J45" s="6">
+        <f t="shared" ref="J45" si="38">100/H45</f>
+        <v>29.286036181033928</v>
+      </c>
+      <c r="K45" s="6">
+        <f t="shared" ref="K45" si="39">100/I45</f>
+        <v>20.066954226485546</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
+        <v>43928</v>
+      </c>
+      <c r="B46" s="10">
+        <v>44</v>
+      </c>
+      <c r="C46" s="3">
+        <f>Dati!M46</f>
+        <v>16579</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ref="D46" si="40">C46-C45</f>
+        <v>1046</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46" si="41">D46-D45</f>
+        <v>560</v>
+      </c>
+      <c r="H46" s="5">
+        <f>C46/Casi_totali!B46</f>
+        <v>3.4851797351271809</v>
+      </c>
+      <c r="I46" s="5">
+        <f>C46/Positivi!B46</f>
+        <v>5.1615815691158158</v>
+      </c>
+      <c r="J46" s="6">
+        <f t="shared" ref="J46" si="42">100/H46</f>
+        <v>28.692924784365765</v>
+      </c>
+      <c r="K46" s="6">
+        <f t="shared" ref="K46" si="43">100/I46</f>
+        <v>19.373906749502382</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/covid_lig.xlsx
+++ b/covid_lig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carpaneto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939EB03A-1B4A-4461-8871-3FFBA369FA0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3870EB37-8B58-44E9-ABFB-D1ECE0E780C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="39">
   <si>
     <t>data</t>
   </si>
@@ -649,6 +649,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -798,6 +804,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,6 +995,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1129,6 +1147,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,6 +1334,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1453,6 +1483,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1863,6 +1899,9 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2009,6 +2048,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,6 +2236,9 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2337,6 +2382,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2756,6 +2804,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2905,6 +2959,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3090,6 +3150,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3236,6 +3302,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3417,6 +3489,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3560,6 +3638,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3970,6 +4054,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4116,6 +4206,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4301,6 +4397,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4444,6 +4546,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4888,6 +4996,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5037,6 +5151,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5425,6 +5545,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5574,6 +5700,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>2074</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2184</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5759,6 +5891,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5905,6 +6043,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6086,6 +6230,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6229,6 +6379,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6494,10 +6650,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$50</c:f>
+              <c:f>Quarantena!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6638,16 +6794,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$C$3:$C$50</c:f>
+              <c:f>Quarantena!$C$3:$C$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6785,6 +6947,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6825,10 +6993,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Quarantena!$A$3:$A$50</c:f>
+              <c:f>Quarantena!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -6969,16 +7137,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Quarantena!$D$3:$D$50</c:f>
+              <c:f>Quarantena!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="2">
                   <c:v>5</c:v>
                 </c:pt>
@@ -7113,6 +7287,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7423,10 +7603,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$51</c:f>
+              <c:f>Tamponi!$A$3:$A$55</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -7567,16 +7747,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$C$3:$C$51</c:f>
+              <c:f>Tamponi!$C$3:$C$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="53"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -7717,6 +7903,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>19514</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20888</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>21983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8138,6 +8330,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8284,6 +8482,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1068</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1374</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8571,10 +8775,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$3:$A$50</c:f>
+              <c:f>Tamponi!$A$3:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -8715,16 +8919,22 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$J$3:$J$50</c:f>
+              <c:f>Tamponi!$J$3:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="1">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -8862,6 +9072,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>26.601414369170854</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25.737265415549597</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24.992039303097847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8902,10 +9118,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Tamponi!$A$2:$A$50</c:f>
+              <c:f>Tamponi!$A$2:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="1">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -9046,16 +9262,22 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tamponi!$K$2:$K$50</c:f>
+              <c:f>Tamponi!$K$2:$K$58</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="57"/>
                 <c:pt idx="2">
                   <c:v>2.5641025641025643</c:v>
                 </c:pt>
@@ -9193,6 +9415,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>16.916060264425539</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15.956530065109153</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15.161715871355137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9791,6 +10019,12 @@
                 <c:pt idx="46">
                   <c:v>3301</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11108,6 +11342,9 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11254,6 +11491,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11439,6 +11679,9 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -11582,6 +11825,9 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12188,6 +12434,12 @@
                 <c:pt idx="46">
                   <c:v>3301</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12743,6 +12995,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>3301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3333</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14340,6 +14598,12 @@
                 <c:pt idx="46">
                   <c:v>-24.226547845966707</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>-22.600535052587929</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-47.884900335413931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15418,6 +15682,12 @@
                 <c:pt idx="46">
                   <c:v>48</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -15972,6 +16242,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17335,6 +17611,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18538,10 +18820,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$B$3:$B$54</c:f>
+              <c:f>'Analisi-dead'!$B$3:$B$67</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="52"/>
+                <c:ptCount val="65"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -18697,6 +18979,45 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -18847,6 +19168,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-13.969910230343544</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-9.1006364793204284</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-11.436410101232127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19556,10 +19883,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$A$3:$A$47</c:f>
+              <c:f>'Analisi-dead'!$A$3:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>d/m;@</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
                   <c:v>43885.75</c:v>
                 </c:pt>
@@ -19694,16 +20021,34 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Analisi-dead'!$D$3:$D$47</c:f>
+              <c:f>'Analisi-dead'!$D$3:$D$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -19835,6 +20180,18 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20265,6 +20622,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20414,6 +20777,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>5191</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -20837,6 +21206,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -20986,6 +21361,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21171,6 +21552,12 @@
                 <c:pt idx="47">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21317,6 +21704,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21498,6 +21891,12 @@
                 <c:pt idx="47">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -21641,6 +22040,12 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22051,6 +22456,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22200,6 +22611,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22385,6 +22802,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22531,6 +22954,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22712,6 +23141,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -22855,6 +23290,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23274,6 +23715,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23420,6 +23867,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23605,6 +24058,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -23748,6 +24207,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24167,6 +24632,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24313,6 +24784,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24498,6 +24975,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -24641,6 +25124,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25060,6 +25549,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25209,6 +25704,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>734</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25394,6 +25895,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25540,6 +26047,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -25721,6 +26234,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -25864,6 +26383,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26274,6 +26799,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26423,6 +26954,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1149</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1176</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26608,6 +27145,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -26754,6 +27297,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-78</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -26935,6 +27484,12 @@
                 <c:pt idx="46">
                   <c:v>43931</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -27078,6 +27633,12 @@
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30730,10 +31291,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32649,6 +33210,128 @@
         <v>19514</v>
       </c>
     </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="18">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1003</v>
+      </c>
+      <c r="D50" s="17">
+        <v>146</v>
+      </c>
+      <c r="E50" s="17">
+        <v>1149</v>
+      </c>
+      <c r="F50" s="17">
+        <v>2184</v>
+      </c>
+      <c r="G50" s="17">
+        <v>3333</v>
+      </c>
+      <c r="H50" s="17">
+        <v>32</v>
+      </c>
+      <c r="I50" s="17">
+        <v>185</v>
+      </c>
+      <c r="J50" s="17">
+        <v>1309</v>
+      </c>
+      <c r="K50" s="17">
+        <v>734</v>
+      </c>
+      <c r="L50" s="17">
+        <v>5376</v>
+      </c>
+      <c r="M50" s="17">
+        <v>20888</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="18">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1032</v>
+      </c>
+      <c r="D51" s="17">
+        <v>144</v>
+      </c>
+      <c r="E51" s="17">
+        <v>1176</v>
+      </c>
+      <c r="F51" s="17">
+        <v>2157</v>
+      </c>
+      <c r="G51" s="17">
+        <v>3333</v>
+      </c>
+      <c r="H51" s="17">
+        <v>0</v>
+      </c>
+      <c r="I51" s="17">
+        <v>118</v>
+      </c>
+      <c r="J51" s="17">
+        <v>1412</v>
+      </c>
+      <c r="K51" s="17">
+        <v>749</v>
+      </c>
+      <c r="L51" s="17">
+        <v>5494</v>
+      </c>
+      <c r="M51" s="17">
+        <v>21983</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="18">
+        <v>43934</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="18">
+        <v>43935</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="18">
+        <v>43936</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="18">
+        <v>43937</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="18">
+        <v>43938</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -32662,8 +33345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:K149"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="I16" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50:H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -32765,7 +33448,7 @@
         <v>1.4833205651715247</v>
       </c>
       <c r="H4" s="11">
-        <f t="shared" ref="H4:H49" si="2">C4-E4</f>
+        <f t="shared" ref="H4:H51" si="2">C4-E4</f>
         <v>-7.1986993297401423</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -34250,6 +34933,14 @@
       <c r="B50" s="10">
         <v>48</v>
       </c>
+      <c r="C50" s="3">
+        <f>Dati!G50</f>
+        <v>3333</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="20">C50-C49</f>
+        <v>32</v>
+      </c>
       <c r="E50" s="11">
         <f t="shared" si="5"/>
         <v>3355.6005350525879</v>
@@ -34262,6 +34953,10 @@
         <f t="shared" si="4"/>
         <v>30.373987206621223</v>
       </c>
+      <c r="H50" s="11">
+        <f t="shared" si="2"/>
+        <v>-22.600535052587929</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2">
@@ -34270,6 +34965,14 @@
       <c r="B51" s="10">
         <v>49</v>
       </c>
+      <c r="C51" s="3">
+        <f>Dati!G51</f>
+        <v>3333</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="21">C51-C50</f>
+        <v>0</v>
+      </c>
       <c r="E51" s="11">
         <f t="shared" si="5"/>
         <v>3380.8849003354139</v>
@@ -34282,6 +34985,10 @@
         <f t="shared" si="4"/>
         <v>25.284365282826002</v>
       </c>
+      <c r="H51" s="11">
+        <f t="shared" si="2"/>
+        <v>-47.884900335413931</v>
+      </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2">
@@ -34631,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="11">
-        <f t="shared" ref="E67:E96" si="20">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
+        <f t="shared" ref="E67:E96" si="22">$K$2/(1+$K$5*EXP(-$K$4*B67))</f>
         <v>3494.9807494120287</v>
       </c>
       <c r="F67" s="11">
@@ -34655,11 +35362,11 @@
         <v>0</v>
       </c>
       <c r="E68" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3495.889516653423</v>
       </c>
       <c r="F68" s="11">
-        <f t="shared" ref="F68:F96" si="21">(E68-E67)*10</f>
+        <f t="shared" ref="F68:F96" si="23">(E68-E67)*10</f>
         <v>9.0876724139434373</v>
       </c>
       <c r="G68" s="11">
@@ -34675,19 +35382,19 @@
         <v>67</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D96" si="22">C69-C68</f>
+        <f t="shared" ref="D69:D96" si="24">C69-C68</f>
         <v>0</v>
       </c>
       <c r="E69" s="11">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3496.6339042763907</v>
       </c>
       <c r="F69" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.4438762296767891</v>
       </c>
       <c r="G69" s="11">
-        <f t="shared" ref="G69:G96" si="23">E69-E68</f>
+        <f t="shared" ref="G69:G96" si="25">E69-E68</f>
         <v>0.74438762296767891</v>
       </c>
     </row>
@@ -34699,19 +35406,19 @@
         <v>68</v>
       </c>
       <c r="D70">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="11">
-        <f t="shared" si="20"/>
         <v>3497.2435933773836</v>
       </c>
       <c r="F70" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.0968910099290952</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.60968910099290952</v>
       </c>
     </row>
@@ -34723,19 +35430,19 @@
         <v>69</v>
       </c>
       <c r="D71">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="11">
-        <f t="shared" si="20"/>
         <v>3497.7429229150703</v>
       </c>
       <c r="F71" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.9932953768666266</v>
       </c>
       <c r="G71" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.49932953768666266</v>
       </c>
     </row>
@@ -34747,19 +35454,19 @@
         <v>70</v>
       </c>
       <c r="D72">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="11">
-        <f t="shared" si="20"/>
         <v>3498.1518455352293</v>
       </c>
       <c r="F72" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.0892262015904635</v>
       </c>
       <c r="G72" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.40892262015904635</v>
       </c>
     </row>
@@ -34771,19 +35478,19 @@
         <v>71</v>
       </c>
       <c r="D73">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E73" s="11">
-        <f t="shared" si="20"/>
         <v>3498.4867142543235</v>
       </c>
       <c r="F73" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.3486871909417459</v>
       </c>
       <c r="G73" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.33486871909417459</v>
       </c>
     </row>
@@ -34795,19 +35502,19 @@
         <v>72</v>
       </c>
       <c r="D74">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="11">
-        <f t="shared" si="20"/>
         <v>3498.7609293097721</v>
       </c>
       <c r="F74" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.7421505544862157</v>
       </c>
       <c r="G74" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.27421505544862157</v>
       </c>
     </row>
@@ -34819,19 +35526,19 @@
         <v>73</v>
       </c>
       <c r="D75">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="20"/>
         <v>3498.9854696152402</v>
       </c>
       <c r="F75" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.245403054680537</v>
       </c>
       <c r="G75" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.2245403054680537</v>
       </c>
     </row>
@@ -34843,19 +35550,19 @@
         <v>74</v>
       </c>
       <c r="D76">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="20"/>
         <v>3499.1693291274946</v>
       </c>
       <c r="F76" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.8385951225445751</v>
       </c>
       <c r="G76" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.18385951225445751</v>
       </c>
     </row>
@@ -34867,19 +35574,19 @@
         <v>75</v>
       </c>
       <c r="D77">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="20"/>
         <v>3499.3198749510266</v>
       </c>
       <c r="F77" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.5054582353195656</v>
       </c>
       <c r="G77" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.15054582353195656</v>
       </c>
     </row>
@@ -34891,19 +35598,19 @@
         <v>76</v>
       </c>
       <c r="D78">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E78" s="11">
-        <f t="shared" si="20"/>
         <v>3499.4431410913894</v>
       </c>
       <c r="F78" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.232661403628299</v>
       </c>
       <c r="G78" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.1232661403628299</v>
       </c>
     </row>
@@ -34915,19 +35622,19 @@
         <v>77</v>
       </c>
       <c r="D79">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E79" s="11">
-        <f t="shared" si="20"/>
         <v>3499.5440693371729</v>
       </c>
       <c r="F79" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1.0092824578350701</v>
       </c>
       <c r="G79" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.10092824578350701</v>
       </c>
     </row>
@@ -34939,19 +35646,19 @@
         <v>78</v>
       </c>
       <c r="D80">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="20"/>
         <v>3499.6267067304229</v>
       </c>
       <c r="F80" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.82637393250024616</v>
       </c>
       <c r="G80" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.2637393250024616E-2</v>
       </c>
     </row>
@@ -34963,19 +35670,19 @@
         <v>79</v>
       </c>
       <c r="D81">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="11">
-        <f t="shared" si="20"/>
         <v>3499.69436741139</v>
       </c>
       <c r="F81" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.67660680967037479</v>
       </c>
       <c r="G81" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.7660680967037479E-2</v>
       </c>
     </row>
@@ -34987,19 +35694,19 @@
         <v>80</v>
       </c>
       <c r="D82">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="11">
-        <f t="shared" si="20"/>
         <v>3499.7497652395755</v>
       </c>
       <c r="F82" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.55397828185505205</v>
       </c>
       <c r="G82" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.5397828185505205E-2</v>
       </c>
     </row>
@@ -35011,19 +35718,19 @@
         <v>81</v>
       </c>
       <c r="D83">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E83" s="11">
-        <f t="shared" si="20"/>
         <v>3499.7951224509461</v>
       </c>
       <c r="F83" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.45357211370628647</v>
       </c>
       <c r="G83" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.5357211370628647E-2</v>
       </c>
     </row>
@@ -35035,19 +35742,19 @@
         <v>82</v>
       </c>
       <c r="D84">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E84" s="11">
-        <f t="shared" si="20"/>
         <v>3499.8322586700951</v>
       </c>
       <c r="F84" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.37136219149033423</v>
       </c>
       <c r="G84" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.7136219149033423E-2</v>
       </c>
     </row>
@@ -35059,19 +35766,19 @@
         <v>83</v>
       </c>
       <c r="D85">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E85" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E85" s="11">
-        <f t="shared" si="20"/>
         <v>3499.8626638215333</v>
       </c>
       <c r="F85" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.30405151438117173</v>
       </c>
       <c r="G85" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.0405151438117173E-2</v>
       </c>
     </row>
@@ -35083,19 +35790,19 @@
         <v>84</v>
       </c>
       <c r="D86">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E86" s="11">
-        <f t="shared" si="20"/>
         <v>3499.887557847399</v>
       </c>
       <c r="F86" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.24894025865705771</v>
       </c>
       <c r="G86" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.4894025865705771E-2</v>
       </c>
     </row>
@@ -35107,19 +35814,19 @@
         <v>85</v>
       </c>
       <c r="D87">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E87" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9079396156085</v>
       </c>
       <c r="F87" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20381768209517759</v>
       </c>
       <c r="G87" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>2.0381768209517759E-2</v>
       </c>
     </row>
@@ -35131,19 +35838,19 @@
         <v>86</v>
       </c>
       <c r="D88">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="11">
-        <f t="shared" si="20"/>
         <v>3499.924626972786</v>
       </c>
       <c r="F88" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.16687357177488593</v>
       </c>
       <c r="G88" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.6687357177488593E-2</v>
       </c>
     </row>
@@ -35155,19 +35862,19 @@
         <v>87</v>
       </c>
       <c r="D89">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E89" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9382895437707</v>
       </c>
       <c r="F89" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.1366257098470669</v>
       </c>
       <c r="G89" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.366257098470669E-2</v>
       </c>
     </row>
@@ -35179,19 +35886,19 @@
         <v>88</v>
       </c>
       <c r="D90">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E90" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9494755902197</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.11186046448983689</v>
       </c>
       <c r="G90" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.1186046448983689E-2</v>
       </c>
     </row>
@@ -35203,19 +35910,19 @@
         <v>89</v>
       </c>
       <c r="D91">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9586340036881</v>
       </c>
       <c r="F91" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>9.1584134684126184E-2</v>
       </c>
       <c r="G91" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.1584134684126184E-3</v>
       </c>
     </row>
@@ -35227,19 +35934,19 @@
         <v>90</v>
       </c>
       <c r="D92">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9661323141299</v>
       </c>
       <c r="F92" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>7.4983104418606672E-2</v>
       </c>
       <c r="G92" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>7.4983104418606672E-3</v>
       </c>
     </row>
@@ -35251,19 +35958,19 @@
         <v>91</v>
       </c>
       <c r="D93">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E93" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9722714354057</v>
       </c>
       <c r="F93" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.139121275737125E-2</v>
       </c>
       <c r="G93" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>6.139121275737125E-3</v>
       </c>
     </row>
@@ -35275,19 +35982,19 @@
         <v>92</v>
       </c>
       <c r="D94">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9772977388252</v>
       </c>
       <c r="F94" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>5.0263034195268119E-2</v>
       </c>
       <c r="G94" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>5.0263034195268119E-3</v>
       </c>
     </row>
@@ -35299,19 +36006,19 @@
         <v>93</v>
       </c>
       <c r="D95">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E95" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9814129387573</v>
       </c>
       <c r="F95" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>4.1151999321300536E-2</v>
       </c>
       <c r="G95" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>4.1151999321300536E-3</v>
       </c>
     </row>
@@ -35323,19 +36030,19 @@
         <v>94</v>
       </c>
       <c r="D96">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="11">
         <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="E96" s="11">
-        <f t="shared" si="20"/>
         <v>3499.9847821867015</v>
       </c>
       <c r="F96" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>3.3692479441924661E-2</v>
       </c>
       <c r="G96" s="11">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.3692479441924661E-3</v>
       </c>
     </row>
@@ -35672,8 +36379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -35826,7 +36533,7 @@
         <v>0.1319738533635979</v>
       </c>
       <c r="I5" s="11">
-        <f t="shared" ref="I5:I49" si="5">C5-F5</f>
+        <f t="shared" ref="I5:I51" si="5">C5-F5</f>
         <v>-0.72856565308762855</v>
       </c>
       <c r="J5" s="11"/>
@@ -37501,7 +38208,18 @@
       <c r="B50" s="10">
         <v>48</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3">
+        <f>Dati!K50</f>
+        <v>734</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="33">C50-C49</f>
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="34">10*(C50-C49)</f>
+        <v>250</v>
+      </c>
       <c r="F50" s="11">
         <f t="shared" si="8"/>
         <v>743.10063647932043</v>
@@ -37514,7 +38232,10 @@
         <f t="shared" si="4"/>
         <v>20.130726248976885</v>
       </c>
-      <c r="I50" s="11"/>
+      <c r="I50" s="11">
+        <f t="shared" si="5"/>
+        <v>-9.1006364793204284</v>
+      </c>
       <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10">
@@ -37524,7 +38245,18 @@
       <c r="B51" s="10">
         <v>49</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3">
+        <f>Dati!K51</f>
+        <v>749</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="35">C51-C50</f>
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="36">10*(C51-C50)</f>
+        <v>150</v>
+      </c>
       <c r="F51" s="11">
         <f t="shared" si="8"/>
         <v>760.43641010123213</v>
@@ -37537,7 +38269,10 @@
         <f t="shared" si="4"/>
         <v>17.335773621911699</v>
       </c>
-      <c r="I51" s="11"/>
+      <c r="I51" s="11">
+        <f t="shared" si="5"/>
+        <v>-11.436410101232127</v>
+      </c>
       <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10">
@@ -37733,7 +38468,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="F60" s="11">
-        <f t="shared" ref="F60:F67" si="33">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
+        <f t="shared" ref="F60:F67" si="37">$L$2/(1+$L$5*EXP(-$L$4*B60))</f>
         <v>833.76757064043159</v>
       </c>
       <c r="G60" s="11">
@@ -37756,7 +38491,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="F61" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>836.66384519365499</v>
       </c>
       <c r="G61" s="11">
@@ -37779,7 +38514,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="F62" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>839.05013807741977</v>
       </c>
       <c r="G62" s="11">
@@ -37802,7 +38537,7 @@
       </c>
       <c r="C63" s="3"/>
       <c r="F63" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>841.01402775413442</v>
       </c>
       <c r="G63" s="11">
@@ -37825,7 +38560,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="F64" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>842.62878249143387</v>
       </c>
       <c r="G64" s="11">
@@ -37848,7 +38583,7 @@
       </c>
       <c r="C65" s="3"/>
       <c r="F65" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>843.95545569190665</v>
       </c>
       <c r="G65" s="11">
@@ -37871,7 +38606,7 @@
       </c>
       <c r="C66" s="3"/>
       <c r="F66" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>845.04475814671559</v>
       </c>
       <c r="G66" s="11">
@@ -37894,7 +38629,7 @@
       </c>
       <c r="C67" s="3"/>
       <c r="F67" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>845.93869934800944</v>
       </c>
       <c r="G67" s="11">
@@ -38086,10 +38821,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -39079,6 +39814,48 @@
         <v>92</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!L50</f>
+        <v>5376</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="42">B50-B49</f>
+        <v>185</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="43">C50-C49</f>
+        <v>14</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="44">D50-D49</f>
+        <v>-43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!L51</f>
+        <v>5494</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="45">B51-B50</f>
+        <v>118</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="46">C51-C50</f>
+        <v>-67</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="47">D51-D50</f>
+        <v>-81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -39091,10 +39868,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -40084,6 +40861,48 @@
         <v>-8</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!D50</f>
+        <v>146</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="42">B50-B49</f>
+        <v>-5</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="43">C50-C49</f>
+        <v>-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="44">D50-D49</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!D51</f>
+        <v>144</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="45">B51-B50</f>
+        <v>-2</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="46">C51-C50</f>
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="47">D51-D50</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <drawing r:id="rId1"/>
@@ -40092,10 +40911,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -41086,6 +41905,48 @@
         <v>22</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!J50</f>
+        <v>1309</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="42">B50-B49</f>
+        <v>128</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="43">C50-C49</f>
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="44">D50-D49</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!J51</f>
+        <v>1412</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="45">B51-B50</f>
+        <v>103</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="46">C51-C50</f>
+        <v>-25</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="47">D51-D50</f>
+        <v>-57</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -41098,10 +41959,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -42092,6 +42953,48 @@
         <v>5</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!K50</f>
+        <v>734</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="42">B50-B49</f>
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="43">C50-C49</f>
+        <v>-2</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="44">D50-D49</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!K51</f>
+        <v>749</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="45">B51-B50</f>
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="46">C51-C50</f>
+        <v>-10</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="47">D51-D50</f>
+        <v>-8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -42104,10 +43007,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -43086,21 +43989,59 @@
         <v>1227</v>
       </c>
       <c r="C49">
-        <f t="shared" ref="C49:C50" si="39">B49-B48</f>
+        <f t="shared" ref="C49" si="39">B49-B48</f>
         <v>-30</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D50" si="40">C49-C48</f>
+        <f t="shared" ref="D49" si="40">C49-C48</f>
         <v>-25</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E50" si="41">D49-D48</f>
+        <f t="shared" ref="E49" si="41">D49-D48</f>
         <v>-4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="2"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!E50</f>
+        <v>1149</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="42">B50-B49</f>
+        <v>-78</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="43">C50-C49</f>
+        <v>-48</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="44">D50-D49</f>
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!E51</f>
+        <v>1176</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="45">B51-B50</f>
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="46">C51-C50</f>
+        <v>105</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="47">D51-D50</f>
+        <v>153</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
@@ -43114,10 +44055,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -44109,6 +45050,48 @@
         <v>65</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!G50</f>
+        <v>3333</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="34">B50-B49</f>
+        <v>32</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="35">C50-C49</f>
+        <v>-16</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="36">D50-D49</f>
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!G51</f>
+        <v>3333</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="37">B51-B50</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="38">C51-C50</f>
+        <v>-32</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="39">D51-D50</f>
+        <v>-16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -44121,10 +45104,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -45115,6 +46098,48 @@
         <v>69</v>
       </c>
     </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="3">
+        <f>Dati!F50</f>
+        <v>2184</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50" si="39">B50-B49</f>
+        <v>110</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="40">C50-C49</f>
+        <v>32</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="41">D50-D49</f>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="3">
+        <f>Dati!F51</f>
+        <v>2157</v>
+      </c>
+      <c r="C51">
+        <f t="shared" ref="C51" si="42">B51-B50</f>
+        <v>-27</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="43">C51-C50</f>
+        <v>-137</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="44">D51-D50</f>
+        <v>-169</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157505" bottom="0.39370078740157505" header="0" footer="0"/>
   <headerFooter>
@@ -45127,10 +46152,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -46849,6 +47874,78 @@
         <v>16.916060264425539</v>
       </c>
     </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
+        <v>43932</v>
+      </c>
+      <c r="B50" s="10">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3">
+        <f>Dati!M50</f>
+        <v>20888</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="56">C50-C49</f>
+        <v>1374</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50" si="57">D50-D49</f>
+        <v>306</v>
+      </c>
+      <c r="H50" s="5">
+        <f>C50/Casi_totali!B50</f>
+        <v>3.8854166666666665</v>
+      </c>
+      <c r="I50" s="5">
+        <f>C50/Positivi!B50</f>
+        <v>6.2670267026702673</v>
+      </c>
+      <c r="J50" s="6">
+        <f t="shared" ref="J50" si="58">100/H50</f>
+        <v>25.737265415549597</v>
+      </c>
+      <c r="K50" s="6">
+        <f t="shared" ref="K50" si="59">100/I50</f>
+        <v>15.956530065109153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
+        <v>43933</v>
+      </c>
+      <c r="B51" s="10">
+        <v>49</v>
+      </c>
+      <c r="C51" s="3">
+        <f>Dati!M51</f>
+        <v>21983</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51" si="60">C51-C50</f>
+        <v>1095</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51" si="61">D51-D50</f>
+        <v>-279</v>
+      </c>
+      <c r="H51" s="5">
+        <f>C51/Casi_totali!B51</f>
+        <v>4.0012741172187845</v>
+      </c>
+      <c r="I51" s="5">
+        <f>C51/Positivi!B51</f>
+        <v>6.595559555955596</v>
+      </c>
+      <c r="J51" s="6">
+        <f t="shared" ref="J51" si="62">100/H51</f>
+        <v>24.992039303097847</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" ref="K51" si="63">100/I51</f>
+        <v>15.161715871355137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
